--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -125,26 +125,26 @@
     <t>DSTATE</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>VOID</t>
   </si>
   <si>
-    <t>0 =Default; Valid Record_x000D_
+    <t>0 =Default; Valid Record
 1 = VOID record</t>
   </si>
   <si>
@@ -230,8 +230,8 @@
     <t>MFILED</t>
   </si>
   <si>
-    <t>0 = Electronic Mode_x000D_
-1 = Paper Mode_x000D_
+    <t>0 = Electronic Mode
+1 = Paper Mode
 2 = Mixed Mode</t>
   </si>
   <si>
@@ -295,7 +295,7 @@
     <t>ALIAS</t>
   </si>
   <si>
-    <t>0 = Original Record_x000D_
+    <t>0 = Original Record
 1 = Alias Record</t>
   </si>
   <si>
@@ -317,8 +317,8 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>M = Male_x000D_
-F = Female_x000D_
+    <t>M = Male
+F = Female
 U = Unknown</t>
   </si>
   <si>
@@ -334,7 +334,7 @@
     <t>SEX_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
+    <t>0 = Edit Passed
 1 = Edit Failed, Data Queried, and Verified</t>
   </si>
   <si>
@@ -356,11 +356,11 @@
     <t>AGETYPE</t>
   </si>
   <si>
-    <t>1 = Years_x000D_
-2 = Months_x000D_
-4 = Days_x000D_
-5 = Hours_x000D_
-6 = Minutes_x000D_
+    <t>1 = Years
+2 = Months
+4 = Days
+5 = Hours
+6 = Minutes
 9 = Unknown (not classifiable)</t>
   </si>
   <si>
@@ -379,12 +379,12 @@
     <t xml:space="preserve">AGE </t>
   </si>
   <si>
-    <t>001 - 135, 999_x000D_
-Codes: If AGETYPE = 1 then 001-135, 999_x000D_
-                                        2 then 001-011, 999_x000D_
-                                        4 then 001-027, 999_x000D_
-                                        5 then 001-023, 999_x000D_
-                                        6 then 001-059, 999_x000D_
+    <t>001 - 135, 999
+Codes: If AGETYPE = 1 then 001-135, 999
+                                        2 then 001-011, 999
+                                        4 then 001-027, 999
+                                        5 then 001-023, 999
+                                        6 then 001-059, 999
                                         9 then 999</t>
   </si>
   <si>
@@ -460,28 +460,28 @@
     <t>BPLACE_ST</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
-For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR_x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
+For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -524,28 +524,28 @@
     <t>STATEC</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
-For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
+For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -585,11 +585,11 @@
     <t>MARITAL</t>
   </si>
   <si>
-    <t>M = Married_x000D_
-A = Married but Separated_x000D_
-W = Widowed_x000D_
-D = Divorced_x000D_
-S = Never Married_x000D_
+    <t>M = Married
+A = Married but Separated
+W = Widowed
+D = Divorced
+S = Never Married
 U = Not Classifiable</t>
   </si>
   <si>
@@ -605,9 +605,9 @@
     <t>MARITAL_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
-1 = Edit Failed, Data Queried, and Verified_x000D_
-2 = Edit Failed, Data Queried, but not Verified_x000D_
+    <t>0 = Edit Passed
+1 = Edit Failed, Data Queried, and Verified
+2 = Edit Failed, Data Queried, but not Verified
 4 = Edit Failed, Query Needed</t>
   </si>
   <si>
@@ -623,13 +623,13 @@
     <t>DPLACE</t>
   </si>
   <si>
-    <t>1 = Inpatient_x000D_
-2 = Emergency Room/Outpatient_x000D_
-3 = Dead on Arrival_x000D_
-4 = Decedent's Home_x000D_
-5 = Hospice Facility_x000D_
-6 = Nursing Home/Long Term Care Facility_x000D_
-7 = Other_x000D_
+    <t>1 = Inpatient
+2 = Emergency Room/Outpatient
+3 = Dead on Arrival
+4 = Decedent's Home
+5 = Hospice Facility
+6 = Nursing Home/Long Term Care Facility
+7 = Other
 9 = Unknown</t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <t>COD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
+    <t>NCHS Instruction Manual: Part 8
 Variable description ("Contents") edited; same as NCHS "Facility Name--County"</t>
   </si>
   <si>
@@ -655,12 +655,12 @@
     <t>DISP</t>
   </si>
   <si>
-    <t>B = Burial_x000D_
-C = Cremation_x000D_
-D = Donation_x000D_
-E = Entombment_x000D_
-R = Removal from state_x000D_
-O = Other_x000D_
+    <t>B = Burial
+C = Cremation
+D = Donation
+E = Entombment
+R = Removal from state
+O = Other
 U = Unknown</t>
   </si>
   <si>
@@ -697,14 +697,14 @@
     <t>DEDUC</t>
   </si>
   <si>
-    <t>1 = 8th grade or less_x000D_
-2 = 9th through 12th grade; no diploma_x000D_
-3 = High School Graduate or GED Completed_x000D_
-4 = Some college credit, but no degree_x000D_
-5 = Associate Degree_x000D_
-6 = Bachelor's Degree_x000D_
-7 = Master's Degree_x000D_
-8 = Doctorate Degree or Professional Degree_x000D_
+    <t>1 = 8th grade or less
+2 = 9th through 12th grade; no diploma
+3 = High School Graduate or GED Completed
+4 = Some college credit, but no degree
+5 = Associate Degree
+6 = Bachelor's Degree
+7 = Master's Degree
+8 = Doctorate Degree or Professional Degree
 9 = Unknown</t>
   </si>
   <si>
@@ -720,10 +720,10 @@
     <t>DEDUC_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
-1 = Edit Failed, Data Queried, and Verified_x000D_
-2 = Edit Failed, Data Queried, but not Verified_x000D_
-3 = Edit Failed, Review Needed_x000D_
+    <t>0 = Edit Passed
+1 = Edit Failed, Data Queried, and Verified
+2 = Edit Failed, Data Queried, but not Verified
+3 = Edit Failed, Review Needed
 4 = Edit Failed, Query Needed</t>
   </si>
   <si>
@@ -739,8 +739,8 @@
     <t>DETHNIC1</t>
   </si>
   <si>
-    <t>N = No, Not Mexican_x000D_
-H = Yes, Mexican_x000D_
+    <t>N = No, Not Mexican
+H = Yes, Mexican
 U = Unknown</t>
   </si>
   <si>
@@ -762,8 +762,8 @@
     <t>DETHNIC2</t>
   </si>
   <si>
-    <t>N = No, Not Puerto Rican_x000D_
-H = Yes, Puerto Rican_x000D_
+    <t>N = No, Not Puerto Rican
+H = Yes, Puerto Rican
 U = Unknown</t>
   </si>
   <si>
@@ -776,8 +776,8 @@
     <t>DETHNIC3</t>
   </si>
   <si>
-    <t>N = No, Not Cuban_x000D_
-H = Yes, Cuban_x000D_
+    <t>N = No, Not Cuban
+H = Yes, Cuban
 U = Unknown</t>
   </si>
   <si>
@@ -790,8 +790,8 @@
     <t>DETHNIC4</t>
   </si>
   <si>
-    <t>N = No, Not other Hispanic_x000D_
-H = Yes, other Hispanic_x000D_
+    <t>N = No, Not other Hispanic
+H = Yes, other Hispanic
 U = Unknown</t>
   </si>
   <si>
@@ -816,7 +816,7 @@
     <t>RACE1</t>
   </si>
   <si>
-    <t>Y = Yes, box for race checked_x000D_
+    <t>Y = Yes, box for race checked
 N = No, box for race not checked</t>
   </si>
   <si>
@@ -1192,8 +1192,8 @@
     <t>RACE_MVR</t>
   </si>
   <si>
-    <t>R = Refused_x000D_
-S = Sought, but Unknown_x000D_
+    <t>R = Refused
+S = Sought, but Unknown
 C = Not Obtainable</t>
   </si>
   <si>
@@ -1260,8 +1260,8 @@
     <t>IDOB_YR</t>
   </si>
   <si>
-    <t>4 digit year = year of death or (year of death - 1)_x000D_
-9999 = unknown_x000D_
+    <t>4 digit year = year of death or (year of death - 1)
+9999 = unknown
 Blank</t>
   </si>
   <si>
@@ -1277,30 +1277,29 @@
     <t>BSTATE</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA_x000D_
-YC = NEW YORK CITY_x000D_
-_x000D_
-For US Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA
+YC = NEW YORK CITY
+For US Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -1886,7 +1885,7 @@
     <t>SPOUSELV</t>
   </si>
   <si>
-    <t>1=yes; 2=no; 8=unmarried; 9=unknown;_x000D_
+    <t>1=yes; 2=no; 8=unmarried; 9=unknown;
 blank if not reported</t>
   </si>
   <si>
@@ -2019,7 +2018,7 @@
     <t>RESSTATE</t>
   </si>
   <si>
-    <t>See codes used before new 2003 codes -_x000D_
+    <t>See codes used before new 2003 codes -
 Receiving state will recode</t>
   </si>
   <si>
@@ -2035,8 +2034,8 @@
     <t xml:space="preserve">DETHNICE </t>
   </si>
   <si>
-    <t>100 = NonHispanic_x000D_
-200-299 = Hispanic_x000D_
+    <t>100 = NonHispanic
+200-299 = Hispanic
 996-999 = Unknown</t>
   </si>
   <si>
@@ -2160,9 +2159,9 @@
     <t>TRANSPRT</t>
   </si>
   <si>
-    <t>DR=Driver/Operator_x000D_
-PA=Passenger_x000D_
-PE=Pedestrian_x000D_
+    <t>DR=Driver/Operator
+PA=Passenger
+PE=Pedestrian
 Enter full text if it does not fit above (blank for natural death)</t>
   </si>
   <si>
@@ -2190,7 +2189,7 @@
     <t>COUNTYCODE_I</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8; 999=unknown; _x000D_
+    <t>NCHS Instruction Manual: Part 8; 999=unknown; 
 Blank for natural death.</t>
   </si>
   <si>
@@ -2224,27 +2223,27 @@
     <t>STATECODE_I</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                 For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                 For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -2476,27 +2475,27 @@
     <t>DISPSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                  For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                  For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -2599,27 +2598,27 @@
     <t>FUNSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                       For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL NEWFOUNDLAND AND LABRADOR_x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                       For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL NEWFOUNDLAND AND LABRADOR
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -2752,27 +2751,27 @@
     <t>CERTSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                   For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL NEWFOUNDLAND AND LABRADOR_x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                   For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL NEWFOUNDLAND AND LABRADOR
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -2902,7 +2901,7 @@
     <t>MARITAL_DESCRIP</t>
   </si>
   <si>
-    <t>Free text for use of jurisdictions with domestic partnerships, other_x000D_
+    <t>Free text for use of jurisdictions with domestic partnerships, other
 types of relationships.</t>
   </si>
   <si>
@@ -3152,27 +3151,27 @@
     <t>BundleDocumentCodedCauseOfFetalDeath</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                        For US Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                        For US Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -3188,26 +3187,26 @@
     <t>State, U.S. Territory or Canadian Province of Death - literal</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -3271,28 +3270,28 @@
     <t>State, U.S. Territory or Canadian Province of Decedent's Residence - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
-For US Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL NEWFOUNDLAND AND LABRADOR _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
+For US Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL NEWFOUNDLAND AND LABRADOR 
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -3539,26 +3538,26 @@
     <t>STATE_T</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-For US Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+For US Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -3571,7 +3570,7 @@
     <t>Void Flag</t>
   </si>
   <si>
-    <t>0 = default; valid record_x000D_
+    <t>0 = default; valid record
 1 = VOID record</t>
   </si>
   <si>
@@ -3629,10 +3628,10 @@
     <t>TPLACE</t>
   </si>
   <si>
-    <t>1 = Hospital_x000D_
-2 = Clinic_x000D_
-3 = Doctor's Office_x000D_
-4 = Other_x000D_
+    <t>1 = Hospital
+2 = Clinic
+3 = Doctor's Office
+4 = Other
 9 = Unknown</t>
   </si>
   <si>
@@ -3660,7 +3659,7 @@
     <t>AGE</t>
   </si>
   <si>
-    <t>10-55_x000D_
+    <t>10-55
 99 = Unknown</t>
   </si>
   <si>
@@ -3673,27 +3672,27 @@
     <t>State, U.S. Territory or Canadian Province of Residence (Patient) - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                     For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR_x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                     For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -3763,12 +3762,12 @@
     <t>Patient's Marital Status</t>
   </si>
   <si>
-    <t>1 = Never Married_x000D_
-2 = Now Married_x000D_
-3 = Widowed_x000D_
-4 = Divorced_x000D_
-5 = Separated_x000D_
-7 = Other (specify below)_x000D_
+    <t>1 = Never Married
+2 = Now Married
+3 = Widowed
+4 = Divorced
+5 = Separated
+7 = Other (specify below)
 9 = Unknown or Not Stated</t>
   </si>
   <si>
@@ -3823,13 +3822,13 @@
     <t>ETHNIC_OLD</t>
   </si>
   <si>
-    <t>from single choice versus mark all_x000D_
-0 = non-hispanic_x000D_
-1 = Mexican_x000D_
-2 = Puerto Rican_x000D_
-3 = Cuban_x000D_
-4 = Central of South American_x000D_
-5 = Other or unknown hispanic_x000D_
+    <t>from single choice versus mark all
+0 = non-hispanic
+1 = Mexican
+2 = Puerto Rican
+3 = Cuban
+4 = Central of South American
+5 = Other or unknown hispanic
 9 = Not classifiable</t>
   </si>
   <si>
@@ -3839,15 +3838,15 @@
     <t>ETHNIC_OTH</t>
   </si>
   <si>
-    <t>Comma delimit multiple entries; _x000D_
+    <t>Comma delimit multiple entries; 
 Some states keep a version of multiple Hispanic origin that is not in the new format but something in between.</t>
   </si>
   <si>
     <t>Patient's Race--White</t>
   </si>
   <si>
-    <t>Y = Yes, box for race checked_x000D_
-N = No, box for race not checked_x000D_
+    <t>Y = Yes, box for race checked
+N = No, box for race not checked
 U = Unknown race (U in all race fields)</t>
   </si>
   <si>
@@ -3926,14 +3925,14 @@
     <t>RACE_OLD</t>
   </si>
   <si>
-    <t>From single choice versus mark all_x000D_
-1 = white; 2 =  Black;_x000D_
-3 = American Indian; 4 = Chinese_x000D_
-5 = Japanese; 6 = Hawaiian;_x000D_
-7 = Filipino; 8 = Other Asian/ Pac Islander;_x000D_
-9 = not reported; A = Asian Indian; _x000D_
-B = Korean; C = Samoan;_x000D_
-D = Vietnamese; E = Guamian;_x000D_
+    <t>From single choice versus mark all
+1 = white; 2 =  Black;
+3 = American Indian; 4 = Chinese
+5 = Japanese; 6 = Hawaiian;
+7 = Filipino; 8 = Other Asian/ Pac Islander;
+9 = not reported; A = Asian Indian; 
+B = Korean; C = Samoan;
+D = Vietnamese; E = Guamian;
 F = Multi-racial</t>
   </si>
   <si>
@@ -3943,7 +3942,7 @@
     <t>RACE_OTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Comma delimit multiple entries;_x000D_
+    <t xml:space="preserve">Comma delimit multiple entries;
 Some states keep a version of multiple race that is not in the new format but something in between. </t>
   </si>
   <si>
@@ -3953,7 +3952,7 @@
     <t>PREV_PREG</t>
   </si>
   <si>
-    <t>00-30_x000D_
+    <t>00-30
 99 = Unknown</t>
   </si>
   <si>
@@ -3963,14 +3962,14 @@
     <t>PLBT</t>
   </si>
   <si>
-    <t>Previous live births,_x000D_
+    <t>Previous live births,
 Now living</t>
   </si>
   <si>
     <t>PLBL</t>
   </si>
   <si>
-    <t>Previous live births,_x000D_
+    <t>Previous live births,
 Now dead</t>
   </si>
   <si>
@@ -4001,7 +4000,7 @@
     <t>DLMP_MO</t>
   </si>
   <si>
-    <t>00-12_x000D_
+    <t>00-12
 99 = Unknown</t>
   </si>
   <si>
@@ -4011,7 +4010,7 @@
     <t>DLMP_DY</t>
   </si>
   <si>
-    <t>01-31 (based on month)_x000D_
+    <t>01-31 (based on month)
 99 = Unknown</t>
   </si>
   <si>
@@ -4021,7 +4020,7 @@
     <t>CWGEST</t>
   </si>
   <si>
-    <t>01-27_x000D_
+    <t>01-27
 99 = Unknown</t>
   </si>
   <si>
@@ -4091,18 +4090,18 @@
     <t>PROC_T</t>
   </si>
   <si>
-    <t>1 = Suction Curettage_x000D_
-2 = Medical (Non-surgical; medication induced -- specify medication(s) in field below)_x000D_
-3 = Dilation &amp; Evacuation (D&amp;E)_x000D_
-4 = Intra-Uterine Instillation (Saline or Prostaglandin)_x000D_
-5 = Vaginal Prostaglandin_x000D_
-6 = Sharp Curettage (D&amp;C)_x000D_
-7 = Hysterotomy/Hysterectomy_x000D_
-8 = Other_x000D_
+    <t>1 = Suction Curettage
+2 = Medical (Non-surgical; medication induced -- specify medication(s) in field below)
+3 = Dilation &amp; Evacuation (D&amp;E)
+4 = Intra-Uterine Instillation (Saline or Prostaglandin)
+5 = Vaginal Prostaglandin
+6 = Sharp Curettage (D&amp;C)
+7 = Hysterotomy/Hysterectomy
+8 = Other
 9 = Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical (non-surgical) procedure medication(s) literal _x000D_
+    <t xml:space="preserve">Medical (non-surgical) procedure medication(s) literal 
 </t>
   </si>
   <si>
@@ -4112,7 +4111,7 @@
     <t>Free form literal specifing medication(s) that terminated this pregnancy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Termination other procedure literal _x000D_
+    <t xml:space="preserve">Termination other procedure literal 
 </t>
   </si>
   <si>
@@ -4128,15 +4127,15 @@
     <t>PROC-OTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeat up to 4 single digit codes                            _x000D_
-0 = None                                                                                                                                                                                                                           1 = Suction Curettage_x000D_
-2 = Medical (Non-surgical; medication induced)_x000D_
-3 = Dilation &amp; Evacuation (D&amp;E)_x000D_
-4 = Intra-Uterine Instillation (Saline or Prostaglandin)_x000D_
-5 = Vaginal Prostaglandin_x000D_
-6 = Sharp Curettage (D&amp;C)_x000D_
-8 = Other_x000D_
-9 = Unknown_x000D_
+    <t xml:space="preserve">Repeat up to 4 single digit codes                            
+0 = None                                                                                                                                                                                                                           1 = Suction Curettage
+2 = Medical (Non-surgical; medication induced)
+3 = Dilation &amp; Evacuation (D&amp;E)
+4 = Intra-Uterine Instillation (Saline or Prostaglandin)
+5 = Vaginal Prostaglandin
+6 = Sharp Curettage (D&amp;C)
+8 = Other
+9 = Unknown
 </t>
   </si>
   <si>
@@ -4146,7 +4145,7 @@
     <t>CALC_WGEST</t>
   </si>
   <si>
-    <t>00-95_x000D_
+    <t>00-95
 99 = Unknown</t>
   </si>
   <si>
@@ -4159,7 +4158,7 @@
     <t>Y, N, or U (if N or U, leave all other TP complications blank)</t>
   </si>
   <si>
-    <t>Hemorrhage_x000D_
+    <t>Hemorrhage
 (at time of procedure)</t>
   </si>
   <si>
@@ -4169,56 +4168,56 @@
     <t>Y, N, U (some jurisdictions may only collect hemorage data if above a certain volumn)</t>
   </si>
   <si>
-    <t>Infection_x000D_
+    <t>Infection
 (at time of procedure)</t>
   </si>
   <si>
     <t>INFECT_TP</t>
   </si>
   <si>
-    <t>Uterine perforation_x000D_
+    <t>Uterine perforation
 (at time of procedure)</t>
   </si>
   <si>
     <t>PERF_TP</t>
   </si>
   <si>
-    <t>Cervical laceration_x000D_
+    <t>Cervical laceration
 (at time of procedure)</t>
   </si>
   <si>
     <t>LACER_TP</t>
   </si>
   <si>
-    <t>Retained products_x000D_
+    <t>Retained products
 (at time of procedure)</t>
   </si>
   <si>
     <t>RETAN_TP</t>
   </si>
   <si>
-    <t>Death _x000D_
+    <t>Death 
 (at time of procedure)</t>
   </si>
   <si>
     <t>DEATH_TP</t>
   </si>
   <si>
-    <t>Failure of first method _x000D_
+    <t>Failure of first method 
 (at time of procedure)</t>
   </si>
   <si>
     <t>FAIL_TP</t>
   </si>
   <si>
-    <t>Other complications _x000D_
+    <t>Other complications 
 (at time of procedure)</t>
   </si>
   <si>
     <t>OTHER_TP</t>
   </si>
   <si>
-    <t>Other complications literal _x000D_
+    <t>Other complications literal 
 (at time of procedure)</t>
   </si>
   <si>
@@ -4237,49 +4236,49 @@
     <t>Y, N, or U (if N or U, leave all other F1 complications blank)</t>
   </si>
   <si>
-    <t>Complications at followup_x000D_
+    <t>Complications at followup
 at same facility</t>
   </si>
   <si>
     <t>COMP_F1</t>
   </si>
   <si>
-    <t>Hemorrhage_x000D_
+    <t>Hemorrhage
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>HEMOR_F1</t>
   </si>
   <si>
-    <t>Infection _x000D_
+    <t>Infection 
 (at time of  follow up at this facility)</t>
   </si>
   <si>
     <t>INFECT_F1</t>
   </si>
   <si>
-    <t>Uterine perforation _x000D_
+    <t>Uterine perforation 
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>PERF_F1</t>
   </si>
   <si>
-    <t>Cervical laceration _x000D_
+    <t>Cervical laceration 
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>LACER_F1</t>
   </si>
   <si>
-    <t>Retained products _x000D_
+    <t>Retained products 
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>RETAN_F1</t>
   </si>
   <si>
-    <t>Death _x000D_
+    <t>Death 
 (at time of followup at this facility)</t>
   </si>
   <si>
@@ -4298,7 +4297,7 @@
     <t>OTHER_F1</t>
   </si>
   <si>
-    <t>Other complications literal _x000D_
+    <t>Other complications literal 
 (at time of followup at this facility)</t>
   </si>
   <si>
@@ -4317,70 +4316,70 @@
     <t>Y, N, or U (if N or U, leave all other F2 complications blank)</t>
   </si>
   <si>
-    <t>Complications _x000D_
+    <t>Complications 
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>COMP_F2</t>
   </si>
   <si>
-    <t>Hemorrhage_x000D_
+    <t>Hemorrhage
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>HEMOR_F2</t>
   </si>
   <si>
-    <t>Infection _x000D_
+    <t>Infection 
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>INFECT_F2</t>
   </si>
   <si>
-    <t>Uterine perforation  _x000D_
+    <t>Uterine perforation  
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>PERF_F2</t>
   </si>
   <si>
-    <t>Cervical laceration  _x000D_
+    <t>Cervical laceration  
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>LACER_F2</t>
   </si>
   <si>
-    <t>Retained products _x000D_
+    <t>Retained products 
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>RETAN_F2</t>
   </si>
   <si>
-    <t>Death _x000D_
+    <t>Death 
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>DEATH_F2</t>
   </si>
   <si>
-    <t>Failure of first method _x000D_
+    <t>Failure of first method 
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>FAIL_F2</t>
   </si>
   <si>
-    <t xml:space="preserve">Other complications _x000D_
+    <t xml:space="preserve">Other complications 
 (at time of followup at other facility) </t>
   </si>
   <si>
     <t>OTHER_F2</t>
   </si>
   <si>
-    <t>Other complications literal _x000D_
+    <t>Other complications literal 
 (at time of followup at other facility)</t>
   </si>
   <si>
@@ -4390,17 +4389,17 @@
     <t>Free form literal of specified other complication at time of followup at other facility.</t>
   </si>
   <si>
-    <t>Site of follow-up visit _x000D_
+    <t>Site of follow-up visit 
 (at other facility)</t>
   </si>
   <si>
     <t>SITE_F2</t>
   </si>
   <si>
-    <t>1 = physician's office_x000D_
-2 = clinic_x000D_
-3 = hospital_x000D_
-4 = other, specify_x000D_
+    <t>1 = physician's office
+2 = clinic
+3 = hospital
+4 = other, specify
 9 = unknown</t>
   </si>
   <si>
@@ -4710,13 +4709,13 @@
     <t>Place Where Delivery Occurred</t>
   </si>
   <si>
-    <t>1 = Hospital_x000D_
-2 = Freestanding Birth Center_x000D_
-3 = Home (Intended)_x000D_
-4 = Home (Not Intended)_x000D_
-5 = Home (Unknown if Intended)_x000D_
-6 = Clinic/Doctor's Office_x000D_
-7 = Other_x000D_
+    <t>1 = Hospital
+2 = Freestanding Birth Center
+3 = Home (Intended)
+4 = Home (Not Intended)
+5 = Home (Unknown if Intended)
+6 = Clinic/Doctor's Office
+7 = Other
 9 = Unknown</t>
   </si>
   <si>
@@ -4774,7 +4773,7 @@
     <t>MAGE_BYPASS</t>
   </si>
   <si>
-    <t xml:space="preserve">0 = Edit Passed_x000D_
+    <t xml:space="preserve">0 = Edit Passed
 1 = Data Queried </t>
   </si>
   <si>
@@ -4793,27 +4792,27 @@
     <t>BPLACEC_ST_TER</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -4838,27 +4837,27 @@
     <t>State, U.S. Territory or Canadian Province of Residence (Mother) - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR_x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -4868,8 +4867,8 @@
     <t>Residence of Mother--Inside City/Town Limits</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
-N = No_x000D_
+    <t>Y = Yes
+N = No
 U = Unknown</t>
   </si>
   <si>
@@ -4939,8 +4938,8 @@
     <t>MEDUC_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
-1 = Edit Failed, Data Queried and Verified_x000D_
+    <t>0 = Edit Passed
+1 = Edit Failed, Data Queried and Verified
 2 = Edit Failed, Data Queried, but not Verified</t>
   </si>
   <si>
@@ -5361,11 +5360,11 @@
     <t>ATTEND</t>
   </si>
   <si>
-    <t>1 = MD_x000D_
-2 = DO_x000D_
-3 = CNM/CM_x000D_
-4 = Other midwife_x000D_
-5 = Other (specify)_x000D_
+    <t>1 = MD
+2 = DO
+3 = CNM/CM
+4 = Other midwife
+5 = Other (specify)
 9 = Unknown</t>
   </si>
   <si>
@@ -5414,7 +5413,7 @@
     <t>DOFP_YR</t>
   </si>
   <si>
-    <t>4 digit year; year of delivery or_x000D_
+    <t>4 digit year; year of delivery or
 (year of delivery - 1), 8888, 9999</t>
   </si>
   <si>
@@ -5451,8 +5450,8 @@
     <t>NPREV_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
-1 = Edit Failed, Number Verified_x000D_
+    <t>0 = Edit Passed
+1 = Edit Failed, Number Verified
 2 = Edit Failed, Number not Verified</t>
   </si>
   <si>
@@ -5486,8 +5485,8 @@
     <t>HGT_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
-1 = Edit Failed, Number Verified_x000D_
+    <t>0 = Edit Passed
+1 = Edit Failed, Number Verified
 2 = Edit Failed, Number not  Verified</t>
   </si>
   <si>
@@ -5515,8 +5514,8 @@
     <t>PWGT_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
-1 = Edit Failed, Verified_x000D_
+    <t>0 = Edit Passed
+1 = Edit Failed, Verified
 2 = Edit Failed, not Verified</t>
   </si>
   <si>
@@ -5583,8 +5582,8 @@
     <t>YLLB</t>
   </si>
   <si>
-    <t>4 digit year;_x000D_
-(year of mother's birth + 10) through_x000D_
+    <t>4 digit year;
+(year of mother's birth + 10) through
 year of delivery, 8888, 9999</t>
   </si>
   <si>
@@ -5642,8 +5641,8 @@
     <t>Date Last Normal Menses Began--Year</t>
   </si>
   <si>
-    <t>4 digit year; year of delivery or_x000D_
-(year of delivery - 1) or_x000D_
+    <t>4 digit year; year of delivery or
+(year of delivery - 1) or
 (year of delivery - 2), 9999</t>
   </si>
   <si>
@@ -5668,9 +5667,9 @@
     <t>See [note on missing pregnancy risk factors data]</t>
   </si>
   <si>
-    <t>Update risk factors (old Observation-pregnancy-risk-factor)_x000D_
-STU 1 listed:_x000D_
-IJE Natality Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART_x000D_
+    <t>Update risk factors (old Observation-pregnancy-risk-factor)
+STU 1 listed:
+IJE Natality Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART
 IJE Fetal Death Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART</t>
   </si>
   <si>
@@ -5761,7 +5760,7 @@
     <t>NPCES_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
+    <t>0 = Edit Passed
 1 = Edit Failed, Verified</t>
   </si>
   <si>
@@ -5849,9 +5848,9 @@
     <t>PRES</t>
   </si>
   <si>
-    <t>1 = Cephalic_x000D_
-2 = Breech_x000D_
-3 = Other_x000D_
+    <t>1 = Cephalic
+2 = Breech
+3 = Other
 9 = Unknown</t>
   </si>
   <si>
@@ -5867,10 +5866,10 @@
     <t>ROUT</t>
   </si>
   <si>
-    <t>1 = Spontaneous_x000D_
-2 = Forceps_x000D_
-3 = Vacuum_x000D_
-4 = Cesarean_x000D_
+    <t>1 = Spontaneous
+2 = Forceps
+3 = Vacuum
+4 = Cesarean
 9 = Unknown</t>
   </si>
   <si>
@@ -5889,9 +5888,9 @@
     <t>TLAB</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
-N = No_x000D_
-U = Unknown_x000D_
+    <t>Y = Yes
+N = No
+U = Unknown
 X = Not Applicable</t>
   </si>
   <si>
@@ -5910,9 +5909,9 @@
     <t>MTR</t>
   </si>
   <si>
-    <t>Update maternal morbidity (old Condition-maternal-morbidity)_x000D_
-STU 1 listed:_x000D_
-IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT_x000D_
+    <t>Update maternal morbidity (old Condition-maternal-morbidity)
+STU 1 listed:
+IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT
 IJE Fetal Death Data Elements: RUT, AINT</t>
   </si>
   <si>
@@ -5961,10 +5960,10 @@
     <t>UOPR</t>
   </si>
   <si>
-    <t>Update maternal morbidity (old Condition-maternal-morbidity)_x000D_
-STU 1 listed:_x000D_
-IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT_x000D_
-IJE Fetal Death Data Elements: RUT, AINT_x000D_
+    <t>Update maternal morbidity (old Condition-maternal-morbidity)
+STU 1 listed:
+IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT
+IJE Fetal Death Data Elements: RUT, AINT
 (new) UOPR</t>
   </si>
   <si>
@@ -5983,8 +5982,8 @@
     <t>FW_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off_x000D_
-1 = Queried data correct, out of range_x000D_
+    <t>0 = Off
+1 = Queried data correct, out of range
 2 = Queried, failed  delivery weight/gestation edit</t>
   </si>
   <si>
@@ -6006,7 +6005,7 @@
     <t>OWGEST_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off_x000D_
+    <t>0 = Off
 1 = Queried data correct, out of range</t>
   </si>
   <si>
@@ -6019,9 +6018,9 @@
     <t>ETIME</t>
   </si>
   <si>
-    <t>N = At assessment, no labor_x000D_
-L = At assessment, labor_x000D_
-A = Labor, no assessment_x000D_
+    <t>N = At assessment, no labor
+L = At assessment, labor
+A = Labor, no assessment
 U = Unknown</t>
   </si>
   <si>
@@ -6034,8 +6033,8 @@
     <t>Was an Autopsy Performed?</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
-N = No_x000D_
+    <t>Y = Yes
+N = No
 P = Planned</t>
   </si>
   <si>
@@ -6057,8 +6056,8 @@
     <t>Were Autopsy or Histological Placental Examination Results Used in Determining the Cause of Fetal Death?</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
-N = No_x000D_
+    <t>Y = Yes
+N = No
 X = Not Applicable</t>
   </si>
   <si>
@@ -6107,8 +6106,8 @@
     <t>PLUR_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off_x000D_
-1 = Queried, and Correct_x000D_
+    <t>0 = Off
+1 = Queried, and Correct
 2 = Plurality/Set Order Queried, Inconsistent</t>
   </si>
   <si>
@@ -6178,9 +6177,9 @@
     <t>DOWT</t>
   </si>
   <si>
-    <t>C = Confirmed_x000D_
-P = Pending_x000D_
-N = No_x000D_
+    <t>C = Confirmed
+P = Pending
+N = No
 U = Unknown</t>
   </si>
   <si>
@@ -6202,10 +6201,10 @@
     <t>&gt;=year of delivery</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
-Code structure description differs here_x000D_
-Code sent back to state VRO_x000D_
-For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
+    <t>Code used on 3 tabs: N, FD, &amp; BID
+Code structure description differs here
+Code sent back to state VRO
+For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -6221,10 +6220,10 @@
     <t>NCHS USE ONLY: Receipt date -- Day</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
-Code structure description differs here_x000D_
-Code sent back to state VRO_x000D_
-Note: Marked as NCHS USE ONLY, but VRDR does address this. For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
+    <t>Code used on 3 tabs: N, FD, &amp; BID
+Code structure description differs here
+Code sent back to state VRO
+Note: Marked as NCHS USE ONLY, but VRDR does address this. For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -6267,9 +6266,9 @@
     <t>INFT_DRG</t>
   </si>
   <si>
-    <t>Y = Yes (BLANK IF NOT ADDED)_x000D_
-N = No_x000D_
-X = Not Applicable_x000D_
+    <t>Y = Yes (BLANK IF NOT ADDED)
+N = No
+X = Not Applicable
 U = Unknown</t>
   </si>
   <si>
@@ -6306,7 +6305,7 @@
     <t>COD18a1</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
+    <t>Y = Yes
 N = No</t>
   </si>
   <si>
@@ -6991,9 +6990,9 @@
     <t>string(25)</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
-NCHS does not use_x000D_
-VRCL defines "ObservationUsualWorkVitalRecords" profile. _x000D_
+    <t>Code used on 3 tabs: N, FD, &amp; BID
+NCHS does not use
+VRCL defines "ObservationUsualWorkVitalRecords" profile. 
 Decision: BFDR should mimic VRDR</t>
   </si>
   <si>
@@ -7555,24 +7554,24 @@
     <t>MRACEBG_C</t>
   </si>
   <si>
-    <t>01 = White_x000D_
-02 = Black_x000D_
-03 = American Indian/Alaskan Native_x000D_
-04 = Asian Indian_x000D_
-05 = Chinese_x000D_
-06 = Filipino_x000D_
-07 = Japanese_x000D_
-08 = Korean_x000D_
-09 = Vietnamese_x000D_
-10 = Other Asian_x000D_
-11 = Native Hawaiian_x000D_
-12 = Guamanian_x000D_
-13 = Samoan_x000D_
-14 = Other Pacific Islander_x000D_
-15 = Other_x000D_
-21 = Bridged White_x000D_
-22 = Bridged Black_x000D_
-23 = Bridged American Indian/Alaskan Native_x000D_
+    <t>01 = White
+02 = Black
+03 = American Indian/Alaskan Native
+04 = Asian Indian
+05 = Chinese
+06 = Filipino
+07 = Japanese
+08 = Korean
+09 = Vietnamese
+10 = Other Asian
+11 = Native Hawaiian
+12 = Guamanian
+13 = Samoan
+14 = Other Pacific Islander
+15 = Other
+21 = Bridged White
+22 = Bridged Black
+23 = Bridged American Indian/Alaskan Native
 24 = Bridged Asian &amp; Pacific Islander</t>
   </si>
   <si>
@@ -7693,24 +7692,24 @@
     <t>Informant's Relationship to Fetus</t>
   </si>
   <si>
-    <t>1 = Mother_x000D_
-2 = Father_x000D_
-3 = Sibling_x000D_
-4 = Other relative_x000D_
-5 = Other_x000D_
+    <t>1 = Mother
+2 = Father
+3 = Sibling
+4 = Other relative
+5 = Other
 9 = Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Only similar item is Mortality: "Informant's Relationship (INFORMRELATE), which uses VRDR Decedent  contact.type.text   string (30 characters)_x000D_
-VRCPL has:_x000D_
-  - Patient-decedent-fetus, _x000D_
-  - Related Person - Parent Vital Records   _x000D_
-  - RelatedPerson - Father Natural Vital Records         _x000D_
-  - RelatedPerson - Father Vital Records         _x000D_
-  - RelatedPerson - Mother Gestational Vital Records         _x000D_
-  - RelatedPerson - Mother Vital Records_x000D_
-NOTE that the IJE Code Structure Description here includes Sibling and others_x000D_
-Saul notes: VRDR uses fields that can be from a controlled vocabulary or any arbitrary string (e.g., CERTL in  http://build.fhir.org/ig/HL7/vrdr/branches/master/StructureDefinition-vrdr-death-certification.html) with a consistent pattern (I think_x000D_
+    <t xml:space="preserve">Only similar item is Mortality: "Informant's Relationship (INFORMRELATE), which uses VRDR Decedent  contact.type.text   string (30 characters)
+VRCPL has:
+  - Patient-decedent-fetus, 
+  - Related Person - Parent Vital Records   
+  - RelatedPerson - Father Natural Vital Records         
+  - RelatedPerson - Father Vital Records         
+  - RelatedPerson - Mother Gestational Vital Records         
+  - RelatedPerson - Mother Vital Records
+NOTE that the IJE Code Structure Description here includes Sibling and others
+Saul notes: VRDR uses fields that can be from a controlled vocabulary or any arbitrary string (e.g., CERTL in  http://build.fhir.org/ig/HL7/vrdr/branches/master/StructureDefinition-vrdr-death-certification.html) with a consistent pattern (I think
 there are two such fields). </t>
   </si>
   <si>
@@ -7765,9 +7764,9 @@
     <t>Deprecated, see [VRFM]</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
-Mortality (VRDR) uses   DeathCertificate  extension[replaceStatus].valuecodeable   [ReplaceStatusVS]_x000D_
-VRDR addresses in the VRDR Messaging IG. _x000D_
+    <t>Code used on 3 tabs: N, FD, &amp; BID
+Mortality (VRDR) uses   DeathCertificate  extension[replaceStatus].valuecodeable   [ReplaceStatusVS]
+VRDR addresses in the VRDR Messaging IG. 
 Decision: Births should behave the same as deaths.</t>
   </si>
   <si>
@@ -7783,31 +7782,30 @@
     <t>State, U.S. Territory or Canadian Province of Birth (Infant) - code</t>
   </si>
   <si>
-    <t>_x000D_
-NCHS Instruction Manual: Part 8_x000D_
-ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA_x000D_
-YC = NEW YORK CITY_x000D_
-_x000D_
-For US Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t xml:space="preserve">
+NCHS Instruction Manual: Part 8
+ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA
+YC = NEW YORK CITY
+For US Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -7829,8 +7827,8 @@
     <t>ISEX</t>
   </si>
   <si>
-    <t>M = Male_x000D_
-F = Female_x000D_
+    <t>M = Male
+F = Female
 N = Not Yet Determined</t>
   </si>
   <si>
@@ -7864,31 +7862,31 @@
     <t>4 digit year (&lt; year of birth of child);  9999 = unknown</t>
   </si>
   <si>
-    <t>0 = Edit Passed_x000D_
+    <t>0 = Edit Passed
 1 = Data Queried</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR 
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -7898,27 +7896,27 @@
     <t>Residence of Mother--City</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA        For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA        For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR 
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -7958,15 +7956,15 @@
     <t>Literal; blank</t>
   </si>
   <si>
-    <t xml:space="preserve">NCHS Appendix E_x000D_
-(values for fields 62 - 77 returned from NCHS)_x000D_
+    <t xml:space="preserve">NCHS Appendix E
+(values for fields 62 - 77 returned from NCHS)
 </t>
   </si>
   <si>
     <t>NCHS Appendix E</t>
   </si>
   <si>
-    <t>NCHS Appendix E_x000D_
+    <t>NCHS Appendix E
 (values for fields 108 - 123 returned from NCHS)</t>
   </si>
   <si>
@@ -7988,11 +7986,11 @@
     <t>01-31 (based on month), 88=no care, 99=unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">4 digit year; year of child's birth or_x000D_
+    <t xml:space="preserve">4 digit year; year of child's birth or
 (year of child's birth - 1), 8888=no care, 9999=unknown </t>
   </si>
   <si>
-    <t>4 digit year; year of child's birth or _x000D_
+    <t>4 digit year; year of child's birth or 
 (year of child's birth - 1), 8888=no care, 9999=unknown</t>
   </si>
   <si>
@@ -8023,7 +8021,7 @@
     <t>ObservationNumberOtherPregnancyOutcomes</t>
   </si>
   <si>
-    <t>4 digit year;(year of mother's birth + 10) through_x000D_
+    <t>4 digit year;(year of mother's birth + 10) through
 year of child's birth, 8888, 9999</t>
   </si>
   <si>
@@ -8045,13 +8043,13 @@
     <t>PAY</t>
   </si>
   <si>
-    <t>1 = Medicaid_x000D_
-2 = Private Insurance_x000D_
-3 = Self-pay_x000D_
-4 = Indian Health Service_x000D_
-5 = CHAMPUS/TRICARE_x000D_
-6 = Other Government (Fed, State, Local) _x000D_
-8 = Other_x000D_
+    <t>1 = Medicaid
+2 = Private Insurance
+3 = Self-pay
+4 = Indian Health Service
+5 = CHAMPUS/TRICARE
+6 = Other Government (Fed, State, Local) 
+8 = Other
 9 = Unknown</t>
   </si>
   <si>
@@ -8064,8 +8062,8 @@
     <t>[BirthAndFetalDeathFinancialClassVS] </t>
   </si>
   <si>
-    <t>4 digit year; year of child's birth _x000D_
-or (year of child's birth - 1)_x000D_
+    <t>4 digit year; year of child's birth 
+or (year of child's birth - 1)
 or (year of child's birth - 2), 9999</t>
   </si>
   <si>
@@ -8198,8 +8196,8 @@
     <t>See [note on missing characteristics of labor and delivery data]</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
-STU 1 listed:_x000D_
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
+STU 1 listed:
 IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN</t>
   </si>
   <si>
@@ -8254,9 +8252,9 @@
     <t>MECS</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
-STU 1 listed:_x000D_
-IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN_x000D_
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
+STU 1 listed:
+IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN
 (new) MECS</t>
   </si>
   <si>
@@ -8266,9 +8264,9 @@
     <t>FINT</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
-STU 1 listed:_x000D_
-IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN_x000D_
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
+STU 1 listed:
+IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN
 (new) FINT</t>
   </si>
   <si>
@@ -8314,8 +8312,8 @@
     <t>BW_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off_x000D_
-1 = Queried data correct, out of range_x000D_
+    <t>0 = Off
+1 = Queried data correct, out of range
 2 = Queried, failed birthweight/gestation edit</t>
   </si>
   <si>
@@ -8355,8 +8353,8 @@
     <t>ObservationNumberLiveBirthsThisDelivery</t>
   </si>
   <si>
-    <t>0 = OFF_x000D_
-1 = Queried, and Correct_x000D_
+    <t>0 = OFF
+1 = Queried, and Correct
 2 = Plurality/Set Order Queried, Inconsistent</t>
   </si>
   <si>
@@ -8372,8 +8370,8 @@
     <t>See [note on missing abnormal conditions of newborn data]</t>
   </si>
   <si>
-    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)_x000D_
-STU 1 listed:_x000D_
+    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)
+STU 1 listed:
 IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH</t>
   </si>
   <si>
@@ -8431,9 +8429,9 @@
     <t>BINJ</t>
   </si>
   <si>
-    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)_x000D_
-STU 1 listed:_x000D_
-IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH_x000D_
+    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)
+STU 1 listed:
+IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH
 (new) BINJ</t>
   </si>
   <si>
@@ -8533,8 +8531,8 @@
     <t>ILIV</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
-N = No_x000D_
+    <t>Y = Yes
+N = No
 U = Infant transferred, Status Unknown</t>
   </si>
   <si>
@@ -8553,9 +8551,9 @@
     <t>leave blank</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
-Code sent back to state VRO_x000D_
-For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
+    <t>Code used on 3 tabs: N, FD, &amp; BID
+Code sent back to state VRO
+For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -8565,10 +8563,10 @@
     <t>Risk Factors--Infertility: Fertility Enhancing Drugs  (RECOMMENDED ADDITION EFFECTIVE 2004)</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
-N = No_x000D_
-X = Not Applicable_x000D_
-U = Unknown_x000D_
+    <t>Y = Yes
+N = No
+X = Not Applicable
+U = Unknown
 (BLANK IF NOT ADDED)</t>
   </si>
   <si>
@@ -8725,27 +8723,27 @@
     <t>Refer to NCHS Instruction Manual Part 19, Industry and Occupation Coding for Death Certificates, 2003. Leave blank if using a coding system other than this</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -8869,8 +8867,8 @@
     <t>SSN_MULT_BTH_CD</t>
   </si>
   <si>
-    <t>Y = Yes_x000D_
-N = No_x000D_
+    <t>Y = Yes
+N = No
 or blank</t>
   </si>
   <si>
@@ -8919,12 +8917,12 @@
     <t>CERTIF</t>
   </si>
   <si>
-    <t>1 = MD_x000D_
-2 = DO_x000D_
-3 = CNM/CM_x000D_
-4 = Other midwife_x000D_
-5 = Other (specify) _x000D_
-6 = Hospital Admin_x000D_
+    <t>1 = MD
+2 = DO
+3 = CNM/CM
+4 = Other midwife
+5 = Other (specify) 
+6 = Hospital Admin
 9 = Unknown</t>
   </si>
   <si>
@@ -8973,51 +8971,51 @@
     <t>Deprecated,  see [VRFM]</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA              For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA              For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR 
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8_x000D_
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA            For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
-For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual: Part 8
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA            For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR 
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>
@@ -9093,7 +9091,7 @@
     <t>Residence Street number</t>
   </si>
   <si>
-    <t>For use of jurisdictions with domestic partnerships, other_x000D_
+    <t>For use of jurisdictions with domestic partnerships, other
 types of relationships.</t>
   </si>
   <si>
@@ -9118,26 +9116,26 @@
     <t>Death Jurisdiction - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual Part 8A_x000D_
- For U.S. Territories:_x000D_
-   MP  NORTHERN MARIANAS_x000D_
-   AS  AMERICAN SAMOA_x000D_
-   GU  GUAM_x000D_
-   VI   VIRGIN ISLANDS_x000D_
-   PR  PUERTO RICO_x000D_
- For Canadian Provinces:_x000D_
-   AB  ALBERTA  _x000D_
-   BC  BRITISH COLUMBIA _x000D_
-   MB  MANITOBA _x000D_
-   NB  NEW BRUNSWICK  _x000D_
-   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
-   NS  NOVA SCOTIA _x000D_
-   NT  NORTHWEST TERRITORIES_x000D_
-   NU  NUNAVUT_x000D_
-   ON  ONTARIO_x000D_
-   PE  PRINCE EDWARD ISLAND _x000D_
-   QC  QUEBEC  _x000D_
-   SK  SASKATCHEWAN_x000D_
+    <t>NCHS Instruction Manual Part 8A
+ For U.S. Territories:
+   MP  NORTHERN MARIANAS
+   AS  AMERICAN SAMOA
+   GU  GUAM
+   VI   VIRGIN ISLANDS
+   PR  PUERTO RICO
+ For Canadian Provinces:
+   AB  ALBERTA  
+   BC  BRITISH COLUMBIA 
+   MB  MANITOBA 
+   NB  NEW BRUNSWICK  
+   NL  NEWFOUNDLAND AND LABRADOR  
+   NS  NOVA SCOTIA 
+   NT  NORTHWEST TERRITORIES
+   NU  NUNAVUT
+   ON  ONTARIO
+   PE  PRINCE EDWARD ISLAND 
+   QC  QUEBEC  
+   SK  SASKATCHEWAN
    YT  YUKON</t>
   </si>
   <si>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -128,26 +128,26 @@
     <t>DSTATE</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -217,7 +217,7 @@
     <t>VOID</t>
   </si>
   <si>
-    <t>0 =Default; Valid Record
+    <t>0 =Default; Valid Record_x000D_
 1 = VOID record</t>
   </si>
   <si>
@@ -254,8 +254,8 @@
     <t>MFILED</t>
   </si>
   <si>
-    <t>0 = Electronic Mode
-1 = Paper Mode
+    <t>0 = Electronic Mode_x000D_
+1 = Paper Mode_x000D_
 2 = Mixed Mode</t>
   </si>
   <si>
@@ -319,7 +319,7 @@
     <t>ALIAS</t>
   </si>
   <si>
-    <t>0 = Original Record
+    <t>0 = Original Record_x000D_
 1 = Alias Record</t>
   </si>
   <si>
@@ -344,8 +344,8 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>M = Male
-F = Female
+    <t>M = Male_x000D_
+F = Female_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -361,7 +361,7 @@
     <t>SEX_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
+    <t>0 = Edit Passed_x000D_
 1 = Edit Failed, Data Queried, and Verified</t>
   </si>
   <si>
@@ -383,11 +383,11 @@
     <t>AGETYPE</t>
   </si>
   <si>
-    <t>1 = Years
-2 = Months
-4 = Days
-5 = Hours
-6 = Minutes
+    <t>1 = Years_x000D_
+2 = Months_x000D_
+4 = Days_x000D_
+5 = Hours_x000D_
+6 = Minutes_x000D_
 9 = Unknown (not classifiable)</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t xml:space="preserve">AGE </t>
   </si>
   <si>
-    <t>001 - 135, 999
-Codes: If AGETYPE = 1 then 001-135, 999
-                                        2 then 001-011, 999
-                                        4 then 001-027, 999
-                                        5 then 001-023, 999
-                                        6 then 001-059, 999
+    <t>001 - 135, 999_x000D_
+Codes: If AGETYPE = 1 then 001-135, 999_x000D_
+                                        2 then 001-011, 999_x000D_
+                                        4 then 001-027, 999_x000D_
+                                        5 then 001-023, 999_x000D_
+                                        6 then 001-059, 999_x000D_
                                         9 then 999</t>
   </si>
   <si>
@@ -487,28 +487,28 @@
     <t>BPLACE_ST</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -551,28 +551,28 @@
     <t>STATEC</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -612,11 +612,11 @@
     <t>MARITAL</t>
   </si>
   <si>
-    <t>M = Married
-A = Married but Separated
-W = Widowed
-D = Divorced
-S = Never Married
+    <t>M = Married_x000D_
+A = Married but Separated_x000D_
+W = Widowed_x000D_
+D = Divorced_x000D_
+S = Never Married_x000D_
 U = Not Classifiable</t>
   </si>
   <si>
@@ -632,9 +632,9 @@
     <t>MARITAL_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Data Queried, and Verified
-2 = Edit Failed, Data Queried, but not Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Data Queried, and Verified_x000D_
+2 = Edit Failed, Data Queried, but not Verified_x000D_
 4 = Edit Failed, Query Needed</t>
   </si>
   <si>
@@ -650,13 +650,13 @@
     <t>DPLACE</t>
   </si>
   <si>
-    <t>1 = Inpatient
-2 = Emergency Room/Outpatient
-3 = Dead on Arrival
-4 = Decedent's Home
-5 = Hospice Facility
-6 = Nursing Home/Long Term Care Facility
-7 = Other
+    <t>1 = Inpatient_x000D_
+2 = Emergency Room/Outpatient_x000D_
+3 = Dead on Arrival_x000D_
+4 = Decedent's Home_x000D_
+5 = Hospice Facility_x000D_
+6 = Nursing Home/Long Term Care Facility_x000D_
+7 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -672,7 +672,7 @@
     <t>COD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
+    <t>NCHS Instruction Manual: Part 8_x000D_
 Variable description ("Contents") edited; same as NCHS "Facility Name--County"</t>
   </si>
   <si>
@@ -682,12 +682,12 @@
     <t>DISP</t>
   </si>
   <si>
-    <t>B = Burial
-C = Cremation
-D = Donation
-E = Entombment
-R = Removal from state
-O = Other
+    <t>B = Burial_x000D_
+C = Cremation_x000D_
+D = Donation_x000D_
+E = Entombment_x000D_
+R = Removal from state_x000D_
+O = Other_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -724,14 +724,14 @@
     <t>DEDUC</t>
   </si>
   <si>
-    <t>1 = 8th grade or less
-2 = 9th through 12th grade; no diploma
-3 = High School Graduate or GED Completed
-4 = Some college credit, but no degree
-5 = Associate Degree
-6 = Bachelor's Degree
-7 = Master's Degree
-8 = Doctorate Degree or Professional Degree
+    <t>1 = 8th grade or less_x000D_
+2 = 9th through 12th grade; no diploma_x000D_
+3 = High School Graduate or GED Completed_x000D_
+4 = Some college credit, but no degree_x000D_
+5 = Associate Degree_x000D_
+6 = Bachelor's Degree_x000D_
+7 = Master's Degree_x000D_
+8 = Doctorate Degree or Professional Degree_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -747,10 +747,10 @@
     <t>DEDUC_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Data Queried, and Verified
-2 = Edit Failed, Data Queried, but not Verified
-3 = Edit Failed, Review Needed
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Data Queried, and Verified_x000D_
+2 = Edit Failed, Data Queried, but not Verified_x000D_
+3 = Edit Failed, Review Needed_x000D_
 4 = Edit Failed, Query Needed</t>
   </si>
   <si>
@@ -766,8 +766,8 @@
     <t>DETHNIC1</t>
   </si>
   <si>
-    <t>N = No, Not Mexican
-H = Yes, Mexican
+    <t>N = No, Not Mexican_x000D_
+H = Yes, Mexican_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -789,8 +789,8 @@
     <t>DETHNIC2</t>
   </si>
   <si>
-    <t>N = No, Not Puerto Rican
-H = Yes, Puerto Rican
+    <t>N = No, Not Puerto Rican_x000D_
+H = Yes, Puerto Rican_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -803,8 +803,8 @@
     <t>DETHNIC3</t>
   </si>
   <si>
-    <t>N = No, Not Cuban
-H = Yes, Cuban
+    <t>N = No, Not Cuban_x000D_
+H = Yes, Cuban_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -817,8 +817,8 @@
     <t>DETHNIC4</t>
   </si>
   <si>
-    <t>N = No, Not other Hispanic
-H = Yes, other Hispanic
+    <t>N = No, Not other Hispanic_x000D_
+H = Yes, other Hispanic_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -843,7 +843,7 @@
     <t>RACE1</t>
   </si>
   <si>
-    <t>Y = Yes, box for race checked
+    <t>Y = Yes, box for race checked_x000D_
 N = No, box for race not checked</t>
   </si>
   <si>
@@ -1222,8 +1222,8 @@
     <t>RACE_MVR</t>
   </si>
   <si>
-    <t>R = Refused
-S = Sought, but Unknown
+    <t>R = Refused_x000D_
+S = Sought, but Unknown_x000D_
 C = Not Obtainable</t>
   </si>
   <si>
@@ -1290,8 +1290,8 @@
     <t>IDOB_YR</t>
   </si>
   <si>
-    <t>4 digit year = year of death or (year of death - 1)
-9999 = unknown
+    <t>4 digit year = year of death or (year of death - 1)_x000D_
+9999 = unknown_x000D_
 Blank</t>
   </si>
   <si>
@@ -1307,29 +1307,30 @@
     <t>BSTATE</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA
-YC = NEW YORK CITY
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA_x000D_
+YC = NEW YORK CITY_x000D_
+_x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -1918,7 +1919,7 @@
     <t>SPOUSELV</t>
   </si>
   <si>
-    <t>1=yes; 2=no; 8=unmarried; 9=unknown;
+    <t>1=yes; 2=no; 8=unmarried; 9=unknown;_x000D_
 blank if not reported</t>
   </si>
   <si>
@@ -2054,7 +2055,7 @@
     <t>RESSTATE</t>
   </si>
   <si>
-    <t>See codes used before new 2003 codes -
+    <t>See codes used before new 2003 codes -_x000D_
 Receiving state will recode</t>
   </si>
   <si>
@@ -2070,8 +2071,8 @@
     <t xml:space="preserve">DETHNICE </t>
   </si>
   <si>
-    <t>100 = NonHispanic
-200-299 = Hispanic
+    <t>100 = NonHispanic_x000D_
+200-299 = Hispanic_x000D_
 996-999 = Unknown</t>
   </si>
   <si>
@@ -2195,9 +2196,9 @@
     <t>TRANSPRT</t>
   </si>
   <si>
-    <t>DR=Driver/Operator
-PA=Passenger
-PE=Pedestrian
+    <t>DR=Driver/Operator_x000D_
+PA=Passenger_x000D_
+PE=Pedestrian_x000D_
 Enter full text if it does not fit above (blank for natural death)</t>
   </si>
   <si>
@@ -2225,7 +2226,7 @@
     <t>COUNTYCODE_I</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8; 999=unknown; 
+    <t>NCHS Instruction Manual: Part 8; 999=unknown; _x000D_
 Blank for natural death.</t>
   </si>
   <si>
@@ -2259,27 +2260,27 @@
     <t>STATECODE_I</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                 For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                 For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2511,27 +2512,27 @@
     <t>DISPSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                  For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                  For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2634,27 +2635,27 @@
     <t>FUNSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                       For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                       For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2787,27 +2788,27 @@
     <t>CERTSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                   For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                   For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2937,7 +2938,7 @@
     <t>MARITAL_DESCRIP</t>
   </si>
   <si>
-    <t>Free text for use of jurisdictions with domestic partnerships, other
+    <t>Free text for use of jurisdictions with domestic partnerships, other_x000D_
 types of relationships.</t>
   </si>
   <si>
@@ -3175,27 +3176,27 @@
     <t>BundleDocumentCodedCauseOfFetalDeath</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                        For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                        For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3211,26 +3212,26 @@
     <t>State, U.S. Territory or Canadian Province of Death - literal</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3294,28 +3295,28 @@
     <t>State, U.S. Territory or Canadian Province of Decedent's Residence - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3559,26 +3560,26 @@
     <t>STATE_T</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3591,7 +3592,7 @@
     <t>Void Flag</t>
   </si>
   <si>
-    <t>0 = default; valid record
+    <t>0 = default; valid record_x000D_
 1 = VOID record</t>
   </si>
   <si>
@@ -3649,10 +3650,10 @@
     <t>TPLACE</t>
   </si>
   <si>
-    <t>1 = Hospital
-2 = Clinic
-3 = Doctor's Office
-4 = Other
+    <t>1 = Hospital_x000D_
+2 = Clinic_x000D_
+3 = Doctor's Office_x000D_
+4 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -3680,7 +3681,7 @@
     <t>AGE</t>
   </si>
   <si>
-    <t>10-55
+    <t>10-55_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -3693,27 +3694,27 @@
     <t>State, U.S. Territory or Canadian Province of Residence (Patient) - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                     For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                     For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3783,12 +3784,12 @@
     <t>Patient's Marital Status</t>
   </si>
   <si>
-    <t>1 = Never Married
-2 = Now Married
-3 = Widowed
-4 = Divorced
-5 = Separated
-7 = Other (specify below)
+    <t>1 = Never Married_x000D_
+2 = Now Married_x000D_
+3 = Widowed_x000D_
+4 = Divorced_x000D_
+5 = Separated_x000D_
+7 = Other (specify below)_x000D_
 9 = Unknown or Not Stated</t>
   </si>
   <si>
@@ -3843,13 +3844,13 @@
     <t>ETHNIC_OLD</t>
   </si>
   <si>
-    <t>from single choice versus mark all
-0 = non-hispanic
-1 = Mexican
-2 = Puerto Rican
-3 = Cuban
-4 = Central of South American
-5 = Other or unknown hispanic
+    <t>from single choice versus mark all_x000D_
+0 = non-hispanic_x000D_
+1 = Mexican_x000D_
+2 = Puerto Rican_x000D_
+3 = Cuban_x000D_
+4 = Central of South American_x000D_
+5 = Other or unknown hispanic_x000D_
 9 = Not classifiable</t>
   </si>
   <si>
@@ -3859,15 +3860,15 @@
     <t>ETHNIC_OTH</t>
   </si>
   <si>
-    <t>Comma delimit multiple entries; 
+    <t>Comma delimit multiple entries; _x000D_
 Some states keep a version of multiple Hispanic origin that is not in the new format but something in between.</t>
   </si>
   <si>
     <t>Patient's Race--White</t>
   </si>
   <si>
-    <t>Y = Yes, box for race checked
-N = No, box for race not checked
+    <t>Y = Yes, box for race checked_x000D_
+N = No, box for race not checked_x000D_
 U = Unknown race (U in all race fields)</t>
   </si>
   <si>
@@ -3946,14 +3947,14 @@
     <t>RACE_OLD</t>
   </si>
   <si>
-    <t>From single choice versus mark all
-1 = white; 2 =  Black;
-3 = American Indian; 4 = Chinese
-5 = Japanese; 6 = Hawaiian;
-7 = Filipino; 8 = Other Asian/ Pac Islander;
-9 = not reported; A = Asian Indian; 
-B = Korean; C = Samoan;
-D = Vietnamese; E = Guamian;
+    <t>From single choice versus mark all_x000D_
+1 = white; 2 =  Black;_x000D_
+3 = American Indian; 4 = Chinese_x000D_
+5 = Japanese; 6 = Hawaiian;_x000D_
+7 = Filipino; 8 = Other Asian/ Pac Islander;_x000D_
+9 = not reported; A = Asian Indian; _x000D_
+B = Korean; C = Samoan;_x000D_
+D = Vietnamese; E = Guamian;_x000D_
 F = Multi-racial</t>
   </si>
   <si>
@@ -3963,7 +3964,7 @@
     <t>RACE_OTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Comma delimit multiple entries;
+    <t xml:space="preserve">Comma delimit multiple entries;_x000D_
 Some states keep a version of multiple race that is not in the new format but something in between. </t>
   </si>
   <si>
@@ -3973,7 +3974,7 @@
     <t>PREV_PREG</t>
   </si>
   <si>
-    <t>00-30
+    <t>00-30_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -3983,14 +3984,14 @@
     <t>PLBT</t>
   </si>
   <si>
-    <t>Previous live births,
+    <t>Previous live births,_x000D_
 Now living</t>
   </si>
   <si>
     <t>PLBL</t>
   </si>
   <si>
-    <t>Previous live births,
+    <t>Previous live births,_x000D_
 Now dead</t>
   </si>
   <si>
@@ -4021,7 +4022,7 @@
     <t>DLMP_MO</t>
   </si>
   <si>
-    <t>00-12
+    <t>00-12_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4031,7 +4032,7 @@
     <t>DLMP_DY</t>
   </si>
   <si>
-    <t>01-31 (based on month)
+    <t>01-31 (based on month)_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4041,7 +4042,7 @@
     <t>CWGEST</t>
   </si>
   <si>
-    <t>01-27
+    <t>01-27_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4111,18 +4112,18 @@
     <t>PROC_T</t>
   </si>
   <si>
-    <t>1 = Suction Curettage
-2 = Medical (Non-surgical; medication induced -- specify medication(s) in field below)
-3 = Dilation &amp; Evacuation (D&amp;E)
-4 = Intra-Uterine Instillation (Saline or Prostaglandin)
-5 = Vaginal Prostaglandin
-6 = Sharp Curettage (D&amp;C)
-7 = Hysterotomy/Hysterectomy
-8 = Other
+    <t>1 = Suction Curettage_x000D_
+2 = Medical (Non-surgical; medication induced -- specify medication(s) in field below)_x000D_
+3 = Dilation &amp; Evacuation (D&amp;E)_x000D_
+4 = Intra-Uterine Instillation (Saline or Prostaglandin)_x000D_
+5 = Vaginal Prostaglandin_x000D_
+6 = Sharp Curettage (D&amp;C)_x000D_
+7 = Hysterotomy/Hysterectomy_x000D_
+8 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical (non-surgical) procedure medication(s) literal 
+    <t xml:space="preserve">Medical (non-surgical) procedure medication(s) literal _x000D_
 </t>
   </si>
   <si>
@@ -4132,7 +4133,7 @@
     <t>Free form literal specifing medication(s) that terminated this pregnancy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Termination other procedure literal 
+    <t xml:space="preserve">Termination other procedure literal _x000D_
 </t>
   </si>
   <si>
@@ -4148,15 +4149,15 @@
     <t>PROC-OTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeat up to 4 single digit codes                            
-0 = None                                                                                                                                                                                                                           1 = Suction Curettage
-2 = Medical (Non-surgical; medication induced)
-3 = Dilation &amp; Evacuation (D&amp;E)
-4 = Intra-Uterine Instillation (Saline or Prostaglandin)
-5 = Vaginal Prostaglandin
-6 = Sharp Curettage (D&amp;C)
-8 = Other
-9 = Unknown
+    <t xml:space="preserve">Repeat up to 4 single digit codes                            _x000D_
+0 = None                                                                                                                                                                                                                           1 = Suction Curettage_x000D_
+2 = Medical (Non-surgical; medication induced)_x000D_
+3 = Dilation &amp; Evacuation (D&amp;E)_x000D_
+4 = Intra-Uterine Instillation (Saline or Prostaglandin)_x000D_
+5 = Vaginal Prostaglandin_x000D_
+6 = Sharp Curettage (D&amp;C)_x000D_
+8 = Other_x000D_
+9 = Unknown_x000D_
 </t>
   </si>
   <si>
@@ -4166,7 +4167,7 @@
     <t>CALC_WGEST</t>
   </si>
   <si>
-    <t>00-95
+    <t>00-95_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4179,7 +4180,7 @@
     <t>Y, N, or U (if N or U, leave all other TP complications blank)</t>
   </si>
   <si>
-    <t>Hemorrhage
+    <t>Hemorrhage_x000D_
 (at time of procedure)</t>
   </si>
   <si>
@@ -4189,56 +4190,56 @@
     <t>Y, N, U (some jurisdictions may only collect hemorage data if above a certain volumn)</t>
   </si>
   <si>
-    <t>Infection
+    <t>Infection_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>INFECT_TP</t>
   </si>
   <si>
-    <t>Uterine perforation
+    <t>Uterine perforation_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>PERF_TP</t>
   </si>
   <si>
-    <t>Cervical laceration
+    <t>Cervical laceration_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>LACER_TP</t>
   </si>
   <si>
-    <t>Retained products
+    <t>Retained products_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>RETAN_TP</t>
   </si>
   <si>
-    <t>Death 
+    <t>Death _x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>DEATH_TP</t>
   </si>
   <si>
-    <t>Failure of first method 
+    <t>Failure of first method _x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>FAIL_TP</t>
   </si>
   <si>
-    <t>Other complications 
+    <t>Other complications _x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>OTHER_TP</t>
   </si>
   <si>
-    <t>Other complications literal 
+    <t>Other complications literal _x000D_
 (at time of procedure)</t>
   </si>
   <si>
@@ -4257,49 +4258,49 @@
     <t>Y, N, or U (if N or U, leave all other F1 complications blank)</t>
   </si>
   <si>
-    <t>Complications at followup
+    <t>Complications at followup_x000D_
 at same facility</t>
   </si>
   <si>
     <t>COMP_F1</t>
   </si>
   <si>
-    <t>Hemorrhage
+    <t>Hemorrhage_x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>HEMOR_F1</t>
   </si>
   <si>
-    <t>Infection 
+    <t>Infection _x000D_
 (at time of  follow up at this facility)</t>
   </si>
   <si>
     <t>INFECT_F1</t>
   </si>
   <si>
-    <t>Uterine perforation 
+    <t>Uterine perforation _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>PERF_F1</t>
   </si>
   <si>
-    <t>Cervical laceration 
+    <t>Cervical laceration _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>LACER_F1</t>
   </si>
   <si>
-    <t>Retained products 
+    <t>Retained products _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>RETAN_F1</t>
   </si>
   <si>
-    <t>Death 
+    <t>Death _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
@@ -4318,7 +4319,7 @@
     <t>OTHER_F1</t>
   </si>
   <si>
-    <t>Other complications literal 
+    <t>Other complications literal _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
@@ -4337,70 +4338,70 @@
     <t>Y, N, or U (if N or U, leave all other F2 complications blank)</t>
   </si>
   <si>
-    <t>Complications 
+    <t>Complications _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>COMP_F2</t>
   </si>
   <si>
-    <t>Hemorrhage
+    <t>Hemorrhage_x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>HEMOR_F2</t>
   </si>
   <si>
-    <t>Infection 
+    <t>Infection _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>INFECT_F2</t>
   </si>
   <si>
-    <t>Uterine perforation  
+    <t>Uterine perforation  _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>PERF_F2</t>
   </si>
   <si>
-    <t>Cervical laceration  
+    <t>Cervical laceration  _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>LACER_F2</t>
   </si>
   <si>
-    <t>Retained products 
+    <t>Retained products _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>RETAN_F2</t>
   </si>
   <si>
-    <t>Death 
+    <t>Death _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>DEATH_F2</t>
   </si>
   <si>
-    <t>Failure of first method 
+    <t>Failure of first method _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>FAIL_F2</t>
   </si>
   <si>
-    <t xml:space="preserve">Other complications 
+    <t xml:space="preserve">Other complications _x000D_
 (at time of followup at other facility) </t>
   </si>
   <si>
     <t>OTHER_F2</t>
   </si>
   <si>
-    <t>Other complications literal 
+    <t>Other complications literal _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
@@ -4410,17 +4411,17 @@
     <t>Free form literal of specified other complication at time of followup at other facility.</t>
   </si>
   <si>
-    <t>Site of follow-up visit 
+    <t>Site of follow-up visit _x000D_
 (at other facility)</t>
   </si>
   <si>
     <t>SITE_F2</t>
   </si>
   <si>
-    <t>1 = physician's office
-2 = clinic
-3 = hospital
-4 = other, specify
+    <t>1 = physician's office_x000D_
+2 = clinic_x000D_
+3 = hospital_x000D_
+4 = other, specify_x000D_
 9 = unknown</t>
   </si>
   <si>
@@ -4739,13 +4740,13 @@
     <t>Place Where Delivery Occurred</t>
   </si>
   <si>
-    <t>1 = Hospital
-2 = Freestanding Birth Center
-3 = Home (Intended)
-4 = Home (Not Intended)
-5 = Home (Unknown if Intended)
-6 = Clinic/Doctor's Office
-7 = Other
+    <t>1 = Hospital_x000D_
+2 = Freestanding Birth Center_x000D_
+3 = Home (Intended)_x000D_
+4 = Home (Not Intended)_x000D_
+5 = Home (Unknown if Intended)_x000D_
+6 = Clinic/Doctor's Office_x000D_
+7 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -4812,7 +4813,7 @@
     <t>MAGE_BYPASS</t>
   </si>
   <si>
-    <t xml:space="preserve">0 = Edit Passed
+    <t xml:space="preserve">0 = Edit Passed_x000D_
 1 = Data Queried </t>
   </si>
   <si>
@@ -4834,27 +4835,27 @@
     <t>BPLACEC_ST_TER</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -4879,27 +4880,27 @@
     <t>State, U.S. Territory or Canadian Province of Residence (Mother) - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -4909,8 +4910,8 @@
     <t>Residence of Mother--Inside City/Town Limits</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -4992,8 +4993,8 @@
     <t>MEDUC_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Data Queried and Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Data Queried and Verified_x000D_
 2 = Edit Failed, Data Queried, but not Verified</t>
   </si>
   <si>
@@ -5420,11 +5421,11 @@
     <t>ATTEND</t>
   </si>
   <si>
-    <t>1 = MD
-2 = DO
-3 = CNM/CM
-4 = Other midwife
-5 = Other (specify)
+    <t>1 = MD_x000D_
+2 = DO_x000D_
+3 = CNM/CM_x000D_
+4 = Other midwife_x000D_
+5 = Other (specify)_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -5479,7 +5480,7 @@
     <t>DOFP_YR</t>
   </si>
   <si>
-    <t>4 digit year; year of delivery or
+    <t>4 digit year; year of delivery or_x000D_
 (year of delivery - 1), 8888, 9999</t>
   </si>
   <si>
@@ -5516,8 +5517,8 @@
     <t>NPREV_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Number Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Number Verified_x000D_
 2 = Edit Failed, Number not Verified</t>
   </si>
   <si>
@@ -5554,8 +5555,8 @@
     <t>HGT_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Number Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Number Verified_x000D_
 2 = Edit Failed, Number not  Verified</t>
   </si>
   <si>
@@ -5589,8 +5590,8 @@
     <t>PWGT_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Verified_x000D_
 2 = Edit Failed, not Verified</t>
   </si>
   <si>
@@ -5672,8 +5673,8 @@
     <t>YLLB</t>
   </si>
   <si>
-    <t>4 digit year;
-(year of mother's birth + 10) through
+    <t>4 digit year;_x000D_
+(year of mother's birth + 10) through_x000D_
 year of delivery, 8888, 9999</t>
   </si>
   <si>
@@ -5734,8 +5735,8 @@
     <t>Date Last Normal Menses Began--Year</t>
   </si>
   <si>
-    <t>4 digit year; year of delivery or
-(year of delivery - 1) or
+    <t>4 digit year; year of delivery or_x000D_
+(year of delivery - 1) or_x000D_
 (year of delivery - 2), 9999</t>
   </si>
   <si>
@@ -5763,9 +5764,9 @@
     <t>See [note on missing pregnancy risk factors data]</t>
   </si>
   <si>
-    <t>Update risk factors (old Observation-pregnancy-risk-factor)
-STU 1 listed:
-IJE Natality Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART
+    <t>Update risk factors (old Observation-pregnancy-risk-factor)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART_x000D_
 IJE Fetal Death Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART</t>
   </si>
   <si>
@@ -5877,7 +5878,7 @@
     <t>NPCES_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
+    <t>0 = Edit Passed_x000D_
 1 = Edit Failed, Verified</t>
   </si>
   <si>
@@ -5968,9 +5969,9 @@
     <t>PRES</t>
   </si>
   <si>
-    <t>1 = Cephalic
-2 = Breech
-3 = Other
+    <t>1 = Cephalic_x000D_
+2 = Breech_x000D_
+3 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -5989,10 +5990,10 @@
     <t>ROUT</t>
   </si>
   <si>
-    <t>1 = Spontaneous
-2 = Forceps
-3 = Vacuum
-4 = Cesarean
+    <t>1 = Spontaneous_x000D_
+2 = Forceps_x000D_
+3 = Vacuum_x000D_
+4 = Cesarean_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -6002,7 +6003,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>[DeliveryRoutesVS]</t>
+    <t>See  [note on missing method of delivery data]</t>
   </si>
   <si>
     <t>Procedure-final-route-method-delivery</t>
@@ -6014,9 +6015,9 @@
     <t>TLAB</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
-U = Unknown
+    <t>Y = Yes_x000D_
+N = No_x000D_
+U = Unknown_x000D_
 X = Not Applicable</t>
   </si>
   <si>
@@ -6038,9 +6039,9 @@
     <t>MTR</t>
   </si>
   <si>
-    <t>Update maternal morbidity (old Condition-maternal-morbidity)
-STU 1 listed:
-IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT
+    <t>Update maternal morbidity (old Condition-maternal-morbidity)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT_x000D_
 IJE Fetal Death Data Elements: RUT, AINT</t>
   </si>
   <si>
@@ -6095,10 +6096,10 @@
     <t>UOPR</t>
   </si>
   <si>
-    <t>Update maternal morbidity (old Condition-maternal-morbidity)
-STU 1 listed:
-IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT
-IJE Fetal Death Data Elements: RUT, AINT
+    <t>Update maternal morbidity (old Condition-maternal-morbidity)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT_x000D_
+IJE Fetal Death Data Elements: RUT, AINT_x000D_
 (new) UOPR</t>
   </si>
   <si>
@@ -6120,8 +6121,8 @@
     <t>FW_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
-1 = Queried data correct, out of range
+    <t>0 = Off_x000D_
+1 = Queried data correct, out of range_x000D_
 2 = Queried, failed  delivery weight/gestation edit</t>
   </si>
   <si>
@@ -6152,7 +6153,7 @@
     <t>OWGEST_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
+    <t>0 = Off_x000D_
 1 = Queried data correct, out of range</t>
   </si>
   <si>
@@ -6168,9 +6169,9 @@
     <t>ETIME</t>
   </si>
   <si>
-    <t>N = At assessment, no labor
-L = At assessment, labor
-A = Labor, no assessment
+    <t>N = At assessment, no labor_x000D_
+L = At assessment, labor_x000D_
+A = Labor, no assessment_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -6186,8 +6187,8 @@
     <t>Was an Autopsy Performed?</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 P = Planned</t>
   </si>
   <si>
@@ -6215,8 +6216,8 @@
     <t>Were Autopsy or Histological Placental Examination Results Used in Determining the Cause of Fetal Death?</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 X = Not Applicable</t>
   </si>
   <si>
@@ -6274,8 +6275,8 @@
     <t>PLUR_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
-1 = Queried, and Correct
+    <t>0 = Off_x000D_
+1 = Queried, and Correct_x000D_
 2 = Plurality/Set Order Queried, Inconsistent</t>
   </si>
   <si>
@@ -6348,9 +6349,9 @@
     <t>DOWT</t>
   </si>
   <si>
-    <t>C = Confirmed
-P = Pending
-N = No
+    <t>C = Confirmed_x000D_
+P = Pending_x000D_
+N = No_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -6372,10 +6373,10 @@
     <t>&gt;=year of delivery</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Code structure description differs here
-Code sent back to state VRO
-For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Code structure description differs here_x000D_
+Code sent back to state VRO_x000D_
+For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -6394,10 +6395,10 @@
     <t>NCHS USE ONLY: Receipt date -- Day</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Code structure description differs here
-Code sent back to state VRO
-Note: Marked as NCHS USE ONLY, but VRDR does address this. For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Code structure description differs here_x000D_
+Code sent back to state VRO_x000D_
+Note: Marked as NCHS USE ONLY, but VRDR does address this. For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -6446,9 +6447,9 @@
     <t>INFT_DRG</t>
   </si>
   <si>
-    <t>Y = Yes (BLANK IF NOT ADDED)
-N = No
-X = Not Applicable
+    <t>Y = Yes (BLANK IF NOT ADDED)_x000D_
+N = No_x000D_
+X = Not Applicable_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -6494,7 +6495,7 @@
     <t>COD18a1</t>
   </si>
   <si>
-    <t>Y = Yes
+    <t>Y = Yes_x000D_
 N = No</t>
   </si>
   <si>
@@ -7191,9 +7192,9 @@
     <t>string(25)</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-NCHS does not use
-VRCL defines "ObservationUsualWorkVitalRecords" profile. 
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+NCHS does not use_x000D_
+VRCL defines "ObservationUsualWorkVitalRecords" profile. _x000D_
 Decision: BFDR should mimic VRDR</t>
   </si>
   <si>
@@ -7767,24 +7768,24 @@
     <t>MRACEBG_C</t>
   </si>
   <si>
-    <t>01 = White
-02 = Black
-03 = American Indian/Alaskan Native
-04 = Asian Indian
-05 = Chinese
-06 = Filipino
-07 = Japanese
-08 = Korean
-09 = Vietnamese
-10 = Other Asian
-11 = Native Hawaiian
-12 = Guamanian
-13 = Samoan
-14 = Other Pacific Islander
-15 = Other
-21 = Bridged White
-22 = Bridged Black
-23 = Bridged American Indian/Alaskan Native
+    <t>01 = White_x000D_
+02 = Black_x000D_
+03 = American Indian/Alaskan Native_x000D_
+04 = Asian Indian_x000D_
+05 = Chinese_x000D_
+06 = Filipino_x000D_
+07 = Japanese_x000D_
+08 = Korean_x000D_
+09 = Vietnamese_x000D_
+10 = Other Asian_x000D_
+11 = Native Hawaiian_x000D_
+12 = Guamanian_x000D_
+13 = Samoan_x000D_
+14 = Other Pacific Islander_x000D_
+15 = Other_x000D_
+21 = Bridged White_x000D_
+22 = Bridged Black_x000D_
+23 = Bridged American Indian/Alaskan Native_x000D_
 24 = Bridged Asian &amp; Pacific Islander</t>
   </si>
   <si>
@@ -7905,24 +7906,24 @@
     <t>Informant's Relationship to Fetus</t>
   </si>
   <si>
-    <t>1 = Mother
-2 = Father
-3 = Sibling
-4 = Other relative
-5 = Other
+    <t>1 = Mother_x000D_
+2 = Father_x000D_
+3 = Sibling_x000D_
+4 = Other relative_x000D_
+5 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Only similar item is Mortality: "Informant's Relationship (INFORMRELATE), which uses VRDR Decedent  contact.type.text   string (30 characters)
-VRCPL has:
-  - Patient-decedent-fetus, 
-  - Related Person - Parent Vital Records   
-  - RelatedPerson - Father Natural Vital Records         
-  - RelatedPerson - Father Vital Records         
-  - RelatedPerson - Mother Gestational Vital Records         
-  - RelatedPerson - Mother Vital Records
-NOTE that the IJE Code Structure Description here includes Sibling and others
-Saul notes: VRDR uses fields that can be from a controlled vocabulary or any arbitrary string (e.g., CERTL in  http://build.fhir.org/ig/HL7/vrdr/branches/master/StructureDefinition-vrdr-death-certification.html) with a consistent pattern (I think
+    <t xml:space="preserve">Only similar item is Mortality: "Informant's Relationship (INFORMRELATE), which uses VRDR Decedent  contact.type.text   string (30 characters)_x000D_
+VRCPL has:_x000D_
+  - Patient-decedent-fetus, _x000D_
+  - Related Person - Parent Vital Records   _x000D_
+  - RelatedPerson - Father Natural Vital Records         _x000D_
+  - RelatedPerson - Father Vital Records         _x000D_
+  - RelatedPerson - Mother Gestational Vital Records         _x000D_
+  - RelatedPerson - Mother Vital Records_x000D_
+NOTE that the IJE Code Structure Description here includes Sibling and others_x000D_
+Saul notes: VRDR uses fields that can be from a controlled vocabulary or any arbitrary string (e.g., CERTL in  http://build.fhir.org/ig/HL7/vrdr/branches/master/StructureDefinition-vrdr-death-certification.html) with a consistent pattern (I think_x000D_
 there are two such fields). </t>
   </si>
   <si>
@@ -7980,9 +7981,9 @@
     <t>Deprecated, see [VRFM]</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Mortality (VRDR) uses   DeathCertificate  extension[replaceStatus].valuecodeable   [ReplaceStatusVS]
-VRDR addresses in the VRDR Messaging IG. 
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Mortality (VRDR) uses   DeathCertificate  extension[replaceStatus].valuecodeable   [ReplaceStatusVS]_x000D_
+VRDR addresses in the VRDR Messaging IG. _x000D_
 Decision: Births should behave the same as deaths.</t>
   </si>
   <si>
@@ -8004,30 +8005,31 @@
     <t>State, U.S. Territory or Canadian Province of Birth (Infant) - code</t>
   </si>
   <si>
-    <t xml:space="preserve">
-NCHS Instruction Manual: Part 8
-ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA
-YC = NEW YORK CITY
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>_x000D_
+NCHS Instruction Manual: Part 8_x000D_
+ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA_x000D_
+YC = NEW YORK CITY_x000D_
+_x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -8052,8 +8054,8 @@
     <t>ISEX</t>
   </si>
   <si>
-    <t>M = Male
-F = Female
+    <t>M = Male_x000D_
+F = Female_x000D_
 N = Not Yet Determined</t>
   </si>
   <si>
@@ -8090,31 +8092,31 @@
     <t>4 digit year (&lt; year of birth of child);  9999 = unknown</t>
   </si>
   <si>
-    <t>0 = Edit Passed
+    <t>0 = Edit Passed_x000D_
 1 = Data Queried</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -8124,27 +8126,27 @@
     <t>Residence of Mother--City</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA        For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA        For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -8190,15 +8192,15 @@
     <t>Literal; blank</t>
   </si>
   <si>
-    <t xml:space="preserve">NCHS Appendix E
-(values for fields 62 - 77 returned from NCHS)
+    <t xml:space="preserve">NCHS Appendix E_x000D_
+(values for fields 62 - 77 returned from NCHS)_x000D_
 </t>
   </si>
   <si>
     <t>NCHS Appendix E</t>
   </si>
   <si>
-    <t>NCHS Appendix E
+    <t>NCHS Appendix E_x000D_
 (values for fields 108 - 123 returned from NCHS)</t>
   </si>
   <si>
@@ -8220,11 +8222,11 @@
     <t>01-31 (based on month), 88=no care, 99=unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">4 digit year; year of child's birth or
+    <t xml:space="preserve">4 digit year; year of child's birth or_x000D_
 (year of child's birth - 1), 8888=no care, 9999=unknown </t>
   </si>
   <si>
-    <t>4 digit year; year of child's birth or 
+    <t>4 digit year; year of child's birth or _x000D_
 (year of child's birth - 1), 8888=no care, 9999=unknown</t>
   </si>
   <si>
@@ -8270,7 +8272,7 @@
     <t>Observation-number-other-pregnancy-outcomes-vr</t>
   </si>
   <si>
-    <t>4 digit year;(year of mother's birth + 10) through
+    <t>4 digit year;(year of mother's birth + 10) through_x000D_
 year of child's birth, 8888, 9999</t>
   </si>
   <si>
@@ -8295,13 +8297,13 @@
     <t>PAY</t>
   </si>
   <si>
-    <t>1 = Medicaid
-2 = Private Insurance
-3 = Self-pay
-4 = Indian Health Service
-5 = CHAMPUS/TRICARE
-6 = Other Government (Fed, State, Local) 
-8 = Other
+    <t>1 = Medicaid_x000D_
+2 = Private Insurance_x000D_
+3 = Self-pay_x000D_
+4 = Indian Health Service_x000D_
+5 = CHAMPUS/TRICARE_x000D_
+6 = Other Government (Fed, State, Local) _x000D_
+8 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -8317,8 +8319,8 @@
     <t>Coverage-principal-payer-delivery</t>
   </si>
   <si>
-    <t>4 digit year; year of child's birth 
-or (year of child's birth - 1)
+    <t>4 digit year; year of child's birth _x000D_
+or (year of child's birth - 1)_x000D_
 or (year of child's birth - 2), 9999</t>
   </si>
   <si>
@@ -8460,8 +8462,8 @@
     <t>See [note on missing characteristics of labor and delivery data]</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
-STU 1 listed:
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
+STU 1 listed:_x000D_
 IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN</t>
   </si>
   <si>
@@ -8531,9 +8533,9 @@
     <t>MECS</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
-STU 1 listed:
-IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN_x000D_
 (new) MECS</t>
   </si>
   <si>
@@ -8543,9 +8545,9 @@
     <t>FINT</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
-STU 1 listed:
-IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN_x000D_
 (new) FINT</t>
   </si>
   <si>
@@ -8603,8 +8605,8 @@
     <t>BW_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
-1 = Queried data correct, out of range
+    <t>0 = Off_x000D_
+1 = Queried data correct, out of range_x000D_
 2 = Queried, failed birthweight/gestation edit</t>
   </si>
   <si>
@@ -8650,8 +8652,8 @@
     <t>Observation-number-live-births-this-delivery-vr</t>
   </si>
   <si>
-    <t>0 = OFF
-1 = Queried, and Correct
+    <t>0 = OFF_x000D_
+1 = Queried, and Correct_x000D_
 2 = Plurality/Set Order Queried, Inconsistent</t>
   </si>
   <si>
@@ -8667,8 +8669,8 @@
     <t>See [note on missing abnormal conditions of newborn data]</t>
   </si>
   <si>
-    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)
-STU 1 listed:
+    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)_x000D_
+STU 1 listed:_x000D_
 IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH</t>
   </si>
   <si>
@@ -8744,9 +8746,9 @@
     <t>BINJ</t>
   </si>
   <si>
-    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)
-STU 1 listed:
-IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH
+    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH_x000D_
 (new) BINJ</t>
   </si>
   <si>
@@ -8849,8 +8851,8 @@
     <t>ILIV</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 U = Infant transferred, Status Unknown</t>
   </si>
   <si>
@@ -8875,9 +8877,9 @@
     <t>leave blank</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Code sent back to state VRO
-For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Code sent back to state VRO_x000D_
+For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -8887,10 +8889,10 @@
     <t>Risk Factors--Infertility: Fertility Enhancing Drugs  (RECOMMENDED ADDITION EFFECTIVE 2004)</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
-X = Not Applicable
-U = Unknown
+    <t>Y = Yes_x000D_
+N = No_x000D_
+X = Not Applicable_x000D_
+U = Unknown_x000D_
 (BLANK IF NOT ADDED)</t>
   </si>
   <si>
@@ -9050,27 +9052,27 @@
     <t>Refer to NCHS Instruction Manual Part 19, Industry and Occupation Coding for Death Certificates, 2003. Leave blank if using a coding system other than this</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -9197,8 +9199,8 @@
     <t>SSN_MULT_BTH_CD</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 or blank</t>
   </si>
   <si>
@@ -9247,12 +9249,12 @@
     <t>CERTIF</t>
   </si>
   <si>
-    <t>1 = MD
-2 = DO
-3 = CNM/CM
-4 = Other midwife
-5 = Other (specify) 
-6 = Hospital Admin
+    <t>1 = MD_x000D_
+2 = DO_x000D_
+3 = CNM/CM_x000D_
+4 = Other midwife_x000D_
+5 = Other (specify) _x000D_
+6 = Hospital Admin_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -9304,51 +9306,51 @@
     <t>Deprecated,  see [VRFM]</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA              For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA              For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA            For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA            For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -9424,7 +9426,7 @@
     <t>Residence Street number</t>
   </si>
   <si>
-    <t>For use of jurisdictions with domestic partnerships, other
+    <t>For use of jurisdictions with domestic partnerships, other_x000D_
 types of relationships.</t>
   </si>
   <si>
@@ -9449,26 +9451,26 @@
     <t>Death Jurisdiction - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual Part 8A
- For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
- For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual Part 8A_x000D_
+ For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+ For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -6324,7 +6324,7 @@
 N = No</t>
   </si>
   <si>
-    <t>ConditionFetalDeathCauseOrCondition</t>
+    <t>ConditionFetalDeathInitiatingCauseOrCondition</t>
   </si>
   <si>
     <t>code=44223004 (Premature rupture of membranes (disorder))</t>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -3112,7 +3112,7 @@
     <t>gender</t>
   </si>
   <si>
-    <t>[AdministrativeGenderVS] - See [Note on Decedent Gender]</t>
+    <t>[AdministrativeGenderVS] - See [Note on Gender]</t>
   </si>
   <si>
     <t>MortalityRosterBundle</t>
@@ -7849,7 +7849,7 @@
 other = Other unknown = Unknown</t>
   </si>
   <si>
-    <t>[USCorePatient] requires gender - can be 'unknown'. genderIdentity field is not required.</t>
+    <t xml:space="preserve">[USCorePatient] requires gender - can be 'unknown'. See [Note on Gender] </t>
   </si>
   <si>
     <t>Time of Birth</t>
@@ -9639,7 +9639,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:R277"/>
+  <dimension ref="A1:S277"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9656,7 +9656,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9711,8 +9711,9 @@
       <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9755,7 +9756,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9798,7 +9799,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9841,7 +9842,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9881,7 +9882,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>7</v>
       </c>
@@ -9924,7 +9925,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>8</v>
       </c>
@@ -9967,7 +9968,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>9</v>
       </c>
@@ -10010,7 +10011,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10049,7 +10050,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>10</v>
       </c>
@@ -10092,7 +10093,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>11</v>
       </c>
@@ -10135,7 +10136,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>12</v>
       </c>
@@ -10178,7 +10179,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>13</v>
       </c>
@@ -10221,7 +10222,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10264,7 +10265,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10305,7 +10306,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21118,7 +21119,7 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21135,7 +21136,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -21190,8 +21191,9 @@
       <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2">
         <v>1</v>
       </c>
@@ -21228,7 +21230,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -21263,7 +21265,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -21298,7 +21300,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -21333,7 +21335,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -21370,7 +21372,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="B7" t="s">
         <v>946</v>
       </c>
@@ -21407,7 +21409,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -21444,7 +21446,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -21481,7 +21483,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -21518,7 +21520,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -21555,7 +21557,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -21592,7 +21594,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>431</v>
       </c>
@@ -21632,7 +21634,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>432</v>
       </c>
@@ -21672,7 +21674,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>433</v>
       </c>
@@ -21712,7 +21714,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>434</v>
       </c>
@@ -22970,7 +22972,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22987,7 +22989,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -23042,8 +23044,9 @@
       <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>272</v>
       </c>
@@ -23086,7 +23089,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>430</v>
       </c>
@@ -23126,7 +23129,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>273</v>
       </c>
@@ -23169,7 +23172,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>275</v>
       </c>
@@ -23212,7 +23215,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>276</v>
       </c>
@@ -23255,7 +23258,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>277</v>
       </c>
@@ -23296,7 +23299,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>278</v>
       </c>
@@ -23337,7 +23340,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>279</v>
       </c>
@@ -23380,7 +23383,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>280</v>
       </c>
@@ -23421,7 +23424,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>281</v>
       </c>
@@ -23462,7 +23465,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>282</v>
       </c>
@@ -23505,7 +23508,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>283</v>
       </c>
@@ -23548,7 +23551,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>284</v>
       </c>
@@ -23591,7 +23594,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>285</v>
       </c>
@@ -23634,7 +23637,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>286</v>
       </c>
@@ -29767,7 +29770,7 @@
   <sheetPr>
     <tabColor rgb="FFCC99FF"/>
   </sheetPr>
-  <dimension ref="A1:R160"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29784,7 +29787,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -29839,8 +29842,9 @@
       <c r="R1" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1183</v>
       </c>
@@ -29873,7 +29877,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1184</v>
       </c>
@@ -29906,7 +29910,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1185</v>
       </c>
@@ -29939,7 +29943,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1186</v>
       </c>
@@ -29972,7 +29976,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1187</v>
       </c>
@@ -30005,7 +30009,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1188</v>
       </c>
@@ -30038,7 +30042,7 @@
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1189</v>
       </c>
@@ -30071,7 +30075,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1190</v>
       </c>
@@ -30104,7 +30108,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1191</v>
       </c>
@@ -30137,7 +30141,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1192</v>
       </c>
@@ -30170,7 +30174,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1193</v>
       </c>
@@ -30203,7 +30207,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1194</v>
       </c>
@@ -30236,7 +30240,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>1195</v>
       </c>
@@ -30269,7 +30273,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1196</v>
       </c>
@@ -30302,7 +30306,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1197</v>
       </c>
@@ -35098,7 +35102,7 @@
   <sheetPr>
     <tabColor rgb="FFFFCC99"/>
   </sheetPr>
-  <dimension ref="A1:R370"/>
+  <dimension ref="A1:S370"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35115,7 +35119,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -35170,8 +35174,9 @@
       <c r="R1" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>818</v>
       </c>
@@ -35213,7 +35218,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>819</v>
       </c>
@@ -35255,7 +35260,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>820</v>
       </c>
@@ -35294,7 +35299,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>820</v>
       </c>
@@ -35333,7 +35338,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>820</v>
       </c>
@@ -35372,7 +35377,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>821</v>
       </c>
@@ -35410,7 +35415,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>822</v>
       </c>
@@ -35449,7 +35454,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>822</v>
       </c>
@@ -35488,7 +35493,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>822</v>
       </c>
@@ -35527,7 +35532,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>823</v>
       </c>
@@ -35569,7 +35574,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>824</v>
       </c>
@@ -35611,7 +35616,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>825</v>
       </c>
@@ -35653,7 +35658,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>826</v>
       </c>
@@ -35695,7 +35700,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>827</v>
       </c>
@@ -35737,7 +35742,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>828</v>
       </c>
@@ -49870,7 +49875,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFFF"/>
   </sheetPr>
-  <dimension ref="A1:R368"/>
+  <dimension ref="A1:S368"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49887,7 +49892,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -49942,8 +49947,9 @@
       <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>465</v>
       </c>
@@ -49985,7 +49991,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>466</v>
       </c>
@@ -50027,7 +50033,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>467</v>
       </c>
@@ -50066,7 +50072,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>467</v>
       </c>
@@ -50105,7 +50111,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>467</v>
       </c>
@@ -50144,7 +50150,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>468</v>
       </c>
@@ -50182,7 +50188,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>469</v>
       </c>
@@ -50221,7 +50227,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>469</v>
       </c>
@@ -50260,7 +50266,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>469</v>
       </c>
@@ -50299,7 +50305,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -50338,7 +50344,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -50377,7 +50383,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -50416,7 +50422,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -50455,7 +50461,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -50494,7 +50500,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -64822,7 +64828,7 @@
   <sheetPr>
     <tabColor rgb="FFC4BD97"/>
   </sheetPr>
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:S350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -64839,7 +64845,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -64894,8 +64900,9 @@
       <c r="R1" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1342</v>
       </c>
@@ -64922,7 +64929,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1343</v>
       </c>
@@ -64949,7 +64956,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1344</v>
       </c>
@@ -64976,7 +64983,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1345</v>
       </c>
@@ -65003,7 +65010,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1346</v>
       </c>
@@ -65030,7 +65037,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1347</v>
       </c>
@@ -65057,7 +65064,7 @@
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1348</v>
       </c>
@@ -65084,7 +65091,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1349</v>
       </c>
@@ -65111,7 +65118,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1350</v>
       </c>
@@ -65138,7 +65145,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1351</v>
       </c>
@@ -65165,7 +65172,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>1352</v>
       </c>
@@ -65192,7 +65199,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1353</v>
       </c>
@@ -65217,7 +65224,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>1354</v>
       </c>
@@ -65242,7 +65249,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1355</v>
       </c>
@@ -65269,7 +65276,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>1356</v>
       </c>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -6292,7 +6292,7 @@
 U = Unknown</t>
   </si>
   <si>
-    <t>ProcedureArtificialInsemination</t>
+    <t>ProcedureFertilityEnhancingDrugTherapyArtificialInsemination</t>
   </si>
   <si>
     <t>Remove Observation-pregnancy-risk-factor</t>
@@ -6307,7 +6307,7 @@
     <t>Y, N, X, U  (BLANK IF NOT ADDED)</t>
   </si>
   <si>
-    <t>ProcedureAssistedFertilization</t>
+    <t>ProcedureAssistedReproductiveTechnology</t>
   </si>
   <si>
     <t>4 digit year; &gt;=year of delivery, Blank (Date of Registration must be a valid date or entirely blank; no portions of the date may be unknown)</t>
@@ -9639,7 +9639,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:S277"/>
+  <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9656,7 +9656,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9711,9 +9711,8 @@
       <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9756,7 +9755,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9799,7 +9798,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9842,7 +9841,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>6</v>
       </c>
@@ -9882,7 +9881,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>7</v>
       </c>
@@ -9925,7 +9924,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>8</v>
       </c>
@@ -9968,7 +9967,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>9</v>
       </c>
@@ -10011,7 +10010,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>9</v>
       </c>
@@ -10050,7 +10049,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>10</v>
       </c>
@@ -10093,7 +10092,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>11</v>
       </c>
@@ -10136,7 +10135,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>12</v>
       </c>
@@ -10179,7 +10178,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>13</v>
       </c>
@@ -10222,7 +10221,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10265,7 +10264,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10306,7 +10305,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21119,7 +21118,7 @@
   <sheetPr>
     <tabColor rgb="FFFF99CC"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21136,7 +21135,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -21191,9 +21190,8 @@
       <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="B2">
         <v>1</v>
       </c>
@@ -21230,7 +21228,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -21265,7 +21263,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -21300,7 +21298,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -21335,7 +21333,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -21372,7 +21370,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="B7" t="s">
         <v>946</v>
       </c>
@@ -21409,7 +21407,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -21446,7 +21444,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -21483,7 +21481,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -21520,7 +21518,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -21557,7 +21555,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -21594,7 +21592,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>431</v>
       </c>
@@ -21634,7 +21632,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>432</v>
       </c>
@@ -21674,7 +21672,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>433</v>
       </c>
@@ -21714,7 +21712,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>434</v>
       </c>
@@ -22972,7 +22970,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22989,7 +22987,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -23044,9 +23042,8 @@
       <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>272</v>
       </c>
@@ -23089,7 +23086,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>430</v>
       </c>
@@ -23129,7 +23126,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>273</v>
       </c>
@@ -23172,7 +23169,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>275</v>
       </c>
@@ -23215,7 +23212,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>276</v>
       </c>
@@ -23258,7 +23255,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>277</v>
       </c>
@@ -23299,7 +23296,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>278</v>
       </c>
@@ -23340,7 +23337,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>279</v>
       </c>
@@ -23383,7 +23380,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>280</v>
       </c>
@@ -23424,7 +23421,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>281</v>
       </c>
@@ -23465,7 +23462,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>282</v>
       </c>
@@ -23508,7 +23505,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>283</v>
       </c>
@@ -23551,7 +23548,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>284</v>
       </c>
@@ -23594,7 +23591,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>285</v>
       </c>
@@ -23637,7 +23634,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>286</v>
       </c>
@@ -29770,7 +29767,7 @@
   <sheetPr>
     <tabColor rgb="FFCC99FF"/>
   </sheetPr>
-  <dimension ref="A1:S160"/>
+  <dimension ref="A1:R160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29787,7 +29784,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -29842,9 +29839,8 @@
       <c r="R1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1183</v>
       </c>
@@ -29877,7 +29873,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1184</v>
       </c>
@@ -29910,7 +29906,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1185</v>
       </c>
@@ -29943,7 +29939,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1186</v>
       </c>
@@ -29976,7 +29972,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1187</v>
       </c>
@@ -30009,7 +30005,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1188</v>
       </c>
@@ -30042,7 +30038,7 @@
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1189</v>
       </c>
@@ -30075,7 +30071,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1190</v>
       </c>
@@ -30108,7 +30104,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1191</v>
       </c>
@@ -30141,7 +30137,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1192</v>
       </c>
@@ -30174,7 +30170,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1193</v>
       </c>
@@ -30207,7 +30203,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1194</v>
       </c>
@@ -30240,7 +30236,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1195</v>
       </c>
@@ -30273,7 +30269,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1196</v>
       </c>
@@ -30306,7 +30302,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1197</v>
       </c>
@@ -35102,7 +35098,7 @@
   <sheetPr>
     <tabColor rgb="FFFFCC99"/>
   </sheetPr>
-  <dimension ref="A1:S370"/>
+  <dimension ref="A1:R370"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35119,7 +35115,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -35174,9 +35170,8 @@
       <c r="R1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>818</v>
       </c>
@@ -35218,7 +35213,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>819</v>
       </c>
@@ -35260,7 +35255,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>820</v>
       </c>
@@ -35299,7 +35294,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>820</v>
       </c>
@@ -35338,7 +35333,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>820</v>
       </c>
@@ -35377,7 +35372,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>821</v>
       </c>
@@ -35415,7 +35410,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>822</v>
       </c>
@@ -35454,7 +35449,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>822</v>
       </c>
@@ -35493,7 +35488,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>822</v>
       </c>
@@ -35532,7 +35527,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>823</v>
       </c>
@@ -35574,7 +35569,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>824</v>
       </c>
@@ -35616,7 +35611,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>825</v>
       </c>
@@ -35658,7 +35653,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>826</v>
       </c>
@@ -35700,7 +35695,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>827</v>
       </c>
@@ -35742,7 +35737,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>828</v>
       </c>
@@ -49875,7 +49870,7 @@
   <sheetPr>
     <tabColor rgb="FFCCFFFF"/>
   </sheetPr>
-  <dimension ref="A1:S368"/>
+  <dimension ref="A1:R368"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49892,7 +49887,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -49947,9 +49942,8 @@
       <c r="R1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>465</v>
       </c>
@@ -49991,7 +49985,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>466</v>
       </c>
@@ -50033,7 +50027,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>467</v>
       </c>
@@ -50072,7 +50066,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>467</v>
       </c>
@@ -50111,7 +50105,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>467</v>
       </c>
@@ -50150,7 +50144,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>468</v>
       </c>
@@ -50188,7 +50182,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>469</v>
       </c>
@@ -50227,7 +50221,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>469</v>
       </c>
@@ -50266,7 +50260,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>469</v>
       </c>
@@ -50305,7 +50299,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -50344,7 +50338,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -50383,7 +50377,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -50422,7 +50416,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -50461,7 +50455,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -50500,7 +50494,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -64828,7 +64822,7 @@
   <sheetPr>
     <tabColor rgb="FFC4BD97"/>
   </sheetPr>
-  <dimension ref="A1:S350"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -64845,7 +64839,7 @@
     <col min="15" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -64900,9 +64894,8 @@
       <c r="R1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1342</v>
       </c>
@@ -64929,7 +64922,7 @@
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1343</v>
       </c>
@@ -64956,7 +64949,7 @@
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1344</v>
       </c>
@@ -64983,7 +64976,7 @@
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1345</v>
       </c>
@@ -65010,7 +65003,7 @@
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1346</v>
       </c>
@@ -65037,7 +65030,7 @@
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1347</v>
       </c>
@@ -65064,7 +65057,7 @@
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1348</v>
       </c>
@@ -65091,7 +65084,7 @@
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1349</v>
       </c>
@@ -65118,7 +65111,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1350</v>
       </c>
@@ -65145,7 +65138,7 @@
       <c r="N10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1351</v>
       </c>
@@ -65172,7 +65165,7 @@
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>1352</v>
       </c>
@@ -65199,7 +65192,7 @@
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>1353</v>
       </c>
@@ -65224,7 +65217,7 @@
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1354</v>
       </c>
@@ -65249,7 +65242,7 @@
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>1355</v>
       </c>
@@ -65276,7 +65269,7 @@
       <c r="N15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>1356</v>
       </c>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12206" uniqueCount="2786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12206" uniqueCount="2787">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">SPOUSEL </t>
   </si>
   <si>
-    <t>name.family, name.use = 'maiden</t>
+    <t>name.family, name.use = maiden</t>
   </si>
   <si>
     <t>Decedent's Residence - Street number</t>
@@ -7830,6 +7830,9 @@
    QC  QUEBEC  
    SK  SASKATCHEWAN
    YT  YUKON</t>
+  </si>
+  <si>
+    <t>extension[birthPlace].value[x].state.extension[nationalReportingJurisdictionId]</t>
   </si>
   <si>
     <t>identifier.extension[birthCertificateNumber].value</t>
@@ -50014,7 +50017,7 @@
         <v>2389</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1006</v>
+        <v>2392</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>73</v>
@@ -50056,7 +50059,7 @@
         <v>955</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>40</v>
@@ -50095,7 +50098,7 @@
         <v>958</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>40</v>
@@ -50134,7 +50137,7 @@
         <v>959</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>40</v>
@@ -50313,7 +50316,7 @@
         <v>42</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>44</v>
@@ -50328,7 +50331,7 @@
         <v>955</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>48</v>
@@ -50352,7 +50355,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>44</v>
@@ -50367,7 +50370,7 @@
         <v>957</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>48</v>
@@ -50391,7 +50394,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>44</v>
@@ -50406,7 +50409,7 @@
         <v>958</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>48</v>
@@ -50430,7 +50433,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -50445,7 +50448,7 @@
         <v>958</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>48</v>
@@ -50469,7 +50472,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>44</v>
@@ -50484,7 +50487,7 @@
         <v>959</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>48</v>
@@ -50508,7 +50511,7 @@
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>44</v>
@@ -50523,7 +50526,7 @@
         <v>959</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>48</v>
@@ -50544,7 +50547,7 @@
         <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="I17" t="s">
         <v>205</v>
@@ -50559,7 +50562,7 @@
         <v>33</v>
       </c>
       <c r="M17" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>952</v>
@@ -50577,7 +50580,7 @@
         <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="I18" t="s">
         <v>205</v>
@@ -50592,7 +50595,7 @@
         <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>952</v>
@@ -50610,7 +50613,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="I19" t="s">
         <v>205</v>
@@ -50625,7 +50628,7 @@
         <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>952</v>
@@ -50643,7 +50646,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="I20" t="s">
         <v>205</v>
@@ -50658,7 +50661,7 @@
         <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>952</v>
@@ -50679,10 +50682,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>191</v>
@@ -50724,10 +50727,10 @@
         <v>92</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="I22" t="s">
         <v>205</v>
@@ -50763,10 +50766,10 @@
         <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>389</v>
@@ -50805,10 +50808,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>392</v>
@@ -50847,7 +50850,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>1413</v>
@@ -50889,10 +50892,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>1417</v>
@@ -50901,7 +50904,7 @@
         <v>939</v>
       </c>
       <c r="J26" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>1419</v>
@@ -50931,7 +50934,7 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>1093</v>
@@ -51011,7 +51014,7 @@
         <v>1427</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="I29" t="s">
         <v>205</v>
@@ -51137,7 +51140,7 @@
         <v>1435</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="I32" t="s">
         <v>205</v>
@@ -51179,7 +51182,7 @@
         <v>1441</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="I33" t="s">
         <v>205</v>
@@ -51215,7 +51218,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>1444</v>
@@ -51257,7 +51260,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>141</v>
@@ -51347,7 +51350,7 @@
         <v>150</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="I37" t="s">
         <v>205</v>
@@ -51425,7 +51428,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>158</v>
@@ -51473,7 +51476,7 @@
         <v>1456</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="I40" t="s">
         <v>205</v>
@@ -51599,7 +51602,7 @@
         <v>1463</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="I43" t="s">
         <v>205</v>
@@ -51635,7 +51638,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>1465</v>
@@ -51670,7 +51673,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>1467</v>
@@ -51682,7 +51685,7 @@
         <v>939</v>
       </c>
       <c r="J45" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>24</v>
@@ -51712,10 +51715,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>1783</v>
@@ -51724,7 +51727,7 @@
         <v>939</v>
       </c>
       <c r="J46" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>24</v>
@@ -51769,7 +51772,7 @@
         <v>1471</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>33</v>
@@ -52012,7 +52015,7 @@
         <v>1491</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="I53" t="s">
         <v>205</v>
@@ -52636,7 +52639,7 @@
         <v>1540</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="I69" t="s">
         <v>205</v>
@@ -52675,7 +52678,7 @@
         <v>1543</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I70" t="s">
         <v>205</v>
@@ -52714,7 +52717,7 @@
         <v>1546</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I71" t="s">
         <v>205</v>
@@ -52753,7 +52756,7 @@
         <v>1549</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I72" t="s">
         <v>205</v>
@@ -52792,7 +52795,7 @@
         <v>1552</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I73" t="s">
         <v>205</v>
@@ -52831,7 +52834,7 @@
         <v>1555</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I74" t="s">
         <v>205</v>
@@ -52870,7 +52873,7 @@
         <v>1558</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I75" t="s">
         <v>205</v>
@@ -52909,7 +52912,7 @@
         <v>1561</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I76" t="s">
         <v>205</v>
@@ -52948,7 +52951,7 @@
         <v>1564</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="I77" t="s">
         <v>205</v>
@@ -52990,7 +52993,7 @@
         <v>1569</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I78" t="s">
         <v>205</v>
@@ -53032,7 +53035,7 @@
         <v>1572</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I79" t="s">
         <v>205</v>
@@ -53041,7 +53044,7 @@
         <v>300</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>33</v>
@@ -53074,7 +53077,7 @@
         <v>1575</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I80" t="s">
         <v>205</v>
@@ -53116,7 +53119,7 @@
         <v>1578</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I81" t="s">
         <v>205</v>
@@ -53158,7 +53161,7 @@
         <v>1581</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I82" t="s">
         <v>205</v>
@@ -53200,7 +53203,7 @@
         <v>1584</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I83" t="s">
         <v>205</v>
@@ -53242,7 +53245,7 @@
         <v>1587</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I84" t="s">
         <v>205</v>
@@ -53284,7 +53287,7 @@
         <v>1590</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I85" t="s">
         <v>205</v>
@@ -53326,7 +53329,7 @@
         <v>1593</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I86" t="s">
         <v>205</v>
@@ -53368,7 +53371,7 @@
         <v>1596</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I87" t="s">
         <v>205</v>
@@ -53410,7 +53413,7 @@
         <v>1599</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I88" t="s">
         <v>205</v>
@@ -53452,7 +53455,7 @@
         <v>1602</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I89" t="s">
         <v>205</v>
@@ -53494,7 +53497,7 @@
         <v>1605</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I90" t="s">
         <v>205</v>
@@ -53536,7 +53539,7 @@
         <v>1608</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I91" t="s">
         <v>205</v>
@@ -53578,7 +53581,7 @@
         <v>1611</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I92" t="s">
         <v>205</v>
@@ -53872,7 +53875,7 @@
         <v>2199</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I99" t="s">
         <v>205</v>
@@ -54496,7 +54499,7 @@
         <v>2247</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I115" t="s">
         <v>205</v>
@@ -54535,7 +54538,7 @@
         <v>2250</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I116" t="s">
         <v>205</v>
@@ -54574,7 +54577,7 @@
         <v>2253</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I117" t="s">
         <v>205</v>
@@ -54613,7 +54616,7 @@
         <v>2256</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I118" t="s">
         <v>205</v>
@@ -54652,7 +54655,7 @@
         <v>2259</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I119" t="s">
         <v>205</v>
@@ -54691,7 +54694,7 @@
         <v>2262</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I120" t="s">
         <v>205</v>
@@ -54730,7 +54733,7 @@
         <v>2265</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I121" t="s">
         <v>205</v>
@@ -54769,7 +54772,7 @@
         <v>2268</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="I122" t="s">
         <v>205</v>
@@ -54808,7 +54811,7 @@
         <v>2271</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="I123" t="s">
         <v>205</v>
@@ -54850,7 +54853,7 @@
         <v>2274</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I124" t="s">
         <v>205</v>
@@ -54892,7 +54895,7 @@
         <v>2277</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I125" t="s">
         <v>205</v>
@@ -54934,7 +54937,7 @@
         <v>2280</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I126" t="s">
         <v>205</v>
@@ -54976,7 +54979,7 @@
         <v>2283</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I127" t="s">
         <v>205</v>
@@ -55018,7 +55021,7 @@
         <v>2286</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I128" t="s">
         <v>205</v>
@@ -55060,7 +55063,7 @@
         <v>2289</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I129" t="s">
         <v>205</v>
@@ -55102,7 +55105,7 @@
         <v>2292</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I130" t="s">
         <v>205</v>
@@ -55144,7 +55147,7 @@
         <v>2295</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I131" t="s">
         <v>205</v>
@@ -55186,7 +55189,7 @@
         <v>2298</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I132" t="s">
         <v>205</v>
@@ -55228,7 +55231,7 @@
         <v>2301</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I133" t="s">
         <v>205</v>
@@ -55270,7 +55273,7 @@
         <v>2304</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I134" t="s">
         <v>205</v>
@@ -55312,7 +55315,7 @@
         <v>2307</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I135" t="s">
         <v>205</v>
@@ -55354,7 +55357,7 @@
         <v>2310</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I136" t="s">
         <v>205</v>
@@ -55396,7 +55399,7 @@
         <v>2313</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I137" t="s">
         <v>205</v>
@@ -55438,7 +55441,7 @@
         <v>2316</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="I138" t="s">
         <v>205</v>
@@ -55474,7 +55477,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>1614</v>
@@ -55516,7 +55519,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>1620</v>
@@ -55531,13 +55534,13 @@
         <v>1418</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="L140" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M140" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>952</v>
@@ -55564,7 +55567,7 @@
         <v>1623</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="I141" t="s">
         <v>939</v>
@@ -55606,7 +55609,7 @@
         <v>1628</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="I142" t="s">
         <v>939</v>
@@ -55648,7 +55651,7 @@
         <v>1631</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="I143" t="s">
         <v>939</v>
@@ -55690,7 +55693,7 @@
         <v>1634</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="I144" t="s">
         <v>54</v>
@@ -55725,7 +55728,7 @@
         <v>1636</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="I145" t="s">
         <v>54</v>
@@ -55760,7 +55763,7 @@
         <v>1638</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="I146" t="s">
         <v>54</v>
@@ -55789,7 +55792,7 @@
         <v>2</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>1640</v>
@@ -55801,7 +55804,7 @@
         <v>939</v>
       </c>
       <c r="J147" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>24</v>
@@ -55828,7 +55831,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>1643</v>
@@ -55840,7 +55843,7 @@
         <v>939</v>
       </c>
       <c r="J148" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="K148" s="1" t="s">
         <v>1656</v>
@@ -55990,7 +55993,7 @@
         <v>3</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>1659</v>
@@ -56071,7 +56074,7 @@
         <v>3</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>1667</v>
@@ -56083,7 +56086,7 @@
         <v>939</v>
       </c>
       <c r="J154" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>24</v>
@@ -56110,7 +56113,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>1670</v>
@@ -56122,7 +56125,7 @@
         <v>939</v>
       </c>
       <c r="J155" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>1656</v>
@@ -56272,7 +56275,7 @@
         <v>2</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>1680</v>
@@ -56284,7 +56287,7 @@
         <v>939</v>
       </c>
       <c r="J159" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>24</v>
@@ -56359,7 +56362,7 @@
         <v>1685</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="I161" t="s">
         <v>939</v>
@@ -56395,7 +56398,7 @@
         <v>2</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>1688</v>
@@ -56407,7 +56410,7 @@
         <v>939</v>
       </c>
       <c r="J162" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="K162" s="1" t="s">
         <v>24</v>
@@ -56437,19 +56440,19 @@
         <v>4</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>1690</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="I163" t="s">
         <v>939</v>
       </c>
       <c r="J163" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>24</v>
@@ -56596,7 +56599,7 @@
         <v>2</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="F167" s="4" t="s">
         <v>1702</v>
@@ -56635,28 +56638,28 @@
         <v>1</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="I168" t="s">
         <v>939</v>
       </c>
       <c r="J168" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="L168" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M168" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="N168" s="1" t="s">
         <v>952</v>
@@ -56683,7 +56686,7 @@
         <v>1194</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="I169" t="s">
         <v>939</v>
@@ -56803,7 +56806,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>1710</v>
@@ -56899,7 +56902,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>1720</v>
@@ -56947,7 +56950,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>1723</v>
@@ -56995,7 +56998,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="F176" s="4" t="s">
         <v>1726</v>
@@ -57007,7 +57010,7 @@
         <v>939</v>
       </c>
       <c r="J176" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1" t="s">
@@ -57078,13 +57081,13 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>1730</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="I178" t="s">
         <v>54</v>
@@ -57113,7 +57116,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>1733</v>
@@ -57290,7 +57293,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>1746</v>
@@ -57305,13 +57308,13 @@
         <v>948</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M183" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="N183" s="1" t="s">
         <v>952</v>
@@ -57332,7 +57335,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>1748</v>
@@ -57347,13 +57350,13 @@
         <v>948</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="L184" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M184" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="N184" s="1" t="s">
         <v>952</v>
@@ -57374,13 +57377,13 @@
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>1750</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="I185" t="s">
         <v>54</v>
@@ -57409,7 +57412,7 @@
         <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>1752</v>
@@ -57424,13 +57427,13 @@
         <v>948</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="L186" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M186" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="N186" s="1" t="s">
         <v>952</v>
@@ -57453,10 +57456,10 @@
         <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>1152</v>
@@ -57468,13 +57471,13 @@
         <v>948</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="L187" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M187" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>952</v>
@@ -57495,10 +57498,10 @@
         <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>1152</v>
@@ -57510,13 +57513,13 @@
         <v>948</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="L188" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M188" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="N188" s="1" t="s">
         <v>952</v>
@@ -57537,10 +57540,10 @@
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>1453</v>
@@ -57572,10 +57575,10 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>1152</v>
@@ -57607,10 +57610,10 @@
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>1152</v>
@@ -57619,10 +57622,10 @@
         <v>939</v>
       </c>
       <c r="J191" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="L191" s="1" t="s">
         <v>33</v>
@@ -57646,10 +57649,10 @@
         <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>1152</v>
@@ -57658,10 +57661,10 @@
         <v>939</v>
       </c>
       <c r="J192" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="L192" s="1" t="s">
         <v>33</v>
@@ -57685,10 +57688,10 @@
         <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>1453</v>
@@ -57720,10 +57723,10 @@
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>1152</v>
@@ -57755,10 +57758,10 @@
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>1152</v>
@@ -57790,10 +57793,10 @@
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>1453</v>
@@ -57802,23 +57805,23 @@
         <v>939</v>
       </c>
       <c r="J196" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="K196" s="1"/>
       <c r="L196" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M196" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q196" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R196" t="s">
         <v>1791</v>
@@ -57838,10 +57841,10 @@
         <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>1152</v>
@@ -57850,23 +57853,23 @@
         <v>939</v>
       </c>
       <c r="J197" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="K197" s="1"/>
       <c r="L197" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M197" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N197" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q197" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R197" t="s">
         <v>1791</v>
@@ -57886,13 +57889,13 @@
         <v>1</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="I198" t="s">
         <v>54</v>
@@ -57906,10 +57909,10 @@
         <v>41</v>
       </c>
       <c r="P198" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q198" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R198" t="s">
         <v>1791</v>
@@ -57929,10 +57932,10 @@
         <v>1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>1152</v>
@@ -57941,23 +57944,23 @@
         <v>939</v>
       </c>
       <c r="J199" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M199" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N199" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q199" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R199" t="s">
         <v>1791</v>
@@ -57977,10 +57980,10 @@
         <v>1</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>1152</v>
@@ -57989,23 +57992,23 @@
         <v>939</v>
       </c>
       <c r="J200" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="K200" s="1"/>
       <c r="L200" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M200" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N200" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q200" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R200" t="s">
         <v>1791</v>
@@ -58025,10 +58028,10 @@
         <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>1152</v>
@@ -58037,23 +58040,23 @@
         <v>939</v>
       </c>
       <c r="J201" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="K201" s="1"/>
       <c r="L201" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M201" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q201" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R201" t="s">
         <v>1791</v>
@@ -58073,10 +58076,10 @@
         <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>1152</v>
@@ -58093,10 +58096,10 @@
         <v>41</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="Q202" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R202" t="s">
         <v>1791</v>
@@ -58116,10 +58119,10 @@
         <v>1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>1152</v>
@@ -58136,10 +58139,10 @@
         <v>41</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="Q203" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R203" t="s">
         <v>1791</v>
@@ -58159,10 +58162,10 @@
         <v>1</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>1152</v>
@@ -58171,23 +58174,23 @@
         <v>939</v>
       </c>
       <c r="J204" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="K204" s="1"/>
       <c r="L204" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M204" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="N204" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P204" s="1" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q204" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="R204" t="s">
         <v>1791</v>
@@ -58213,7 +58216,7 @@
         <v>1767</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="I205" t="s">
         <v>54</v>
@@ -58248,7 +58251,7 @@
         <v>1769</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="I206" t="s">
         <v>54</v>
@@ -58400,7 +58403,7 @@
         <v>1</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>1788</v>
@@ -58412,7 +58415,7 @@
         <v>939</v>
       </c>
       <c r="J210" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="K210" s="1"/>
       <c r="L210" s="1" t="s">
@@ -58448,7 +58451,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>1793</v>
@@ -58460,7 +58463,7 @@
         <v>939</v>
       </c>
       <c r="J211" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="K211" s="1"/>
       <c r="L211" s="1" t="s">
@@ -58544,7 +58547,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>1799</v>
@@ -58556,7 +58559,7 @@
         <v>939</v>
       </c>
       <c r="J213" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="K213" s="1"/>
       <c r="L213" s="1" t="s">
@@ -58683,13 +58686,13 @@
         <v>4</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="I216" t="s">
         <v>939</v>
@@ -58722,13 +58725,13 @@
         <v>1</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="I217" t="s">
         <v>939</v>
@@ -58848,22 +58851,22 @@
         <v>2</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="I220" t="s">
         <v>939</v>
       </c>
       <c r="J220" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="L220" s="1" t="s">
         <v>143</v>
@@ -58887,22 +58890,22 @@
         <v>2</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="I221" t="s">
         <v>939</v>
       </c>
       <c r="J221" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="K221" s="1" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="L221" s="1" t="s">
         <v>143</v>
@@ -59004,10 +59007,10 @@
         <v>2</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>126</v>
@@ -59016,7 +59019,7 @@
         <v>939</v>
       </c>
       <c r="J224" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>24</v>
@@ -59084,7 +59087,7 @@
         <v>1849</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="I226" t="s">
         <v>205</v>
@@ -59120,10 +59123,10 @@
         <v>1</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>1453</v>
@@ -59132,23 +59135,23 @@
         <v>939</v>
       </c>
       <c r="J227" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="K227" s="1"/>
       <c r="L227" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M227" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P227" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="Q227" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="R227" t="s">
         <v>1791</v>
@@ -59168,10 +59171,10 @@
         <v>1</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>1152</v>
@@ -59180,23 +59183,23 @@
         <v>939</v>
       </c>
       <c r="J228" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="K228" s="1"/>
       <c r="L228" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M228" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P228" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="Q228" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="R228" t="s">
         <v>1791</v>
@@ -59216,10 +59219,10 @@
         <v>1</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>1152</v>
@@ -59228,23 +59231,23 @@
         <v>939</v>
       </c>
       <c r="J229" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="K229" s="1"/>
       <c r="L229" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M229" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="N229" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P229" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="Q229" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="R229" t="s">
         <v>1791</v>
@@ -59264,10 +59267,10 @@
         <v>1</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>1152</v>
@@ -59276,23 +59279,23 @@
         <v>939</v>
       </c>
       <c r="J230" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="K230" s="1"/>
       <c r="L230" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M230" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="N230" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P230" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="Q230" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="R230" t="s">
         <v>1791</v>
@@ -59312,10 +59315,10 @@
         <v>1</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>1152</v>
@@ -59324,23 +59327,23 @@
         <v>939</v>
       </c>
       <c r="J231" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="K231" s="1"/>
       <c r="L231" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M231" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P231" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="Q231" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="R231" t="s">
         <v>1791</v>
@@ -59360,10 +59363,10 @@
         <v>1</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>1152</v>
@@ -59372,23 +59375,23 @@
         <v>939</v>
       </c>
       <c r="J232" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="K232" s="1"/>
       <c r="L232" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M232" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="N232" s="1" t="s">
         <v>952</v>
       </c>
       <c r="P232" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="Q232" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="R232" t="s">
         <v>1791</v>
@@ -59408,10 +59411,10 @@
         <v>1</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>1152</v>
@@ -59428,10 +59431,10 @@
         <v>41</v>
       </c>
       <c r="P233" s="1" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="Q233" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="R233" t="s">
         <v>1791</v>
@@ -59451,7 +59454,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>1854</v>
@@ -59463,16 +59466,16 @@
         <v>939</v>
       </c>
       <c r="J234" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="L234" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M234" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N234" s="1" t="s">
         <v>952</v>
@@ -59493,7 +59496,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="F235" s="4" t="s">
         <v>1856</v>
@@ -59505,16 +59508,16 @@
         <v>939</v>
       </c>
       <c r="J235" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="L235" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M235" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>952</v>
@@ -59535,7 +59538,7 @@
         <v>1</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>1858</v>
@@ -59547,16 +59550,16 @@
         <v>939</v>
       </c>
       <c r="J236" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="L236" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M236" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N236" s="1" t="s">
         <v>952</v>
@@ -59579,7 +59582,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>1860</v>
@@ -59591,16 +59594,16 @@
         <v>939</v>
       </c>
       <c r="J237" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="L237" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M237" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N237" s="1" t="s">
         <v>952</v>
@@ -59623,7 +59626,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>1862</v>
@@ -59635,16 +59638,16 @@
         <v>939</v>
       </c>
       <c r="J238" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="L238" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M238" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>952</v>
@@ -59665,7 +59668,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>1864</v>
@@ -59677,16 +59680,16 @@
         <v>939</v>
       </c>
       <c r="J239" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="L239" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M239" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>952</v>
@@ -59707,7 +59710,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>1866</v>
@@ -59719,16 +59722,16 @@
         <v>939</v>
       </c>
       <c r="J240" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="L240" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M240" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N240" s="1" t="s">
         <v>952</v>
@@ -59749,7 +59752,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>1868</v>
@@ -59761,16 +59764,16 @@
         <v>939</v>
       </c>
       <c r="J241" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="L241" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M241" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N241" s="1" t="s">
         <v>952</v>
@@ -59791,7 +59794,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>1870</v>
@@ -59803,16 +59806,16 @@
         <v>939</v>
       </c>
       <c r="J242" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="L242" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M242" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N242" s="1" t="s">
         <v>952</v>
@@ -59833,7 +59836,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>1872</v>
@@ -59845,16 +59848,16 @@
         <v>939</v>
       </c>
       <c r="J243" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="L243" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M243" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>952</v>
@@ -59875,7 +59878,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>1875</v>
@@ -59887,16 +59890,16 @@
         <v>939</v>
       </c>
       <c r="J244" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="L244" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M244" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N244" s="1" t="s">
         <v>952</v>
@@ -59919,7 +59922,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>1877</v>
@@ -59931,16 +59934,16 @@
         <v>939</v>
       </c>
       <c r="J245" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>950</v>
       </c>
       <c r="M245" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="N245" s="1" t="s">
         <v>952</v>
@@ -59961,10 +59964,10 @@
         <v>1</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>1453</v>
@@ -59973,16 +59976,16 @@
         <v>939</v>
       </c>
       <c r="J246" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M246" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>952</v>
@@ -60003,19 +60006,19 @@
         <v>1</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="I247" t="s">
         <v>939</v>
       </c>
       <c r="J247" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="K247" s="1" t="s">
         <v>24</v>
@@ -60042,10 +60045,10 @@
         <v>1</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>1453</v>
@@ -60054,7 +60057,7 @@
         <v>939</v>
       </c>
       <c r="J248" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="K248" s="1" t="s">
         <v>24</v>
@@ -60087,7 +60090,7 @@
         <v>382</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="I249" t="s">
         <v>54</v>
@@ -60101,7 +60104,7 @@
         <v>952</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="Q249" t="s">
         <v>1881</v>
@@ -60130,7 +60133,7 @@
         <v>388</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="I250" t="s">
         <v>54</v>
@@ -60144,7 +60147,7 @@
         <v>952</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="Q250" t="s">
         <v>1881</v>
@@ -60173,7 +60176,7 @@
         <v>391</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="I251" t="s">
         <v>54</v>
@@ -60187,7 +60190,7 @@
         <v>952</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="Q251" t="s">
         <v>1881</v>
@@ -60300,7 +60303,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>1894</v>
@@ -60348,13 +60351,13 @@
         <v>1</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>1898</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="I255" t="s">
         <v>939</v>
@@ -60396,7 +60399,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>1903</v>
@@ -60444,7 +60447,7 @@
         <v>17</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>44</v>
@@ -60485,13 +60488,13 @@
         <v>403</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="I258" t="s">
         <v>939</v>
       </c>
       <c r="J258" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="K258" s="1" t="s">
         <v>386</v>
@@ -60533,7 +60536,7 @@
         <v>939</v>
       </c>
       <c r="J259" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="K259" s="1" t="s">
         <v>386</v>
@@ -60575,7 +60578,7 @@
         <v>939</v>
       </c>
       <c r="J260" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="K260" s="1" t="s">
         <v>386</v>
@@ -60605,13 +60608,13 @@
         <v>49</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="I261" t="s">
         <v>54</v>
@@ -60625,7 +60628,7 @@
         <v>41</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="262" spans="1:16">
@@ -60642,13 +60645,13 @@
         <v>50</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I262" t="s">
         <v>205</v>
@@ -60684,13 +60687,13 @@
         <v>50</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>2633</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>2631</v>
       </c>
       <c r="I263" t="s">
         <v>205</v>
@@ -60726,13 +60729,13 @@
         <v>50</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I264" t="s">
         <v>205</v>
@@ -60768,10 +60771,10 @@
         <v>7</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>2035</v>
@@ -60807,13 +60810,13 @@
         <v>25</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="I266" t="s">
         <v>205</v>
@@ -60822,7 +60825,7 @@
         <v>2389</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="L266" s="1" t="s">
         <v>73</v>
@@ -60846,13 +60849,13 @@
         <v>50</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="I267" t="s">
         <v>205</v>
@@ -60885,13 +60888,13 @@
         <v>50</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="I268" t="s">
         <v>939</v>
@@ -60900,7 +60903,7 @@
         <v>1422</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="L268" s="1" t="s">
         <v>73</v>
@@ -60930,7 +60933,7 @@
         <v>2070</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I269" t="s">
         <v>205</v>
@@ -60966,10 +60969,10 @@
         <v>647</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I270" t="s">
         <v>205</v>
@@ -61002,13 +61005,13 @@
         <v>50</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>2075</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I271" t="s">
         <v>205</v>
@@ -61041,10 +61044,10 @@
         <v>7</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>2035</v>
@@ -61086,7 +61089,7 @@
         <v>2081</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I273" t="s">
         <v>205</v>
@@ -61125,7 +61128,7 @@
         <v>2084</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I274" t="s">
         <v>205</v>
@@ -61164,7 +61167,7 @@
         <v>2086</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I275" t="s">
         <v>205</v>
@@ -61200,7 +61203,7 @@
         <v>2088</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>2035</v>
@@ -61236,7 +61239,7 @@
         <v>10</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>2092</v>
@@ -61275,7 +61278,7 @@
         <v>10</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>2095</v>
@@ -61314,7 +61317,7 @@
         <v>28</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>2097</v>
@@ -61353,7 +61356,7 @@
         <v>10</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="F280" s="4" t="s">
         <v>2099</v>
@@ -61392,7 +61395,7 @@
         <v>10</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="F281" s="4" t="s">
         <v>2101</v>
@@ -61431,10 +61434,10 @@
         <v>7</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>2093</v>
@@ -61509,7 +61512,7 @@
         <v>9</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="F284" s="4" t="s">
         <v>2108</v>
@@ -61548,13 +61551,13 @@
         <v>28</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="F285" s="4" t="s">
         <v>1112</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="I285" t="s">
         <v>205</v>
@@ -61587,13 +61590,13 @@
         <v>28</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="I286" t="s">
         <v>205</v>
@@ -61668,7 +61671,7 @@
         <v>28</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="F288" s="4" t="s">
         <v>1117</v>
@@ -61716,7 +61719,7 @@
         <v>970</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I289" t="s">
         <v>205</v>
@@ -61755,7 +61758,7 @@
         <v>2119</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I290" t="s">
         <v>205</v>
@@ -61788,13 +61791,13 @@
         <v>50</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="F291" s="4" t="s">
         <v>973</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I291" t="s">
         <v>205</v>
@@ -61827,13 +61830,13 @@
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="I292" t="s">
         <v>205</v>
@@ -62064,7 +62067,7 @@
         <v>2143</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="I298" t="s">
         <v>54</v>
@@ -62143,7 +62146,7 @@
         <v>2149</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="I300" t="s">
         <v>54</v>
@@ -62223,7 +62226,7 @@
         <v>2155</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="I302" t="s">
         <v>54</v>
@@ -62302,7 +62305,7 @@
         <v>2161</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="I304" t="s">
         <v>54</v>
@@ -62337,7 +62340,7 @@
         <v>2163</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="I305" t="s">
         <v>205</v>
@@ -62379,7 +62382,7 @@
         <v>2166</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="I306" t="s">
         <v>205</v>
@@ -62463,7 +62466,7 @@
         <v>2323</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="I308" t="s">
         <v>205</v>
@@ -62832,10 +62835,10 @@
         <v>50</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="G318" s="1" t="s">
         <v>2347</v>
@@ -62847,7 +62850,7 @@
         <v>1422</v>
       </c>
       <c r="K318" s="1" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="L318" s="1" t="s">
         <v>73</v>
@@ -62958,7 +62961,7 @@
         <v>2171</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="I321" t="s">
         <v>205</v>
@@ -63042,7 +63045,7 @@
         <v>2178</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="I323" t="s">
         <v>205</v>
@@ -63078,13 +63081,13 @@
         <v>10</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="I324" t="s">
         <v>205</v>
@@ -63117,13 +63120,13 @@
         <v>10</v>
       </c>
       <c r="E325" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="F325" s="4" t="s">
-        <v>2683</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="I325" t="s">
         <v>205</v>
@@ -63156,13 +63159,13 @@
         <v>28</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="I326" t="s">
         <v>205</v>
@@ -63195,13 +63198,13 @@
         <v>10</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="I327" t="s">
         <v>205</v>
@@ -63234,13 +63237,13 @@
         <v>10</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="I328" t="s">
         <v>205</v>
@@ -63273,13 +63276,13 @@
         <v>7</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="I329" t="s">
         <v>205</v>
@@ -63312,13 +63315,13 @@
         <v>50</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="I330" t="s">
         <v>205</v>
@@ -63351,10 +63354,10 @@
         <v>9</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>554</v>
@@ -63390,13 +63393,13 @@
         <v>28</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="I332" t="s">
         <v>205</v>
@@ -63429,13 +63432,13 @@
         <v>28</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="I333" t="s">
         <v>205</v>
@@ -63468,10 +63471,10 @@
         <v>28</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>765</v>
@@ -63510,10 +63513,10 @@
         <v>28</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="F335" s="4" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>2172</v>
@@ -63552,10 +63555,10 @@
         <v>1</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>1911</v>
@@ -63564,7 +63567,7 @@
         <v>939</v>
       </c>
       <c r="J336" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="K336" s="1" t="s">
         <v>24</v>
@@ -63591,13 +63594,13 @@
         <v>1</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="I337" t="s">
         <v>54</v>
@@ -63626,13 +63629,13 @@
         <v>1</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="F338" s="4" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="I338" t="s">
         <v>54</v>
@@ -63661,13 +63664,13 @@
         <v>1</v>
       </c>
       <c r="E339" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G339" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="F339" s="4" t="s">
-        <v>2715</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="I339" t="s">
         <v>54</v>
@@ -63696,13 +63699,13 @@
         <v>11</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="I340" t="s">
         <v>54</v>
@@ -63737,7 +63740,7 @@
         <v>2350</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I341" t="s">
         <v>939</v>
@@ -63776,7 +63779,7 @@
         <v>2353</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="I342" t="s">
         <v>939</v>
@@ -63809,19 +63812,19 @@
         <v>50</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="I343" t="s">
         <v>939</v>
       </c>
       <c r="J343" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="K343" s="1" t="s">
         <v>2351</v>
@@ -63848,25 +63851,25 @@
         <v>12</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="F344" s="4" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="I344" t="s">
         <v>939</v>
       </c>
       <c r="J344" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="K344" s="1" t="s">
         <v>2355</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="N344" s="1" t="s">
         <v>952</v>
@@ -63887,19 +63890,19 @@
         <v>1</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="I345" t="s">
         <v>939</v>
       </c>
       <c r="J345" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="K345" s="1" t="s">
         <v>1617</v>
@@ -63929,10 +63932,10 @@
         <v>20</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="G346" s="1" t="s">
         <v>2358</v>
@@ -63941,7 +63944,7 @@
         <v>939</v>
       </c>
       <c r="J346" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="K346" s="1" t="s">
         <v>2359</v>
@@ -63968,10 +63971,10 @@
         <v>15</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>811</v>
@@ -63983,7 +63986,7 @@
         <v>2389</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="L347" s="1" t="s">
         <v>73</v>
@@ -64007,10 +64010,10 @@
         <v>15</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>811</v>
@@ -64022,7 +64025,7 @@
         <v>1429</v>
       </c>
       <c r="K348" s="1" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="L348" s="1" t="s">
         <v>73</v>
@@ -64052,13 +64055,13 @@
         <v>2370</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="I349" t="s">
         <v>939</v>
       </c>
       <c r="J349" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K349" s="1" t="s">
         <v>2372</v>
@@ -64100,7 +64103,7 @@
         <v>939</v>
       </c>
       <c r="J350" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K350" s="1" t="s">
         <v>2372</v>
@@ -64142,7 +64145,7 @@
         <v>939</v>
       </c>
       <c r="J351" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="K351" s="1" t="s">
         <v>2372</v>
@@ -64178,7 +64181,7 @@
         <v>2378</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="I352" t="s">
         <v>54</v>
@@ -64277,13 +64280,13 @@
         <v>50</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="F355" s="4" t="s">
         <v>881</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="I355" t="s">
         <v>205</v>
@@ -64292,7 +64295,7 @@
         <v>1429</v>
       </c>
       <c r="K355" s="1" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="L355" s="1" t="s">
         <v>73</v>
@@ -64302,7 +64305,7 @@
       </c>
       <c r="P355" s="1"/>
       <c r="R355" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -64319,7 +64322,7 @@
         <v>1</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="F356" s="4" t="s">
         <v>694</v>
@@ -64336,7 +64339,7 @@
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
       <c r="M356" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="N356" s="1" t="s">
         <v>41</v>
@@ -65044,10 +65047,10 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>191</v>
@@ -65074,10 +65077,10 @@
         <v>92</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -65098,10 +65101,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>389</v>
@@ -65125,10 +65128,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>392</v>
@@ -65152,7 +65155,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>1413</v>
@@ -65179,10 +65182,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1417</v>
@@ -65206,7 +65209,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>1093</v>
@@ -65262,7 +65265,7 @@
         <v>1427</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -65343,7 +65346,7 @@
         <v>1435</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -65370,7 +65373,7 @@
         <v>1441</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -65391,7 +65394,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>1444</v>
@@ -65418,7 +65421,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>141</v>
@@ -65478,7 +65481,7 @@
         <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -65526,7 +65529,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>158</v>
@@ -65559,7 +65562,7 @@
         <v>1456</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -65640,7 +65643,7 @@
         <v>1463</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -65661,7 +65664,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>1465</v>
@@ -65688,7 +65691,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>1467</v>
@@ -65715,10 +65718,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>1783</v>
@@ -65910,7 +65913,7 @@
         <v>1491</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -66342,7 +66345,7 @@
         <v>1540</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -66369,7 +66372,7 @@
         <v>1543</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -66396,7 +66399,7 @@
         <v>1546</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -66423,7 +66426,7 @@
         <v>1549</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -66450,7 +66453,7 @@
         <v>1552</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -66477,7 +66480,7 @@
         <v>1555</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -66504,7 +66507,7 @@
         <v>1558</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -66531,7 +66534,7 @@
         <v>1561</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -66558,7 +66561,7 @@
         <v>1564</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -66585,7 +66588,7 @@
         <v>1569</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -66612,7 +66615,7 @@
         <v>1572</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -66639,7 +66642,7 @@
         <v>1575</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -66666,7 +66669,7 @@
         <v>1578</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -66693,7 +66696,7 @@
         <v>1581</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -66720,7 +66723,7 @@
         <v>1584</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -66747,7 +66750,7 @@
         <v>1587</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -66774,7 +66777,7 @@
         <v>1590</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -66801,7 +66804,7 @@
         <v>1593</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -66828,7 +66831,7 @@
         <v>1596</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -66855,7 +66858,7 @@
         <v>1599</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -66882,7 +66885,7 @@
         <v>1602</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -66909,7 +66912,7 @@
         <v>1605</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -66936,7 +66939,7 @@
         <v>1608</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -66963,7 +66966,7 @@
         <v>1611</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -67152,7 +67155,7 @@
         <v>2199</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -67584,7 +67587,7 @@
         <v>2247</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -67611,7 +67614,7 @@
         <v>2250</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -67638,7 +67641,7 @@
         <v>2253</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -67665,7 +67668,7 @@
         <v>2256</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -67692,7 +67695,7 @@
         <v>2259</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -67719,7 +67722,7 @@
         <v>2262</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -67746,7 +67749,7 @@
         <v>2265</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -67773,7 +67776,7 @@
         <v>2268</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -67800,7 +67803,7 @@
         <v>2271</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -67827,7 +67830,7 @@
         <v>2274</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -67854,7 +67857,7 @@
         <v>2277</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -67881,7 +67884,7 @@
         <v>2280</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -67908,7 +67911,7 @@
         <v>2283</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -67935,7 +67938,7 @@
         <v>2286</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -67962,7 +67965,7 @@
         <v>2289</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -67989,7 +67992,7 @@
         <v>2292</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -68016,7 +68019,7 @@
         <v>2295</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -68043,7 +68046,7 @@
         <v>2298</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -68070,7 +68073,7 @@
         <v>2301</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -68097,7 +68100,7 @@
         <v>2304</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -68124,7 +68127,7 @@
         <v>2307</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -68151,7 +68154,7 @@
         <v>2310</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -68178,7 +68181,7 @@
         <v>2313</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -68205,7 +68208,7 @@
         <v>2316</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -68226,7 +68229,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>1614</v>
@@ -68253,7 +68256,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>1620</v>
@@ -68286,7 +68289,7 @@
         <v>1623</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -68313,7 +68316,7 @@
         <v>1628</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -68340,7 +68343,7 @@
         <v>1631</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -68361,13 +68364,13 @@
         <v>2</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>1634</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -68388,13 +68391,13 @@
         <v>2</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>1636</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -68415,13 +68418,13 @@
         <v>4</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>1638</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -68442,7 +68445,7 @@
         <v>2</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>1640</v>
@@ -68469,7 +68472,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>1643</v>
@@ -68577,7 +68580,7 @@
         <v>3</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>1659</v>
@@ -68631,7 +68634,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>1667</v>
@@ -68658,7 +68661,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>1670</v>
@@ -68766,7 +68769,7 @@
         <v>2</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="F145" s="4" t="s">
         <v>1680</v>
@@ -68826,7 +68829,7 @@
         <v>1685</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -68847,7 +68850,7 @@
         <v>2</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="F148" s="4" t="s">
         <v>1688</v>
@@ -68874,13 +68877,13 @@
         <v>4</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>1690</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -68982,7 +68985,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>1702</v>
@@ -69009,13 +69012,13 @@
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -69042,7 +69045,7 @@
         <v>1194</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -69117,7 +69120,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>1710</v>
@@ -69171,7 +69174,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>1720</v>
@@ -69198,7 +69201,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>1723</v>
@@ -69225,7 +69228,7 @@
         <v>1</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>1726</v>
@@ -69252,7 +69255,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>1728</v>
@@ -69279,13 +69282,13 @@
         <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>1730</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -69306,7 +69309,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>1733</v>
@@ -69414,7 +69417,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>1746</v>
@@ -69441,7 +69444,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="F170" s="4" t="s">
         <v>1748</v>
@@ -69468,13 +69471,13 @@
         <v>1</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>1750</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -69495,7 +69498,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>1752</v>
@@ -69522,10 +69525,10 @@
         <v>1</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>1152</v>
@@ -69549,10 +69552,10 @@
         <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>1152</v>
@@ -69576,10 +69579,10 @@
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>1453</v>
@@ -69603,10 +69606,10 @@
         <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>1152</v>
@@ -69630,10 +69633,10 @@
         <v>1</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>1152</v>
@@ -69657,10 +69660,10 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>1152</v>
@@ -69684,10 +69687,10 @@
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>1453</v>
@@ -69711,10 +69714,10 @@
         <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>1152</v>
@@ -69738,10 +69741,10 @@
         <v>1</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>1152</v>
@@ -69765,10 +69768,10 @@
         <v>1</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>1453</v>
@@ -69792,10 +69795,10 @@
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>1152</v>
@@ -69819,13 +69822,13 @@
         <v>1</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -69846,10 +69849,10 @@
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>1152</v>
@@ -69873,10 +69876,10 @@
         <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>1152</v>
@@ -69900,10 +69903,10 @@
         <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>1152</v>
@@ -69927,10 +69930,10 @@
         <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>1152</v>
@@ -69954,10 +69957,10 @@
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>1152</v>
@@ -69981,10 +69984,10 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>1152</v>
@@ -70014,7 +70017,7 @@
         <v>1767</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -70041,7 +70044,7 @@
         <v>1769</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -70143,7 +70146,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>1788</v>
@@ -70170,7 +70173,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>1793</v>
@@ -70224,7 +70227,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>1799</v>
@@ -70278,7 +70281,7 @@
         <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>1804</v>
@@ -70305,13 +70308,13 @@
         <v>4</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -70332,13 +70335,13 @@
         <v>1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -70416,13 +70419,13 @@
         <v>2</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -70443,16 +70446,16 @@
         <v>2</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>143</v>
@@ -70528,10 +70531,10 @@
         <v>2</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>126</v>
@@ -70588,7 +70591,7 @@
         <v>1849</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -70609,10 +70612,10 @@
         <v>1</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>1453</v>
@@ -70636,10 +70639,10 @@
         <v>1</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>1152</v>
@@ -70663,10 +70666,10 @@
         <v>1</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>1152</v>
@@ -70690,10 +70693,10 @@
         <v>1</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>1152</v>
@@ -70717,10 +70720,10 @@
         <v>1</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>1152</v>
@@ -70744,10 +70747,10 @@
         <v>1</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>1152</v>
@@ -70771,10 +70774,10 @@
         <v>1</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>1152</v>
@@ -70798,7 +70801,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>1854</v>
@@ -70807,7 +70810,7 @@
         <v>1453</v>
       </c>
       <c r="K220" s="1" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="L220" s="1"/>
       <c r="N220" s="1"/>
@@ -70827,7 +70830,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>1856</v>
@@ -70854,7 +70857,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>1858</v>
@@ -70863,7 +70866,7 @@
         <v>1152</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="L222" s="1" t="s">
         <v>33</v>
@@ -70885,7 +70888,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>1860</v>
@@ -70912,7 +70915,7 @@
         <v>1</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>1862</v>
@@ -70939,7 +70942,7 @@
         <v>1</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>1864</v>
@@ -70966,7 +70969,7 @@
         <v>1</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>1866</v>
@@ -70993,7 +70996,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>1868</v>
@@ -71020,7 +71023,7 @@
         <v>1</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>1870</v>
@@ -71047,7 +71050,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>1872</v>
@@ -71074,7 +71077,7 @@
         <v>1</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>1875</v>
@@ -71101,7 +71104,7 @@
         <v>1</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>1877</v>
@@ -71128,10 +71131,10 @@
         <v>1</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>1453</v>
@@ -71155,13 +71158,13 @@
         <v>1</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -71182,10 +71185,10 @@
         <v>1</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>1453</v>
@@ -71215,7 +71218,7 @@
         <v>382</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -71242,7 +71245,7 @@
         <v>388</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -71269,7 +71272,7 @@
         <v>391</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -71344,7 +71347,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>1894</v>
@@ -71371,13 +71374,13 @@
         <v>1</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>1898</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -71398,7 +71401,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>1903</v>
@@ -71425,7 +71428,7 @@
         <v>17</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>44</v>
@@ -71458,7 +71461,7 @@
         <v>403</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -71533,7 +71536,7 @@
         <v>49</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>44</v>
@@ -71560,13 +71563,13 @@
         <v>50</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -71587,13 +71590,13 @@
         <v>50</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>2633</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>2631</v>
       </c>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
@@ -71614,13 +71617,13 @@
         <v>50</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -71641,10 +71644,10 @@
         <v>7</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>2035</v>
@@ -71668,13 +71671,13 @@
         <v>25</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -71695,13 +71698,13 @@
         <v>50</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
@@ -71722,13 +71725,13 @@
         <v>50</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -71755,7 +71758,7 @@
         <v>2070</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
@@ -71779,10 +71782,10 @@
         <v>647</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -71803,13 +71806,13 @@
         <v>50</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>2075</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -71830,10 +71833,10 @@
         <v>7</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>2035</v>
@@ -71863,7 +71866,7 @@
         <v>2081</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -71890,7 +71893,7 @@
         <v>2084</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
@@ -71917,7 +71920,7 @@
         <v>2086</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -71941,7 +71944,7 @@
         <v>2088</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>2035</v>
@@ -71965,7 +71968,7 @@
         <v>10</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>2092</v>
@@ -71992,7 +71995,7 @@
         <v>10</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>2095</v>
@@ -72019,7 +72022,7 @@
         <v>28</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>2097</v>
@@ -72046,7 +72049,7 @@
         <v>10</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>2099</v>
@@ -72073,7 +72076,7 @@
         <v>10</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>2101</v>
@@ -72100,10 +72103,10 @@
         <v>7</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>2093</v>
@@ -72154,7 +72157,7 @@
         <v>9</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>2108</v>
@@ -72181,13 +72184,13 @@
         <v>28</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>1112</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="K271" s="1"/>
       <c r="L271" s="1"/>
@@ -72208,13 +72211,13 @@
         <v>28</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
@@ -72262,7 +72265,7 @@
         <v>28</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="F274" s="4" t="s">
         <v>1117</v>
@@ -72295,7 +72298,7 @@
         <v>970</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
@@ -72322,7 +72325,7 @@
         <v>2119</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -72343,13 +72346,13 @@
         <v>50</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>973</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -72370,13 +72373,13 @@
         <v>7</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
@@ -72538,7 +72541,7 @@
         <v>2143</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -72592,7 +72595,7 @@
         <v>2149</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
@@ -72646,7 +72649,7 @@
         <v>2155</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
@@ -72700,7 +72703,7 @@
         <v>2161</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -72727,7 +72730,7 @@
         <v>2163</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
@@ -72754,7 +72757,7 @@
         <v>2166</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -72808,7 +72811,7 @@
         <v>2323</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
@@ -73090,10 +73093,10 @@
         <v>50</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>2347</v>
@@ -73177,7 +73180,7 @@
         <v>2171</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
@@ -73231,7 +73234,7 @@
         <v>2178</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="K309" s="1"/>
       <c r="L309" s="1"/>
@@ -73252,13 +73255,13 @@
         <v>10</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -73279,13 +73282,13 @@
         <v>10</v>
       </c>
       <c r="E311" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>2682</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>2683</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>2681</v>
       </c>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
@@ -73306,13 +73309,13 @@
         <v>28</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -73333,13 +73336,13 @@
         <v>10</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
@@ -73360,13 +73363,13 @@
         <v>10</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
@@ -73387,13 +73390,13 @@
         <v>7</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -73414,13 +73417,13 @@
         <v>50</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="K316" s="1"/>
       <c r="L316" s="1"/>
@@ -73441,10 +73444,10 @@
         <v>9</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>554</v>
@@ -73468,13 +73471,13 @@
         <v>28</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -73495,13 +73498,13 @@
         <v>28</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -73522,10 +73525,10 @@
         <v>28</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>765</v>
@@ -73549,10 +73552,10 @@
         <v>28</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="F321" s="4" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>2172</v>
@@ -73576,10 +73579,10 @@
         <v>1</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="F322" s="4" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="G322" s="1" t="s">
         <v>1911</v>
@@ -73603,13 +73606,13 @@
         <v>1</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="F323" s="4" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -73630,13 +73633,13 @@
         <v>1</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
@@ -73657,13 +73660,13 @@
         <v>1</v>
       </c>
       <c r="E325" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="F325" s="4" t="s">
-        <v>2715</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -73684,13 +73687,13 @@
         <v>11</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
@@ -73717,7 +73720,7 @@
         <v>2350</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
@@ -73744,7 +73747,7 @@
         <v>2353</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -73765,13 +73768,13 @@
         <v>50</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="K329" s="1"/>
       <c r="L329" s="1" t="s">
@@ -73794,13 +73797,13 @@
         <v>12</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -73821,13 +73824,13 @@
         <v>1</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="K331" s="1"/>
       <c r="L331" s="1" t="s">
@@ -73850,10 +73853,10 @@
         <v>20</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>2358</v>
@@ -73877,10 +73880,10 @@
         <v>15</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>811</v>
@@ -73904,10 +73907,10 @@
         <v>15</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>811</v>
@@ -73937,7 +73940,7 @@
         <v>2370</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
@@ -74018,7 +74021,7 @@
         <v>2378</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
@@ -74093,13 +74096,13 @@
         <v>50</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="F341" s="4" t="s">
         <v>881</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
@@ -74120,7 +74123,7 @@
         <v>1</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="F342" s="4" t="s">
         <v>999</v>
@@ -74147,10 +74150,10 @@
         <v>6</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>1070</v>
@@ -74174,7 +74177,7 @@
         <v>2</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="F344" s="4" t="s">
         <v>992</v>
@@ -74201,13 +74204,13 @@
         <v>28</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
@@ -74228,13 +74231,13 @@
         <v>2</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="F346" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -74255,13 +74258,13 @@
         <v>28</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
@@ -74282,13 +74285,13 @@
         <v>8</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="K348" s="1"/>
       <c r="L348" s="1"/>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -125,26 +125,26 @@
     <t>DSTATE</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -214,7 +214,7 @@
     <t>VOID</t>
   </si>
   <si>
-    <t>0 =Default; Valid Record
+    <t>0 =Default; Valid Record_x000D_
 1 = VOID record</t>
   </si>
   <si>
@@ -251,8 +251,8 @@
     <t>MFILED</t>
   </si>
   <si>
-    <t>0 = Electronic Mode
-1 = Paper Mode
+    <t>0 = Electronic Mode_x000D_
+1 = Paper Mode_x000D_
 2 = Mixed Mode</t>
   </si>
   <si>
@@ -316,7 +316,7 @@
     <t>ALIAS</t>
   </si>
   <si>
-    <t>0 = Original Record
+    <t>0 = Original Record_x000D_
 1 = Alias Record</t>
   </si>
   <si>
@@ -341,8 +341,8 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>M = Male
-F = Female
+    <t>M = Male_x000D_
+F = Female_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>SEX_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
+    <t>0 = Edit Passed_x000D_
 1 = Edit Failed, Data Queried, and Verified</t>
   </si>
   <si>
@@ -380,11 +380,11 @@
     <t>AGETYPE</t>
   </si>
   <si>
-    <t>1 = Years
-2 = Months
-4 = Days
-5 = Hours
-6 = Minutes
+    <t>1 = Years_x000D_
+2 = Months_x000D_
+4 = Days_x000D_
+5 = Hours_x000D_
+6 = Minutes_x000D_
 9 = Unknown (not classifiable)</t>
   </si>
   <si>
@@ -403,12 +403,12 @@
     <t xml:space="preserve">AGE </t>
   </si>
   <si>
-    <t>001 - 135, 999
-Codes: If AGETYPE = 1 then 001-135, 999
-                                        2 then 001-011, 999
-                                        4 then 001-027, 999
-                                        5 then 001-023, 999
-                                        6 then 001-059, 999
+    <t>001 - 135, 999_x000D_
+Codes: If AGETYPE = 1 then 001-135, 999_x000D_
+                                        2 then 001-011, 999_x000D_
+                                        4 then 001-027, 999_x000D_
+                                        5 then 001-023, 999_x000D_
+                                        6 then 001-059, 999_x000D_
                                         9 then 999</t>
   </si>
   <si>
@@ -484,28 +484,28 @@
     <t>BPLACE_ST</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -548,28 +548,28 @@
     <t>STATEC</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -609,11 +609,11 @@
     <t>MARITAL</t>
   </si>
   <si>
-    <t>M = Married
-A = Married but Separated
-W = Widowed
-D = Divorced
-S = Never Married
+    <t>M = Married_x000D_
+A = Married but Separated_x000D_
+W = Widowed_x000D_
+D = Divorced_x000D_
+S = Never Married_x000D_
 U = Not Classifiable</t>
   </si>
   <si>
@@ -629,9 +629,9 @@
     <t>MARITAL_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Data Queried, and Verified
-2 = Edit Failed, Data Queried, but not Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Data Queried, and Verified_x000D_
+2 = Edit Failed, Data Queried, but not Verified_x000D_
 4 = Edit Failed, Query Needed</t>
   </si>
   <si>
@@ -647,13 +647,13 @@
     <t>DPLACE</t>
   </si>
   <si>
-    <t>1 = Inpatient
-2 = Emergency Room/Outpatient
-3 = Dead on Arrival
-4 = Decedent's Home
-5 = Hospice Facility
-6 = Nursing Home/Long Term Care Facility
-7 = Other
+    <t>1 = Inpatient_x000D_
+2 = Emergency Room/Outpatient_x000D_
+3 = Dead on Arrival_x000D_
+4 = Decedent's Home_x000D_
+5 = Hospice Facility_x000D_
+6 = Nursing Home/Long Term Care Facility_x000D_
+7 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>COD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
+    <t>NCHS Instruction Manual: Part 8_x000D_
 Variable description ("Contents") edited; same as NCHS "Facility Name--County"</t>
   </si>
   <si>
@@ -679,12 +679,12 @@
     <t>DISP</t>
   </si>
   <si>
-    <t>B = Burial
-C = Cremation
-D = Donation
-E = Entombment
-R = Removal from state
-O = Other
+    <t>B = Burial_x000D_
+C = Cremation_x000D_
+D = Donation_x000D_
+E = Entombment_x000D_
+R = Removal from state_x000D_
+O = Other_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -721,14 +721,14 @@
     <t>DEDUC</t>
   </si>
   <si>
-    <t>1 = 8th grade or less
-2 = 9th through 12th grade; no diploma
-3 = High School Graduate or GED Completed
-4 = Some college credit, but no degree
-5 = Associate Degree
-6 = Bachelor's Degree
-7 = Master's Degree
-8 = Doctorate Degree or Professional Degree
+    <t>1 = 8th grade or less_x000D_
+2 = 9th through 12th grade; no diploma_x000D_
+3 = High School Graduate or GED Completed_x000D_
+4 = Some college credit, but no degree_x000D_
+5 = Associate Degree_x000D_
+6 = Bachelor's Degree_x000D_
+7 = Master's Degree_x000D_
+8 = Doctorate Degree or Professional Degree_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -744,10 +744,10 @@
     <t>DEDUC_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Data Queried, and Verified
-2 = Edit Failed, Data Queried, but not Verified
-3 = Edit Failed, Review Needed
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Data Queried, and Verified_x000D_
+2 = Edit Failed, Data Queried, but not Verified_x000D_
+3 = Edit Failed, Review Needed_x000D_
 4 = Edit Failed, Query Needed</t>
   </si>
   <si>
@@ -763,8 +763,8 @@
     <t>DETHNIC1</t>
   </si>
   <si>
-    <t>N = No, Not Mexican
-H = Yes, Mexican
+    <t>N = No, Not Mexican_x000D_
+H = Yes, Mexican_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -783,8 +783,8 @@
     <t>DETHNIC2</t>
   </si>
   <si>
-    <t>N = No, Not Puerto Rican
-H = Yes, Puerto Rican
+    <t>N = No, Not Puerto Rican_x000D_
+H = Yes, Puerto Rican_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -797,8 +797,8 @@
     <t>DETHNIC3</t>
   </si>
   <si>
-    <t>N = No, Not Cuban
-H = Yes, Cuban
+    <t>N = No, Not Cuban_x000D_
+H = Yes, Cuban_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -811,8 +811,8 @@
     <t>DETHNIC4</t>
   </si>
   <si>
-    <t>N = No, Not other Hispanic
-H = Yes, other Hispanic
+    <t>N = No, Not other Hispanic_x000D_
+H = Yes, other Hispanic_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -837,7 +837,7 @@
     <t>RACE1</t>
   </si>
   <si>
-    <t>Y = Yes, box for race checked
+    <t>Y = Yes, box for race checked_x000D_
 N = No, box for race not checked</t>
   </si>
   <si>
@@ -1213,8 +1213,8 @@
     <t>RACE_MVR</t>
   </si>
   <si>
-    <t>R = Refused
-S = Sought, but Unknown
+    <t>R = Refused_x000D_
+S = Sought, but Unknown_x000D_
 C = Not Obtainable</t>
   </si>
   <si>
@@ -1281,8 +1281,8 @@
     <t>IDOB_YR</t>
   </si>
   <si>
-    <t>4 digit year = year of death or (year of death - 1)
-9999 = unknown
+    <t>4 digit year = year of death or (year of death - 1)_x000D_
+9999 = unknown_x000D_
 Blank</t>
   </si>
   <si>
@@ -1298,29 +1298,30 @@
     <t>BSTATE</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA
-YC = NEW YORK CITY
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA_x000D_
+YC = NEW YORK CITY_x000D_
+_x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -1909,7 +1910,7 @@
     <t>SPOUSELV</t>
   </si>
   <si>
-    <t>1=yes; 2=no; 8=unmarried; 9=unknown;
+    <t>1=yes; 2=no; 8=unmarried; 9=unknown;_x000D_
 blank if not reported</t>
   </si>
   <si>
@@ -2042,7 +2043,7 @@
     <t>RESSTATE</t>
   </si>
   <si>
-    <t>See codes used before new 2003 codes -
+    <t>See codes used before new 2003 codes -_x000D_
 Receiving state will recode</t>
   </si>
   <si>
@@ -2058,8 +2059,8 @@
     <t xml:space="preserve">DETHNICE </t>
   </si>
   <si>
-    <t>100 = NonHispanic
-200-299 = Hispanic
+    <t>100 = NonHispanic_x000D_
+200-299 = Hispanic_x000D_
 996-999 = Unknown</t>
   </si>
   <si>
@@ -2183,9 +2184,9 @@
     <t>TRANSPRT</t>
   </si>
   <si>
-    <t>DR=Driver/Operator
-PA=Passenger
-PE=Pedestrian
+    <t>DR=Driver/Operator_x000D_
+PA=Passenger_x000D_
+PE=Pedestrian_x000D_
 Enter full text if it does not fit above (blank for natural death)</t>
   </si>
   <si>
@@ -2213,7 +2214,7 @@
     <t>COUNTYCODE_I</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8; 999=unknown; 
+    <t>NCHS Instruction Manual: Part 8; 999=unknown; _x000D_
 Blank for natural death.</t>
   </si>
   <si>
@@ -2247,27 +2248,27 @@
     <t>STATECODE_I</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                 For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                 For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2499,27 +2500,27 @@
     <t>DISPSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                  For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                  For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2622,27 +2623,27 @@
     <t>FUNSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                       For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                       For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2775,27 +2776,27 @@
     <t>CERTSTATECD</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                   For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                                   For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -2925,7 +2926,7 @@
     <t>MARITAL_DESCRIP</t>
   </si>
   <si>
-    <t>Free text for use of jurisdictions with domestic partnerships, other
+    <t>Free text for use of jurisdictions with domestic partnerships, other_x000D_
 types of relationships.</t>
   </si>
   <si>
@@ -3160,27 +3161,27 @@
     <t>BundleDocumentCodedCauseOfFetalDeath</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                        For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                        For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3196,26 +3197,26 @@
     <t>State, U.S. Territory or Canadian Province of Death - literal</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3279,28 +3280,28 @@
     <t>State, U.S. Territory or Canadian Province of Decedent's Residence - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA 
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA _x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3547,26 +3548,26 @@
     <t>STATE_T</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3579,7 +3580,7 @@
     <t>Void Flag</t>
   </si>
   <si>
-    <t>0 = default; valid record
+    <t>0 = default; valid record_x000D_
 1 = VOID record</t>
   </si>
   <si>
@@ -3637,10 +3638,10 @@
     <t>TPLACE</t>
   </si>
   <si>
-    <t>1 = Hospital
-2 = Clinic
-3 = Doctor's Office
-4 = Other
+    <t>1 = Hospital_x000D_
+2 = Clinic_x000D_
+3 = Doctor's Office_x000D_
+4 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -3668,7 +3669,7 @@
     <t>AGE</t>
   </si>
   <si>
-    <t>10-55
+    <t>10-55_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -3681,27 +3682,27 @@
     <t>State, U.S. Territory or Canadian Province of Residence (Patient) - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                     For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                     For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -3771,12 +3772,12 @@
     <t>Patient's Marital Status</t>
   </si>
   <si>
-    <t>1 = Never Married
-2 = Now Married
-3 = Widowed
-4 = Divorced
-5 = Separated
-7 = Other (specify below)
+    <t>1 = Never Married_x000D_
+2 = Now Married_x000D_
+3 = Widowed_x000D_
+4 = Divorced_x000D_
+5 = Separated_x000D_
+7 = Other (specify below)_x000D_
 9 = Unknown or Not Stated</t>
   </si>
   <si>
@@ -3831,13 +3832,13 @@
     <t>ETHNIC_OLD</t>
   </si>
   <si>
-    <t>from single choice versus mark all
-0 = non-hispanic
-1 = Mexican
-2 = Puerto Rican
-3 = Cuban
-4 = Central of South American
-5 = Other or unknown hispanic
+    <t>from single choice versus mark all_x000D_
+0 = non-hispanic_x000D_
+1 = Mexican_x000D_
+2 = Puerto Rican_x000D_
+3 = Cuban_x000D_
+4 = Central of South American_x000D_
+5 = Other or unknown hispanic_x000D_
 9 = Not classifiable</t>
   </si>
   <si>
@@ -3847,15 +3848,15 @@
     <t>ETHNIC_OTH</t>
   </si>
   <si>
-    <t>Comma delimit multiple entries; 
+    <t>Comma delimit multiple entries; _x000D_
 Some states keep a version of multiple Hispanic origin that is not in the new format but something in between.</t>
   </si>
   <si>
     <t>Patient's Race--White</t>
   </si>
   <si>
-    <t>Y = Yes, box for race checked
-N = No, box for race not checked
+    <t>Y = Yes, box for race checked_x000D_
+N = No, box for race not checked_x000D_
 U = Unknown race (U in all race fields)</t>
   </si>
   <si>
@@ -3934,14 +3935,14 @@
     <t>RACE_OLD</t>
   </si>
   <si>
-    <t>From single choice versus mark all
-1 = white; 2 =  Black;
-3 = American Indian; 4 = Chinese
-5 = Japanese; 6 = Hawaiian;
-7 = Filipino; 8 = Other Asian/ Pac Islander;
-9 = not reported; A = Asian Indian; 
-B = Korean; C = Samoan;
-D = Vietnamese; E = Guamian;
+    <t>From single choice versus mark all_x000D_
+1 = white; 2 =  Black;_x000D_
+3 = American Indian; 4 = Chinese_x000D_
+5 = Japanese; 6 = Hawaiian;_x000D_
+7 = Filipino; 8 = Other Asian/ Pac Islander;_x000D_
+9 = not reported; A = Asian Indian; _x000D_
+B = Korean; C = Samoan;_x000D_
+D = Vietnamese; E = Guamian;_x000D_
 F = Multi-racial</t>
   </si>
   <si>
@@ -3951,7 +3952,7 @@
     <t>RACE_OTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Comma delimit multiple entries;
+    <t xml:space="preserve">Comma delimit multiple entries;_x000D_
 Some states keep a version of multiple race that is not in the new format but something in between. </t>
   </si>
   <si>
@@ -3961,7 +3962,7 @@
     <t>PREV_PREG</t>
   </si>
   <si>
-    <t>00-30
+    <t>00-30_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -3971,14 +3972,14 @@
     <t>PLBT</t>
   </si>
   <si>
-    <t>Previous live births,
+    <t>Previous live births,_x000D_
 Now living</t>
   </si>
   <si>
     <t>PLBL</t>
   </si>
   <si>
-    <t>Previous live births,
+    <t>Previous live births,_x000D_
 Now dead</t>
   </si>
   <si>
@@ -4009,7 +4010,7 @@
     <t>DLMP_MO</t>
   </si>
   <si>
-    <t>00-12
+    <t>00-12_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4019,7 +4020,7 @@
     <t>DLMP_DY</t>
   </si>
   <si>
-    <t>01-31 (based on month)
+    <t>01-31 (based on month)_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4029,7 +4030,7 @@
     <t>CWGEST</t>
   </si>
   <si>
-    <t>01-27
+    <t>01-27_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4099,18 +4100,18 @@
     <t>PROC_T</t>
   </si>
   <si>
-    <t>1 = Suction Curettage
-2 = Medical (Non-surgical; medication induced -- specify medication(s) in field below)
-3 = Dilation &amp; Evacuation (D&amp;E)
-4 = Intra-Uterine Instillation (Saline or Prostaglandin)
-5 = Vaginal Prostaglandin
-6 = Sharp Curettage (D&amp;C)
-7 = Hysterotomy/Hysterectomy
-8 = Other
+    <t>1 = Suction Curettage_x000D_
+2 = Medical (Non-surgical; medication induced -- specify medication(s) in field below)_x000D_
+3 = Dilation &amp; Evacuation (D&amp;E)_x000D_
+4 = Intra-Uterine Instillation (Saline or Prostaglandin)_x000D_
+5 = Vaginal Prostaglandin_x000D_
+6 = Sharp Curettage (D&amp;C)_x000D_
+7 = Hysterotomy/Hysterectomy_x000D_
+8 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Medical (non-surgical) procedure medication(s) literal 
+    <t xml:space="preserve">Medical (non-surgical) procedure medication(s) literal _x000D_
 </t>
   </si>
   <si>
@@ -4120,7 +4121,7 @@
     <t>Free form literal specifing medication(s) that terminated this pregnancy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Termination other procedure literal 
+    <t xml:space="preserve">Termination other procedure literal _x000D_
 </t>
   </si>
   <si>
@@ -4136,15 +4137,15 @@
     <t>PROC-OTH</t>
   </si>
   <si>
-    <t xml:space="preserve">Repeat up to 4 single digit codes                            
-0 = None                                                                                                                                                                                                                           1 = Suction Curettage
-2 = Medical (Non-surgical; medication induced)
-3 = Dilation &amp; Evacuation (D&amp;E)
-4 = Intra-Uterine Instillation (Saline or Prostaglandin)
-5 = Vaginal Prostaglandin
-6 = Sharp Curettage (D&amp;C)
-8 = Other
-9 = Unknown
+    <t xml:space="preserve">Repeat up to 4 single digit codes                            _x000D_
+0 = None                                                                                                                                                                                                                           1 = Suction Curettage_x000D_
+2 = Medical (Non-surgical; medication induced)_x000D_
+3 = Dilation &amp; Evacuation (D&amp;E)_x000D_
+4 = Intra-Uterine Instillation (Saline or Prostaglandin)_x000D_
+5 = Vaginal Prostaglandin_x000D_
+6 = Sharp Curettage (D&amp;C)_x000D_
+8 = Other_x000D_
+9 = Unknown_x000D_
 </t>
   </si>
   <si>
@@ -4154,7 +4155,7 @@
     <t>CALC_WGEST</t>
   </si>
   <si>
-    <t>00-95
+    <t>00-95_x000D_
 99 = Unknown</t>
   </si>
   <si>
@@ -4167,7 +4168,7 @@
     <t>Y, N, or U (if N or U, leave all other TP complications blank)</t>
   </si>
   <si>
-    <t>Hemorrhage
+    <t>Hemorrhage_x000D_
 (at time of procedure)</t>
   </si>
   <si>
@@ -4177,56 +4178,56 @@
     <t>Y, N, U (some jurisdictions may only collect hemorage data if above a certain volumn)</t>
   </si>
   <si>
-    <t>Infection
+    <t>Infection_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>INFECT_TP</t>
   </si>
   <si>
-    <t>Uterine perforation
+    <t>Uterine perforation_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>PERF_TP</t>
   </si>
   <si>
-    <t>Cervical laceration
+    <t>Cervical laceration_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>LACER_TP</t>
   </si>
   <si>
-    <t>Retained products
+    <t>Retained products_x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>RETAN_TP</t>
   </si>
   <si>
-    <t>Death 
+    <t>Death _x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>DEATH_TP</t>
   </si>
   <si>
-    <t>Failure of first method 
+    <t>Failure of first method _x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>FAIL_TP</t>
   </si>
   <si>
-    <t>Other complications 
+    <t>Other complications _x000D_
 (at time of procedure)</t>
   </si>
   <si>
     <t>OTHER_TP</t>
   </si>
   <si>
-    <t>Other complications literal 
+    <t>Other complications literal _x000D_
 (at time of procedure)</t>
   </si>
   <si>
@@ -4245,49 +4246,49 @@
     <t>Y, N, or U (if N or U, leave all other F1 complications blank)</t>
   </si>
   <si>
-    <t>Complications at followup
+    <t>Complications at followup_x000D_
 at same facility</t>
   </si>
   <si>
     <t>COMP_F1</t>
   </si>
   <si>
-    <t>Hemorrhage
+    <t>Hemorrhage_x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>HEMOR_F1</t>
   </si>
   <si>
-    <t>Infection 
+    <t>Infection _x000D_
 (at time of  follow up at this facility)</t>
   </si>
   <si>
     <t>INFECT_F1</t>
   </si>
   <si>
-    <t>Uterine perforation 
+    <t>Uterine perforation _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>PERF_F1</t>
   </si>
   <si>
-    <t>Cervical laceration 
+    <t>Cervical laceration _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>LACER_F1</t>
   </si>
   <si>
-    <t>Retained products 
+    <t>Retained products _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
     <t>RETAN_F1</t>
   </si>
   <si>
-    <t>Death 
+    <t>Death _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
@@ -4306,7 +4307,7 @@
     <t>OTHER_F1</t>
   </si>
   <si>
-    <t>Other complications literal 
+    <t>Other complications literal _x000D_
 (at time of followup at this facility)</t>
   </si>
   <si>
@@ -4325,70 +4326,70 @@
     <t>Y, N, or U (if N or U, leave all other F2 complications blank)</t>
   </si>
   <si>
-    <t>Complications 
+    <t>Complications _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>COMP_F2</t>
   </si>
   <si>
-    <t>Hemorrhage
+    <t>Hemorrhage_x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>HEMOR_F2</t>
   </si>
   <si>
-    <t>Infection 
+    <t>Infection _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>INFECT_F2</t>
   </si>
   <si>
-    <t>Uterine perforation  
+    <t>Uterine perforation  _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>PERF_F2</t>
   </si>
   <si>
-    <t>Cervical laceration  
+    <t>Cervical laceration  _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>LACER_F2</t>
   </si>
   <si>
-    <t>Retained products 
+    <t>Retained products _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>RETAN_F2</t>
   </si>
   <si>
-    <t>Death 
+    <t>Death _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>DEATH_F2</t>
   </si>
   <si>
-    <t>Failure of first method 
+    <t>Failure of first method _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
     <t>FAIL_F2</t>
   </si>
   <si>
-    <t xml:space="preserve">Other complications 
+    <t xml:space="preserve">Other complications _x000D_
 (at time of followup at other facility) </t>
   </si>
   <si>
     <t>OTHER_F2</t>
   </si>
   <si>
-    <t>Other complications literal 
+    <t>Other complications literal _x000D_
 (at time of followup at other facility)</t>
   </si>
   <si>
@@ -4398,17 +4399,17 @@
     <t>Free form literal of specified other complication at time of followup at other facility.</t>
   </si>
   <si>
-    <t>Site of follow-up visit 
+    <t>Site of follow-up visit _x000D_
 (at other facility)</t>
   </si>
   <si>
     <t>SITE_F2</t>
   </si>
   <si>
-    <t>1 = physician's office
-2 = clinic
-3 = hospital
-4 = other, specify
+    <t>1 = physician's office_x000D_
+2 = clinic_x000D_
+3 = hospital_x000D_
+4 = other, specify_x000D_
 9 = unknown</t>
   </si>
   <si>
@@ -4688,8 +4689,8 @@
     <t>FSEX</t>
   </si>
   <si>
-    <t xml:space="preserve">M = Male
-F = Female
+    <t xml:space="preserve">M = Male_x000D_
+F = Female_x000D_
 U = Unknown </t>
   </si>
   <si>
@@ -4726,13 +4727,13 @@
     <t>Place Where Delivery Occurred</t>
   </si>
   <si>
-    <t>1 = Hospital
-2 = Freestanding Birth Center
-3 = Home (Intended)
-4 = Home (Not Intended)
-5 = Home (Unknown if Intended)
-6 = Clinic/Doctor's Office
-7 = Other
+    <t>1 = Hospital_x000D_
+2 = Freestanding Birth Center_x000D_
+3 = Home (Intended)_x000D_
+4 = Home (Not Intended)_x000D_
+5 = Home (Unknown if Intended)_x000D_
+6 = Clinic/Doctor's Office_x000D_
+7 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -4790,7 +4791,7 @@
     <t>MAGE_BYPASS</t>
   </si>
   <si>
-    <t xml:space="preserve">0 = Edit Passed
+    <t xml:space="preserve">0 = Edit Passed_x000D_
 1 = Data Queried </t>
   </si>
   <si>
@@ -4809,27 +4810,27 @@
     <t>BPLACEC_ST_TER</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -4854,27 +4855,27 @@
     <t>State, U.S. Territory or Canadian Province of Residence (Mother) - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA                                                                   For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR_x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -4884,8 +4885,8 @@
     <t>Residence of Mother--Inside City/Town Limits</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -4952,8 +4953,8 @@
     <t>MEDUC_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Data Queried and Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Data Queried and Verified_x000D_
 2 = Edit Failed, Data Queried, but not Verified</t>
   </si>
   <si>
@@ -5374,11 +5375,11 @@
     <t>ATTEND</t>
   </si>
   <si>
-    <t>1 = MD
-2 = DO
-3 = CNM/CM
-4 = Other midwife
-5 = Other (specify)
+    <t>1 = MD_x000D_
+2 = DO_x000D_
+3 = CNM/CM_x000D_
+4 = Other midwife_x000D_
+5 = Other (specify)_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -5430,7 +5431,7 @@
     <t>DOFP_YR</t>
   </si>
   <si>
-    <t>4 digit year; year of delivery or
+    <t>4 digit year; year of delivery or_x000D_
 (year of delivery - 1), 8888, 9999</t>
   </si>
   <si>
@@ -5467,8 +5468,8 @@
     <t>NPREV_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Number Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Number Verified_x000D_
 2 = Edit Failed, Number not Verified</t>
   </si>
   <si>
@@ -5502,8 +5503,8 @@
     <t>HGT_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Number Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Number Verified_x000D_
 2 = Edit Failed, Number not  Verified</t>
   </si>
   <si>
@@ -5531,8 +5532,8 @@
     <t>PWGT_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
-1 = Edit Failed, Verified
+    <t>0 = Edit Passed_x000D_
+1 = Edit Failed, Verified_x000D_
 2 = Edit Failed, not Verified</t>
   </si>
   <si>
@@ -5599,8 +5600,8 @@
     <t>YLLB</t>
   </si>
   <si>
-    <t>4 digit year;
-(year of mother's birth + 10) through
+    <t>4 digit year;_x000D_
+(year of mother's birth + 10) through_x000D_
 year of delivery, 8888, 9999</t>
   </si>
   <si>
@@ -5658,8 +5659,8 @@
     <t>Date Last Normal Menses Began--Year</t>
   </si>
   <si>
-    <t>4 digit year; year of delivery or
-(year of delivery - 1) or
+    <t>4 digit year; year of delivery or_x000D_
+(year of delivery - 1) or_x000D_
 (year of delivery - 2), 9999</t>
   </si>
   <si>
@@ -5684,9 +5685,9 @@
     <t>See [note on missing pregnancy risk factors data]</t>
   </si>
   <si>
-    <t>Update risk factors (old Observation-pregnancy-risk-factor)
-STU 1 listed:
-IJE Natality Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART
+    <t>Update risk factors (old Observation-pregnancy-risk-factor)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART_x000D_
 IJE Fetal Death Data Elements: PDIAB, GDIAB, PHYPE, GHYPE, PPB, INFT, PCES, EHYPE, INFT_DRG, INFT_ART</t>
   </si>
   <si>
@@ -5777,7 +5778,7 @@
     <t>NPCES_BYPASS</t>
   </si>
   <si>
-    <t>0 = Edit Passed
+    <t>0 = Edit Passed_x000D_
 1 = Edit Failed, Verified</t>
   </si>
   <si>
@@ -5865,9 +5866,9 @@
     <t>PRES</t>
   </si>
   <si>
-    <t>1 = Cephalic
-2 = Breech
-3 = Other
+    <t>1 = Cephalic_x000D_
+2 = Breech_x000D_
+3 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -5883,10 +5884,10 @@
     <t>ROUT</t>
   </si>
   <si>
-    <t>1 = Spontaneous
-2 = Forceps
-3 = Vacuum
-4 = Cesarean
+    <t>1 = Spontaneous_x000D_
+2 = Forceps_x000D_
+3 = Vacuum_x000D_
+4 = Cesarean_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -5896,7 +5897,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>See  [note on missing method of delivery data]</t>
+    <t>[DeliveryRoutesVS] unless unknown, &lt;br /&gt;See  [note on missing method of delivery data]</t>
   </si>
   <si>
     <t>Method of Delivery--Trial of Labor Attempted</t>
@@ -5905,9 +5906,9 @@
     <t>TLAB</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
-U = Unknown
+    <t>Y = Yes_x000D_
+N = No_x000D_
+U = Unknown_x000D_
 X = Not Applicable</t>
   </si>
   <si>
@@ -5926,9 +5927,9 @@
     <t>MTR</t>
   </si>
   <si>
-    <t>Update maternal morbidity (old Condition-maternal-morbidity)
-STU 1 listed:
-IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT
+    <t>Update maternal morbidity (old Condition-maternal-morbidity)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT_x000D_
 IJE Fetal Death Data Elements: RUT, AINT</t>
   </si>
   <si>
@@ -5977,10 +5978,10 @@
     <t>UOPR</t>
   </si>
   <si>
-    <t>Update maternal morbidity (old Condition-maternal-morbidity)
-STU 1 listed:
-IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT
-IJE Fetal Death Data Elements: RUT, AINT
+    <t>Update maternal morbidity (old Condition-maternal-morbidity)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: MTR, PLAC, RUT, UHYS, AINT_x000D_
+IJE Fetal Death Data Elements: RUT, AINT_x000D_
 (new) UOPR</t>
   </si>
   <si>
@@ -5999,8 +6000,8 @@
     <t>FW_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
-1 = Queried data correct, out of range
+    <t>0 = Off_x000D_
+1 = Queried data correct, out of range_x000D_
 2 = Queried, failed  delivery weight/gestation edit</t>
   </si>
   <si>
@@ -6025,7 +6026,7 @@
     <t>OWGEST_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
+    <t>0 = Off_x000D_
 1 = Queried data correct, out of range</t>
   </si>
   <si>
@@ -6038,9 +6039,9 @@
     <t>ETIME</t>
   </si>
   <si>
-    <t>N = At assessment, no labor
-L = At assessment, labor
-A = Labor, no assessment
+    <t>N = At assessment, no labor_x000D_
+L = At assessment, labor_x000D_
+A = Labor, no assessment_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -6053,8 +6054,8 @@
     <t>Was an Autopsy Performed?</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 P = Planned</t>
   </si>
   <si>
@@ -6076,8 +6077,8 @@
     <t>Were Autopsy or Histological Placental Examination Results Used in Determining the Cause of Fetal Death?</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 X = Not Applicable</t>
   </si>
   <si>
@@ -6126,8 +6127,8 @@
     <t>PLUR_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
-1 = Queried, and Correct
+    <t>0 = Off_x000D_
+1 = Queried, and Correct_x000D_
 2 = Plurality/Set Order Queried, Inconsistent</t>
   </si>
   <si>
@@ -6197,9 +6198,9 @@
     <t>DOWT</t>
   </si>
   <si>
-    <t>C = Confirmed
-P = Pending
-N = No
+    <t>C = Confirmed_x000D_
+P = Pending_x000D_
+N = No_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -6221,10 +6222,10 @@
     <t>&gt;=year of delivery</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Code structure description differs here
-Code sent back to state VRO
-For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Code structure description differs here_x000D_
+Code sent back to state VRO_x000D_
+For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -6240,10 +6241,10 @@
     <t>NCHS USE ONLY: Receipt date -- Day</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Code structure description differs here
-Code sent back to state VRO
-Note: Marked as NCHS USE ONLY, but VRDR does address this. For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Code structure description differs here_x000D_
+Code sent back to state VRO_x000D_
+Note: Marked as NCHS USE ONLY, but VRDR does address this. For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -6286,9 +6287,9 @@
     <t>INFT_DRG</t>
   </si>
   <si>
-    <t>Y = Yes (BLANK IF NOT ADDED)
-N = No
-X = Not Applicable
+    <t>Y = Yes (BLANK IF NOT ADDED)_x000D_
+N = No_x000D_
+X = Not Applicable_x000D_
 U = Unknown</t>
   </si>
   <si>
@@ -6325,7 +6326,7 @@
     <t>COD18a1</t>
   </si>
   <si>
-    <t>Y = Yes
+    <t>Y = Yes_x000D_
 N = No</t>
   </si>
   <si>
@@ -7013,9 +7014,9 @@
     <t>string(25)</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-NCHS does not use
-BFDR defines "ObservationPresentJob" profile. 
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+NCHS does not use_x000D_
+BFDR defines "ObservationPresentJob" profile. _x000D_
 BFDR and VRDR use different profiles</t>
   </si>
   <si>
@@ -7577,24 +7578,24 @@
     <t>MRACEBG_C</t>
   </si>
   <si>
-    <t>01 = White
-02 = Black
-03 = American Indian/Alaskan Native
-04 = Asian Indian
-05 = Chinese
-06 = Filipino
-07 = Japanese
-08 = Korean
-09 = Vietnamese
-10 = Other Asian
-11 = Native Hawaiian
-12 = Guamanian
-13 = Samoan
-14 = Other Pacific Islander
-15 = Other
-21 = Bridged White
-22 = Bridged Black
-23 = Bridged American Indian/Alaskan Native
+    <t>01 = White_x000D_
+02 = Black_x000D_
+03 = American Indian/Alaskan Native_x000D_
+04 = Asian Indian_x000D_
+05 = Chinese_x000D_
+06 = Filipino_x000D_
+07 = Japanese_x000D_
+08 = Korean_x000D_
+09 = Vietnamese_x000D_
+10 = Other Asian_x000D_
+11 = Native Hawaiian_x000D_
+12 = Guamanian_x000D_
+13 = Samoan_x000D_
+14 = Other Pacific Islander_x000D_
+15 = Other_x000D_
+21 = Bridged White_x000D_
+22 = Bridged Black_x000D_
+23 = Bridged American Indian/Alaskan Native_x000D_
 24 = Bridged Asian &amp; Pacific Islander</t>
   </si>
   <si>
@@ -7715,24 +7716,24 @@
     <t>Informant's Relationship to Fetus</t>
   </si>
   <si>
-    <t>1 = Mother
-2 = Father
-3 = Sibling
-4 = Other relative
-5 = Other
+    <t>1 = Mother_x000D_
+2 = Father_x000D_
+3 = Sibling_x000D_
+4 = Other relative_x000D_
+5 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">Only similar item is Mortality: "Informant's Relationship (INFORMRELATE), which uses VRDR Decedent  contact.type.text   string (30 characters)
-VRCPL has:
-  - Patient-decedent-fetus, 
-  - Related Person - Parent Vital Records   
-  - RelatedPerson - Father Natural Vital Records         
-  - RelatedPerson - Father Vital Records         
-  - RelatedPerson - Mother Gestational Vital Records         
-  - RelatedPerson - Mother Vital Records
-NOTE that the IJE Code Structure Description here includes Sibling and others
-Saul notes: VRDR uses fields that can be from a controlled vocabulary or any arbitrary string (e.g., CERTL in  http://build.fhir.org/ig/HL7/vrdr/branches/master/StructureDefinition-vrdr-death-certification.html) with a consistent pattern (I think
+    <t xml:space="preserve">Only similar item is Mortality: "Informant's Relationship (INFORMRELATE), which uses VRDR Decedent  contact.type.text   string (30 characters)_x000D_
+VRCPL has:_x000D_
+  - Patient-decedent-fetus, _x000D_
+  - Related Person - Parent Vital Records   _x000D_
+  - RelatedPerson - Father Natural Vital Records         _x000D_
+  - RelatedPerson - Father Vital Records         _x000D_
+  - RelatedPerson - Mother Gestational Vital Records         _x000D_
+  - RelatedPerson - Mother Vital Records_x000D_
+NOTE that the IJE Code Structure Description here includes Sibling and others_x000D_
+Saul notes: VRDR uses fields that can be from a controlled vocabulary or any arbitrary string (e.g., CERTL in  http://build.fhir.org/ig/HL7/vrdr/branches/master/StructureDefinition-vrdr-death-certification.html) with a consistent pattern (I think_x000D_
 there are two such fields). </t>
   </si>
   <si>
@@ -7787,9 +7788,9 @@
     <t>Deprecated, see [VRFM]</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Mortality (VRDR) uses   DeathCertificate  extension[replaceStatus].valuecodeable   [ReplaceStatusVS]
-VRDR addresses in the VRDR Messaging IG. 
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Mortality (VRDR) uses   DeathCertificate  extension[replaceStatus].valuecodeable   [ReplaceStatusVS]_x000D_
+VRDR addresses in the VRDR Messaging IG. _x000D_
 Decision: Births should behave the same as deaths.</t>
   </si>
   <si>
@@ -7805,30 +7806,31 @@
     <t>State, U.S. Territory or Canadian Province of Birth (Infant) - code</t>
   </si>
   <si>
-    <t xml:space="preserve">
-NCHS Instruction Manual: Part 8
-ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA
-YC = NEW YORK CITY
-For US Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>_x000D_
+NCHS Instruction Manual: Part 8_x000D_
+ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA_x000D_
+YC = NEW YORK CITY_x000D_
+_x000D_
+For US Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -7847,8 +7849,8 @@
     <t>identifier.extension[localFileNumber2].value</t>
   </si>
   <si>
-    <t>male = Male
-female = Female
+    <t>male = Male_x000D_
+female = Female_x000D_
 other = Other unknown = Unknown</t>
   </si>
   <si>
@@ -7864,8 +7866,8 @@
     <t>ISEX</t>
   </si>
   <si>
-    <t>M = Male
-F = Female
+    <t>M = Male_x000D_
+F = Female_x000D_
 N = Not Yet Determined</t>
   </si>
   <si>
@@ -7899,31 +7901,31 @@
     <t>4 digit year (&lt; year of birth of child);  9999 = unknown</t>
   </si>
   <si>
-    <t>0 = Edit Passed
+    <t>0 = Edit Passed_x000D_
 1 = Data Queried</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -7933,27 +7935,27 @@
     <t>Residence of Mother--City</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA        For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA        For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -7993,8 +7995,8 @@
     <t>Literal; blank</t>
   </si>
   <si>
-    <t xml:space="preserve">NCHS Appendix E
-(values for fields 62 - 77 returned from NCHS)
+    <t xml:space="preserve">NCHS Appendix E_x000D_
+(values for fields 62 - 77 returned from NCHS)_x000D_
 </t>
   </si>
   <si>
@@ -8004,7 +8006,7 @@
     <t>component[ThirdEditedCode].value, &lt;br /&gt;code=CodeSystemLocalObservationsCodesVitalRecords#codedraceandethnicityMother</t>
   </si>
   <si>
-    <t>NCHS Appendix E
+    <t>NCHS Appendix E_x000D_
 (values for fields 108 - 123 returned from NCHS)</t>
   </si>
   <si>
@@ -8026,11 +8028,11 @@
     <t>01-31 (based on month), 88=no care, 99=unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">4 digit year; year of child's birth or
+    <t xml:space="preserve">4 digit year; year of child's birth or_x000D_
 (year of child's birth - 1), 8888=no care, 9999=unknown </t>
   </si>
   <si>
-    <t>4 digit year; year of child's birth or 
+    <t>4 digit year; year of child's birth or _x000D_
 (year of child's birth - 1), 8888=no care, 9999=unknown</t>
   </si>
   <si>
@@ -8061,7 +8063,7 @@
     <t>ObservationNumberOtherPregnancyOutcomes</t>
   </si>
   <si>
-    <t>4 digit year;(year of mother's birth + 10) through
+    <t>4 digit year;(year of mother's birth + 10) through_x000D_
 year of child's birth, 8888, 9999</t>
   </si>
   <si>
@@ -8083,13 +8085,13 @@
     <t>PAY</t>
   </si>
   <si>
-    <t>1 = Medicaid
-2 = Private Insurance
-3 = Self-pay
-4 = Indian Health Service
-5 = CHAMPUS/TRICARE
-6 = Other Government (Fed, State, Local) 
-8 = Other
+    <t>1 = Medicaid_x000D_
+2 = Private Insurance_x000D_
+3 = Self-pay_x000D_
+4 = Indian Health Service_x000D_
+5 = CHAMPUS/TRICARE_x000D_
+6 = Other Government (Fed, State, Local) _x000D_
+8 = Other_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -8102,8 +8104,8 @@
     <t>[BirthAndFetalDeathFinancialClassVS] </t>
   </si>
   <si>
-    <t>4 digit year; year of child's birth 
-or (year of child's birth - 1)
+    <t>4 digit year; year of child's birth _x000D_
+or (year of child's birth - 1)_x000D_
 or (year of child's birth - 2), 9999</t>
   </si>
   <si>
@@ -8236,8 +8238,8 @@
     <t>See [note on missing characteristics of labor and delivery data]</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
-STU 1 listed:
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
+STU 1 listed:_x000D_
 IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN</t>
   </si>
   <si>
@@ -8292,9 +8294,9 @@
     <t>MECS</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
-STU 1 listed:
-IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN_x000D_
 (new) MECS</t>
   </si>
   <si>
@@ -8304,9 +8306,9 @@
     <t>FINT</t>
   </si>
   <si>
-    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)
-STU 1 listed:
-IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN
+    <t>Update L&amp;D (old Observation-characteristic-of-labor-and-delivery)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: INDL, AUGL, NVPR, STER, ANTB, CHOR, ESAN_x000D_
 (new) FINT</t>
   </si>
   <si>
@@ -8352,8 +8354,8 @@
     <t>BW_BYPASS</t>
   </si>
   <si>
-    <t>0 = Off
-1 = Queried data correct, out of range
+    <t>0 = Off_x000D_
+1 = Queried data correct, out of range_x000D_
 2 = Queried, failed birthweight/gestation edit</t>
   </si>
   <si>
@@ -8393,8 +8395,8 @@
     <t>ObservationNumberLiveBirthsThisDelivery</t>
   </si>
   <si>
-    <t>0 = OFF
-1 = Queried, and Correct
+    <t>0 = OFF_x000D_
+1 = Queried, and Correct_x000D_
 2 = Plurality/Set Order Queried, Inconsistent</t>
   </si>
   <si>
@@ -8410,8 +8412,8 @@
     <t>See [note on missing abnormal conditions of newborn data]</t>
   </si>
   <si>
-    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)
-STU 1 listed:
+    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)_x000D_
+STU 1 listed:_x000D_
 IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH</t>
   </si>
   <si>
@@ -8469,9 +8471,9 @@
     <t>BINJ</t>
   </si>
   <si>
-    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)
-STU 1 listed:
-IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH
+    <t>Update abnormal conditions of  newborn (old Condition-abnormal-condition-of-newborn)_x000D_
+STU 1 listed:_x000D_
+IJE Natality Data Elements: AVEN1, AVEN6, NICU, SURF, ANTI, SEIZ, MCPH_x000D_
 (new) BINJ</t>
   </si>
   <si>
@@ -8571,8 +8573,8 @@
     <t>ILIV</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 U = Infant transferred, Status Unknown</t>
   </si>
   <si>
@@ -8591,9 +8593,9 @@
     <t>leave blank</t>
   </si>
   <si>
-    <t>Code used on 3 tabs: N, FD, &amp; BID
-Code sent back to state VRO
-For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]
+    <t>Code used on 3 tabs: N, FD, &amp; BID_x000D_
+Code sent back to state VRO_x000D_
+For R_YR, R_MO, R_DY, VRDR uses CodingStatusValues  parameter[receiptDate].value   date    See [PartialDatesAndTimes]_x000D_
 Decision: Mimic VRDR</t>
   </si>
   <si>
@@ -8603,10 +8605,10 @@
     <t>Risk Factors--Infertility: Fertility Enhancing Drugs  (RECOMMENDED ADDITION EFFECTIVE 2004)</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
-X = Not Applicable
-U = Unknown
+    <t>Y = Yes_x000D_
+N = No_x000D_
+X = Not Applicable_x000D_
+U = Unknown_x000D_
 (BLANK IF NOT ADDED)</t>
   </si>
   <si>
@@ -8763,27 +8765,27 @@
     <t>Refer to NCHS Instruction Manual Part 19, Industry and Occupation Coding for Death Certificates, 2003. Leave blank if using a coding system other than this</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA           For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -8907,8 +8909,8 @@
     <t>SSN_MULT_BTH_CD</t>
   </si>
   <si>
-    <t>Y = Yes
-N = No
+    <t>Y = Yes_x000D_
+N = No_x000D_
 or blank</t>
   </si>
   <si>
@@ -8957,12 +8959,12 @@
     <t>CERTIF</t>
   </si>
   <si>
-    <t>1 = MD
-2 = DO
-3 = CNM/CM
-4 = Other midwife
-5 = Other (specify) 
-6 = Hospital Admin
+    <t>1 = MD_x000D_
+2 = DO_x000D_
+3 = CNM/CM_x000D_
+4 = Other midwife_x000D_
+5 = Other (specify) _x000D_
+6 = Hospital Admin_x000D_
 9 = Unknown</t>
   </si>
   <si>
@@ -9011,51 +9013,51 @@
     <t>Deprecated,  see [VRFM]</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA              For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA              For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual: Part 8
-   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY
-   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA            For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
-For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR 
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual: Part 8_x000D_
+   ZZ = UNKNOWN OR BLANK U.S. STATE OR TERRITORY OR UNKNOWN/ UNCLASSIFIABLE COUNTRY_x000D_
+   XX = COUNTRY IS CANADA BUT UNKNOWN CANADIAN PROVINCE OR ANY COUNTRY THAT IS KNOWN, BUT NOT U.S. OR CANADA            For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>
@@ -9131,7 +9133,7 @@
     <t>Residence Street number</t>
   </si>
   <si>
-    <t>For use of jurisdictions with domestic partnerships, other
+    <t>For use of jurisdictions with domestic partnerships, other_x000D_
 types of relationships.</t>
   </si>
   <si>
@@ -9156,26 +9158,26 @@
     <t>Death Jurisdiction - code</t>
   </si>
   <si>
-    <t>NCHS Instruction Manual Part 8A
- For U.S. Territories:
-   MP  NORTHERN MARIANAS
-   AS  AMERICAN SAMOA
-   GU  GUAM
-   VI   VIRGIN ISLANDS
-   PR  PUERTO RICO
- For Canadian Provinces:
-   AB  ALBERTA  
-   BC  BRITISH COLUMBIA 
-   MB  MANITOBA 
-   NB  NEW BRUNSWICK  
-   NL  NEWFOUNDLAND AND LABRADOR  
-   NS  NOVA SCOTIA 
-   NT  NORTHWEST TERRITORIES
-   NU  NUNAVUT
-   ON  ONTARIO
-   PE  PRINCE EDWARD ISLAND 
-   QC  QUEBEC  
-   SK  SASKATCHEWAN
+    <t>NCHS Instruction Manual Part 8A_x000D_
+ For U.S. Territories:_x000D_
+   MP  NORTHERN MARIANAS_x000D_
+   AS  AMERICAN SAMOA_x000D_
+   GU  GUAM_x000D_
+   VI   VIRGIN ISLANDS_x000D_
+   PR  PUERTO RICO_x000D_
+ For Canadian Provinces:_x000D_
+   AB  ALBERTA  _x000D_
+   BC  BRITISH COLUMBIA _x000D_
+   MB  MANITOBA _x000D_
+   NB  NEW BRUNSWICK  _x000D_
+   NL  NEWFOUNDLAND AND LABRADOR  _x000D_
+   NS  NOVA SCOTIA _x000D_
+   NT  NORTHWEST TERRITORIES_x000D_
+   NU  NUNAVUT_x000D_
+   ON  ONTARIO_x000D_
+   PE  PRINCE EDWARD ISLAND _x000D_
+   QC  QUEBEC  _x000D_
+   SK  SASKATCHEWAN_x000D_
    YT  YUKON</t>
   </si>
   <si>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -6058,7 +6058,10 @@
 P = Planned</t>
   </si>
   <si>
-    <t>ObservationAutopsyPerformedIndicatorVitalRecords</t>
+    <t>ObservationAutopsyPerformedIndicator</t>
+  </si>
+  <si>
+    <t>[PerformedNotPerformedPlannedVS]</t>
   </si>
   <si>
     <t>Was a Histological Placental Examination Performed?</t>
@@ -6068,9 +6071,6 @@
   </si>
   <si>
     <t>ObservationHistologicalPlacentalExamPerformed</t>
-  </si>
-  <si>
-    <t>[HistologicalPlacentalExaminationVS]</t>
   </si>
   <si>
     <t>Were Autopsy or Histological Placental Examination Results Used in Determining the Cause of Fetal Death?</t>
@@ -41256,7 +41256,7 @@
         <v>1827</v>
       </c>
       <c r="I153" t="s">
-        <v>205</v>
+        <v>939</v>
       </c>
       <c r="J153" t="s">
         <v>1828</v>
@@ -41268,7 +41268,7 @@
         <v>33</v>
       </c>
       <c r="M153" t="s">
-        <v>456</v>
+        <v>1829</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>952</v>
@@ -41289,10 +41289,10 @@
         <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>1827</v>
@@ -41301,7 +41301,7 @@
         <v>939</v>
       </c>
       <c r="J154" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>24</v>
@@ -41310,7 +41310,7 @@
         <v>33</v>
       </c>
       <c r="M154" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>952</v>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12180" uniqueCount="2785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12178" uniqueCount="2785">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -5893,7 +5893,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>See  [note on missing method of delivery data]</t>
+    <t>[DeliveryRoutesVS] unless unknown, &lt;br /&gt;See  [note on missing method of delivery data]</t>
   </si>
   <si>
     <t>Method of Delivery--Trial of Labor Attempted</t>
@@ -45909,9 +45909,6 @@
       <c r="L270" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M270" t="s">
-        <v>104</v>
-      </c>
       <c r="N270" s="1" t="s">
         <v>953</v>
       </c>
@@ -45950,9 +45947,6 @@
       </c>
       <c r="L271" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="M271" t="s">
-        <v>104</v>
       </c>
       <c r="N271" s="1" t="s">
         <v>953</v>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -2147,7 +2147,7 @@
     <t>DMOMMDN</t>
   </si>
   <si>
-    <t>name.family , name.use=maiden</t>
+    <t>name.family , name.use = maiden</t>
   </si>
   <si>
     <t>Was case Referred to Medical Examiner/Coroner?</t>
@@ -2439,7 +2439,7 @@
     <t>DMAIDEN</t>
   </si>
   <si>
-    <t>name.text , name.use=maiden</t>
+    <t>name.text , name.use = maiden</t>
   </si>
   <si>
     <t>Decedent's Birth Place City - Code</t>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12797" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12768" uniqueCount="2788">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -10629,9 +10629,6 @@
       </c>
       <c r="N22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="S22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23">
@@ -35911,9 +35908,6 @@
         <v>43</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="S8" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9">
@@ -40775,9 +40769,6 @@
         <v>43</v>
       </c>
       <c r="P123" s="1"/>
-      <c r="S123" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="124" spans="1:19">
       <c r="A124">
@@ -42351,9 +42342,6 @@
         <v>43</v>
       </c>
       <c r="P161" s="1"/>
-      <c r="S161" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="162" spans="1:19">
       <c r="A162">
@@ -42868,9 +42856,6 @@
       <c r="R175" t="s">
         <v>1884</v>
       </c>
-      <c r="S175" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="176" spans="1:19">
       <c r="A176">
@@ -42914,9 +42899,6 @@
       <c r="R176" t="s">
         <v>1884</v>
       </c>
-      <c r="S176" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="177" spans="1:19">
       <c r="A177">
@@ -42959,9 +42941,6 @@
       </c>
       <c r="R177" t="s">
         <v>1884</v>
-      </c>
-      <c r="S177" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:19">
@@ -51226,9 +51205,6 @@
         <v>43</v>
       </c>
       <c r="P7" s="1"/>
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
@@ -54224,9 +54200,6 @@
         <v>1569</v>
       </c>
       <c r="P78" s="1"/>
-      <c r="S78" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79">
@@ -54269,9 +54242,6 @@
         <v>1569</v>
       </c>
       <c r="P79" s="1"/>
-      <c r="S79" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80">
@@ -54314,9 +54284,6 @@
         <v>1569</v>
       </c>
       <c r="P80" s="1"/>
-      <c r="S80" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81">
@@ -54359,9 +54326,6 @@
         <v>1569</v>
       </c>
       <c r="P81" s="1"/>
-      <c r="S81" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="82" spans="1:19">
       <c r="A82">
@@ -54404,9 +54368,6 @@
         <v>1569</v>
       </c>
       <c r="P82" s="1"/>
-      <c r="S82" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="83" spans="1:19">
       <c r="A83">
@@ -54449,9 +54410,6 @@
         <v>1569</v>
       </c>
       <c r="P83" s="1"/>
-      <c r="S83" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="84" spans="1:19">
       <c r="A84">
@@ -54494,9 +54452,6 @@
         <v>1569</v>
       </c>
       <c r="P84" s="1"/>
-      <c r="S84" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="85" spans="1:19">
       <c r="A85">
@@ -54539,9 +54494,6 @@
         <v>1569</v>
       </c>
       <c r="P85" s="1"/>
-      <c r="S85" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="86" spans="1:19">
       <c r="A86">
@@ -54584,9 +54536,6 @@
         <v>1569</v>
       </c>
       <c r="P86" s="1"/>
-      <c r="S86" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="87" spans="1:19">
       <c r="A87">
@@ -54629,9 +54578,6 @@
         <v>1569</v>
       </c>
       <c r="P87" s="1"/>
-      <c r="S87" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="88" spans="1:19">
       <c r="A88">
@@ -54674,9 +54620,6 @@
         <v>1569</v>
       </c>
       <c r="P88" s="1"/>
-      <c r="S88" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="89" spans="1:19">
       <c r="A89">
@@ -54719,9 +54662,6 @@
         <v>1569</v>
       </c>
       <c r="P89" s="1"/>
-      <c r="S89" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90">
@@ -54764,9 +54704,6 @@
         <v>1569</v>
       </c>
       <c r="P90" s="1"/>
-      <c r="S90" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="91" spans="1:19">
       <c r="A91">
@@ -54809,9 +54746,6 @@
         <v>1569</v>
       </c>
       <c r="P91" s="1"/>
-      <c r="S91" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="92" spans="1:19">
       <c r="A92">
@@ -54854,9 +54788,6 @@
         <v>1569</v>
       </c>
       <c r="P92" s="1"/>
-      <c r="S92" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="93" spans="1:19">
       <c r="A93">
@@ -54899,9 +54830,6 @@
         <v>1569</v>
       </c>
       <c r="P93" s="1"/>
-      <c r="S93" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="94" spans="1:19">
       <c r="A94">
@@ -60711,9 +60639,6 @@
         <v>43</v>
       </c>
       <c r="P226" s="1"/>
-      <c r="S226" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="227" spans="1:19">
       <c r="A227">
@@ -61826,9 +61751,6 @@
       <c r="R250" t="s">
         <v>1884</v>
       </c>
-      <c r="S250" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="251" spans="1:19">
       <c r="A251">
@@ -61872,9 +61794,6 @@
       <c r="R251" t="s">
         <v>1884</v>
       </c>
-      <c r="S251" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="252" spans="1:19">
       <c r="A252">
@@ -61918,9 +61837,6 @@
       <c r="R252" t="s">
         <v>1884</v>
       </c>
-      <c r="S252" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="253" spans="1:19">
       <c r="A253">
@@ -62376,9 +62292,6 @@
       </c>
       <c r="P262" s="1" t="s">
         <v>2630</v>
-      </c>
-      <c r="S262" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:19">

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12768" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12836" uniqueCount="2788">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -1075,6 +1075,9 @@
     <t>component[FirstEditedCode].value, &lt;br /&gt;code=CodeSystemLocalObservationsCodesVitalRecords#codedraceandethnicityDecedent</t>
   </si>
   <si>
+    <t>[ValueSetRaceCodeVitalRecords]</t>
+  </si>
+  <si>
     <t>Second Edited Code</t>
   </si>
   <si>
@@ -1085,9 +1088,6 @@
   </si>
   <si>
     <t>component[SecondEditedCode].value, &lt;br /&gt;code=CodeSystemLocalObservationsCodesVitalRecords#codedraceandethnicityDecedent</t>
-  </si>
-  <si>
-    <t>[ValueSetRaceCodeVitalRecords]</t>
   </si>
   <si>
     <t>Third Edited Code</t>
@@ -13053,9 +13053,11 @@
       <c r="K75" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L75" s="1"/>
+      <c r="L75" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M75" t="s">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="N75" s="1"/>
       <c r="P75" s="1"/>
@@ -13074,13 +13076,13 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I76" t="s">
         <v>208</v>
@@ -13089,13 +13091,13 @@
         <v>303</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>35</v>
       </c>
       <c r="M76" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N76" s="1"/>
       <c r="P76" s="1"/>
@@ -13120,7 +13122,7 @@
         <v>311</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I77" t="s">
         <v>208</v>
@@ -13135,7 +13137,7 @@
         <v>35</v>
       </c>
       <c r="M77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N77" s="1"/>
       <c r="P77" s="1"/>
@@ -13160,7 +13162,7 @@
         <v>314</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I78" t="s">
         <v>208</v>
@@ -13175,7 +13177,7 @@
         <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N78" s="1"/>
       <c r="P78" s="1"/>
@@ -13200,7 +13202,7 @@
         <v>317</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I79" t="s">
         <v>208</v>
@@ -13215,7 +13217,7 @@
         <v>35</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N79" s="1"/>
       <c r="P79" s="1"/>
@@ -13240,7 +13242,7 @@
         <v>320</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I80" t="s">
         <v>208</v>
@@ -13255,7 +13257,7 @@
         <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N80" s="1"/>
       <c r="P80" s="1"/>
@@ -13280,7 +13282,7 @@
         <v>323</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I81" t="s">
         <v>208</v>
@@ -13295,7 +13297,7 @@
         <v>35</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N81" s="1"/>
       <c r="P81" s="1"/>
@@ -13320,7 +13322,7 @@
         <v>326</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I82" t="s">
         <v>208</v>
@@ -13335,7 +13337,7 @@
         <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N82" s="1"/>
       <c r="P82" s="1"/>
@@ -13360,7 +13362,7 @@
         <v>329</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I83" t="s">
         <v>208</v>
@@ -13375,7 +13377,7 @@
         <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N83" s="1"/>
       <c r="P83" s="1"/>
@@ -13400,7 +13402,7 @@
         <v>332</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I84" t="s">
         <v>208</v>
@@ -13415,7 +13417,7 @@
         <v>35</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N84" s="1"/>
       <c r="P84" s="1"/>
@@ -13440,7 +13442,7 @@
         <v>335</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I85" t="s">
         <v>208</v>
@@ -13455,7 +13457,7 @@
         <v>35</v>
       </c>
       <c r="M85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N85" s="1"/>
       <c r="P85" s="1"/>
@@ -13480,7 +13482,7 @@
         <v>338</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I86" t="s">
         <v>208</v>
@@ -13495,7 +13497,7 @@
         <v>35</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N86" s="1"/>
       <c r="P86" s="1"/>
@@ -13520,7 +13522,7 @@
         <v>341</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I87" t="s">
         <v>208</v>
@@ -13535,7 +13537,7 @@
         <v>35</v>
       </c>
       <c r="M87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N87" s="1"/>
       <c r="P87" s="1"/>
@@ -13560,7 +13562,7 @@
         <v>344</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I88" t="s">
         <v>208</v>
@@ -13575,7 +13577,7 @@
         <v>35</v>
       </c>
       <c r="M88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N88" s="1"/>
       <c r="P88" s="1"/>
@@ -13600,7 +13602,7 @@
         <v>347</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I89" t="s">
         <v>208</v>
@@ -13615,7 +13617,7 @@
         <v>35</v>
       </c>
       <c r="M89" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N89" s="1"/>
       <c r="P89" s="1"/>
@@ -13640,7 +13642,7 @@
         <v>350</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I90" t="s">
         <v>208</v>
@@ -13655,7 +13657,7 @@
         <v>35</v>
       </c>
       <c r="M90" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N90" s="1"/>
       <c r="P90" s="1"/>
@@ -13699,6 +13701,9 @@
       </c>
       <c r="N91" s="1"/>
       <c r="P91" s="1"/>
+      <c r="S91" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="92" spans="1:19">
       <c r="A92">
@@ -15286,6 +15291,9 @@
       </c>
       <c r="N129" s="1"/>
       <c r="P129" s="1"/>
+      <c r="S129" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="130" spans="1:19">
       <c r="A130">
@@ -15440,6 +15448,9 @@
         <v>28</v>
       </c>
       <c r="P133" s="1"/>
+      <c r="S133" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="134" spans="1:19">
       <c r="A134">
@@ -15768,6 +15779,9 @@
       </c>
       <c r="N141" s="1"/>
       <c r="P141" s="1"/>
+      <c r="S141" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="142" spans="1:19">
       <c r="A142">
@@ -15811,6 +15825,9 @@
       </c>
       <c r="N142" s="1"/>
       <c r="P142" s="1"/>
+      <c r="S142" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="143" spans="1:19">
       <c r="A143">
@@ -15852,6 +15869,9 @@
       </c>
       <c r="N143" s="1"/>
       <c r="P143" s="1"/>
+      <c r="S143" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="144" spans="1:19">
       <c r="A144">
@@ -15893,6 +15913,9 @@
       </c>
       <c r="N144" s="1"/>
       <c r="P144" s="1"/>
+      <c r="S144" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="145" spans="1:19">
       <c r="A145">
@@ -15934,6 +15957,9 @@
       </c>
       <c r="N145" s="1"/>
       <c r="P145" s="1"/>
+      <c r="S145" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="146" spans="1:19">
       <c r="A146">
@@ -15975,6 +16001,9 @@
       </c>
       <c r="N146" s="1"/>
       <c r="P146" s="1"/>
+      <c r="S146" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="147" spans="1:19">
       <c r="A147">
@@ -16016,6 +16045,9 @@
       </c>
       <c r="N147" s="1"/>
       <c r="P147" s="1"/>
+      <c r="S147" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="148" spans="1:19">
       <c r="A148">
@@ -16059,6 +16091,9 @@
       </c>
       <c r="N148" s="1"/>
       <c r="P148" s="1"/>
+      <c r="S148" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="149" spans="1:19">
       <c r="A149">
@@ -16102,6 +16137,9 @@
       </c>
       <c r="N149" s="1"/>
       <c r="P149" s="1"/>
+      <c r="S149" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="150" spans="1:19">
       <c r="A150">
@@ -16145,6 +16183,9 @@
       </c>
       <c r="N150" s="1"/>
       <c r="P150" s="1"/>
+      <c r="S150" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="151" spans="1:19">
       <c r="A151">
@@ -16188,6 +16229,9 @@
       </c>
       <c r="N151" s="1"/>
       <c r="P151" s="1"/>
+      <c r="S151" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="152" spans="1:19">
       <c r="A152">
@@ -16231,6 +16275,9 @@
       </c>
       <c r="N152" s="1"/>
       <c r="P152" s="1"/>
+      <c r="S152" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="153" spans="1:19">
       <c r="A153">
@@ -16983,6 +17030,9 @@
         <v>28</v>
       </c>
       <c r="P169" s="1"/>
+      <c r="S169" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="170" spans="1:19">
       <c r="A170">
@@ -38511,7 +38561,7 @@
         <v>35</v>
       </c>
       <c r="M69" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>1569</v>
@@ -38553,7 +38603,7 @@
         <v>35</v>
       </c>
       <c r="M70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>1569</v>
@@ -38595,7 +38645,7 @@
         <v>35</v>
       </c>
       <c r="M71" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>1569</v>
@@ -38637,7 +38687,7 @@
         <v>35</v>
       </c>
       <c r="M72" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>1569</v>
@@ -38679,7 +38729,7 @@
         <v>35</v>
       </c>
       <c r="M73" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>1569</v>
@@ -38721,7 +38771,7 @@
         <v>35</v>
       </c>
       <c r="M74" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>1569</v>
@@ -38763,7 +38813,7 @@
         <v>35</v>
       </c>
       <c r="M75" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>1569</v>
@@ -38805,7 +38855,7 @@
         <v>35</v>
       </c>
       <c r="M76" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>1569</v>
@@ -38847,7 +38897,7 @@
         <v>35</v>
       </c>
       <c r="M77" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>1569</v>
@@ -38889,7 +38939,7 @@
         <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>1569</v>
@@ -38931,7 +38981,7 @@
         <v>35</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>1569</v>
@@ -38973,7 +39023,7 @@
         <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>1569</v>
@@ -39015,7 +39065,7 @@
         <v>35</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>1569</v>
@@ -39057,7 +39107,7 @@
         <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>1569</v>
@@ -39099,7 +39149,7 @@
         <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>1569</v>
@@ -39141,7 +39191,7 @@
         <v>35</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>1569</v>
@@ -44986,7 +45036,7 @@
       </c>
       <c r="P224" s="1"/>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:19">
       <c r="A225">
         <v>1035</v>
       </c>
@@ -45021,7 +45071,7 @@
       </c>
       <c r="P225" s="1"/>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:19">
       <c r="A226">
         <v>1036</v>
       </c>
@@ -45063,7 +45113,7 @@
       </c>
       <c r="P226" s="1"/>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:19">
       <c r="A227">
         <v>1037</v>
       </c>
@@ -45105,7 +45155,7 @@
       </c>
       <c r="P227" s="1"/>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:19">
       <c r="A228">
         <v>1038</v>
       </c>
@@ -45147,7 +45197,7 @@
       </c>
       <c r="P228" s="1"/>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:19">
       <c r="A229">
         <v>1039</v>
       </c>
@@ -45186,7 +45236,7 @@
       </c>
       <c r="P229" s="1"/>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:19">
       <c r="A230">
         <v>1040</v>
       </c>
@@ -45221,7 +45271,7 @@
       </c>
       <c r="P230" s="1"/>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:19">
       <c r="A231">
         <v>1041</v>
       </c>
@@ -45260,7 +45310,7 @@
       </c>
       <c r="P231" s="1"/>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:19">
       <c r="A232">
         <v>1042</v>
       </c>
@@ -45298,8 +45348,11 @@
         <v>955</v>
       </c>
       <c r="P232" s="1"/>
-    </row>
-    <row r="233" spans="1:16">
+      <c r="S232" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19">
       <c r="A233">
         <v>1043</v>
       </c>
@@ -45337,8 +45390,11 @@
         <v>955</v>
       </c>
       <c r="P233" s="1"/>
-    </row>
-    <row r="234" spans="1:16">
+      <c r="S233" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19">
       <c r="A234">
         <v>1044</v>
       </c>
@@ -45376,8 +45432,11 @@
         <v>955</v>
       </c>
       <c r="P234" s="1"/>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="S234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19">
       <c r="A235">
         <v>1045</v>
       </c>
@@ -45415,8 +45474,11 @@
         <v>955</v>
       </c>
       <c r="P235" s="1"/>
-    </row>
-    <row r="236" spans="1:16">
+      <c r="S235" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19">
       <c r="A236">
         <v>1046</v>
       </c>
@@ -45454,8 +45516,11 @@
         <v>955</v>
       </c>
       <c r="P236" s="1"/>
-    </row>
-    <row r="237" spans="1:16">
+      <c r="S236" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19">
       <c r="A237">
         <v>1047</v>
       </c>
@@ -45493,8 +45558,11 @@
         <v>955</v>
       </c>
       <c r="P237" s="1"/>
-    </row>
-    <row r="238" spans="1:16">
+      <c r="S237" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19">
       <c r="A238">
         <v>1048</v>
       </c>
@@ -45532,8 +45600,11 @@
         <v>955</v>
       </c>
       <c r="P238" s="1"/>
-    </row>
-    <row r="239" spans="1:16">
+      <c r="S238" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19">
       <c r="A239">
         <v>1049</v>
       </c>
@@ -45571,8 +45642,11 @@
         <v>955</v>
       </c>
       <c r="P239" s="1"/>
-    </row>
-    <row r="240" spans="1:16">
+      <c r="S239" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19">
       <c r="A240">
         <v>1050</v>
       </c>
@@ -45610,6 +45684,9 @@
         <v>955</v>
       </c>
       <c r="P240" s="1"/>
+      <c r="S240" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="241" spans="1:19">
       <c r="A241">
@@ -45649,6 +45726,9 @@
         <v>955</v>
       </c>
       <c r="P241" s="1"/>
+      <c r="S241" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="242" spans="1:19">
       <c r="A242">
@@ -45691,6 +45771,9 @@
         <v>955</v>
       </c>
       <c r="P242" s="1"/>
+      <c r="S242" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="243" spans="1:19">
       <c r="A243">
@@ -45733,6 +45816,9 @@
         <v>955</v>
       </c>
       <c r="P243" s="1"/>
+      <c r="S243" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="244" spans="1:19">
       <c r="A244">
@@ -46899,7 +46985,7 @@
       </c>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" spans="1:18">
+    <row r="273" spans="1:19">
       <c r="A273">
         <v>1083</v>
       </c>
@@ -46938,7 +47024,7 @@
       </c>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" spans="1:18">
+    <row r="274" spans="1:19">
       <c r="A274">
         <v>1084</v>
       </c>
@@ -46973,7 +47059,7 @@
       </c>
       <c r="P274" s="1"/>
     </row>
-    <row r="275" spans="1:18">
+    <row r="275" spans="1:19">
       <c r="A275">
         <v>1085</v>
       </c>
@@ -47008,7 +47094,7 @@
       </c>
       <c r="P275" s="1"/>
     </row>
-    <row r="276" spans="1:18">
+    <row r="276" spans="1:19">
       <c r="A276">
         <v>1086</v>
       </c>
@@ -47052,7 +47138,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="277" spans="1:18">
+    <row r="277" spans="1:19">
       <c r="A277">
         <v>1087</v>
       </c>
@@ -47085,7 +47171,7 @@
       </c>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" spans="1:18">
+    <row r="278" spans="1:19">
       <c r="A278">
         <v>1088</v>
       </c>
@@ -47129,7 +47215,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="279" spans="1:18">
+    <row r="279" spans="1:19">
       <c r="A279">
         <v>1089</v>
       </c>
@@ -47162,7 +47248,7 @@
       </c>
       <c r="P279" s="1"/>
     </row>
-    <row r="280" spans="1:18">
+    <row r="280" spans="1:19">
       <c r="A280">
         <v>1090</v>
       </c>
@@ -47207,7 +47293,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
+    <row r="281" spans="1:19">
       <c r="A281">
         <v>1091</v>
       </c>
@@ -47240,7 +47326,7 @@
       </c>
       <c r="P281" s="1"/>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:19">
       <c r="A282">
         <v>1092</v>
       </c>
@@ -47284,7 +47370,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
+    <row r="283" spans="1:19">
       <c r="A283">
         <v>1093</v>
       </c>
@@ -47317,7 +47403,7 @@
       </c>
       <c r="P283" s="1"/>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:19">
       <c r="A284">
         <v>1094</v>
       </c>
@@ -47358,8 +47444,11 @@
         <v>955</v>
       </c>
       <c r="P284" s="1"/>
-    </row>
-    <row r="285" spans="1:18">
+      <c r="S284" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19">
       <c r="A285">
         <v>1095</v>
       </c>
@@ -47400,8 +47489,11 @@
         <v>955</v>
       </c>
       <c r="P285" s="1"/>
-    </row>
-    <row r="286" spans="1:18">
+      <c r="S285" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19">
       <c r="A286">
         <v>1096</v>
       </c>
@@ -47442,8 +47534,11 @@
         <v>955</v>
       </c>
       <c r="P286" s="1"/>
-    </row>
-    <row r="287" spans="1:18">
+      <c r="S286" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19">
       <c r="A287">
         <v>1097</v>
       </c>
@@ -47484,8 +47579,11 @@
         <v>955</v>
       </c>
       <c r="P287" s="1"/>
-    </row>
-    <row r="288" spans="1:18">
+      <c r="S287" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19">
       <c r="A288">
         <v>1098</v>
       </c>
@@ -47526,8 +47624,11 @@
         <v>955</v>
       </c>
       <c r="P288" s="1"/>
-    </row>
-    <row r="289" spans="1:16">
+      <c r="S288" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19">
       <c r="A289">
         <v>1099</v>
       </c>
@@ -47568,8 +47669,11 @@
         <v>955</v>
       </c>
       <c r="P289" s="1"/>
-    </row>
-    <row r="290" spans="1:16">
+      <c r="S289" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19">
       <c r="A290">
         <v>1100</v>
       </c>
@@ -47611,7 +47715,7 @@
       </c>
       <c r="P290" s="1"/>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:19">
       <c r="A291">
         <v>1101</v>
       </c>
@@ -47653,7 +47757,7 @@
       </c>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:19">
       <c r="A292">
         <v>1102</v>
       </c>
@@ -47695,7 +47799,7 @@
       </c>
       <c r="P292" s="1"/>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:19">
       <c r="A293">
         <v>1103</v>
       </c>
@@ -47737,7 +47841,7 @@
       </c>
       <c r="P293" s="1"/>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:19">
       <c r="A294">
         <v>1104</v>
       </c>
@@ -47779,7 +47883,7 @@
       </c>
       <c r="P294" s="1"/>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:19">
       <c r="A295">
         <v>1105</v>
       </c>
@@ -47821,7 +47925,7 @@
       </c>
       <c r="P295" s="1"/>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:19">
       <c r="A296">
         <v>1106</v>
       </c>
@@ -47860,7 +47964,7 @@
       </c>
       <c r="P296" s="1"/>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:19">
       <c r="A297">
         <v>1107</v>
       </c>
@@ -47899,7 +48003,7 @@
       </c>
       <c r="P297" s="1"/>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:19">
       <c r="A298">
         <v>1108</v>
       </c>
@@ -47938,7 +48042,7 @@
       </c>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:19">
       <c r="A299">
         <v>1109</v>
       </c>
@@ -47977,7 +48081,7 @@
       </c>
       <c r="P299" s="1"/>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:19">
       <c r="A300">
         <v>1110</v>
       </c>
@@ -48016,7 +48120,7 @@
       </c>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:19">
       <c r="A301">
         <v>1111</v>
       </c>
@@ -48055,7 +48159,7 @@
       </c>
       <c r="P301" s="1"/>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:19">
       <c r="A302">
         <v>1112</v>
       </c>
@@ -48094,7 +48198,7 @@
       </c>
       <c r="P302" s="1"/>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:19">
       <c r="A303">
         <v>1113</v>
       </c>
@@ -48133,7 +48237,7 @@
       </c>
       <c r="P303" s="1"/>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:19">
       <c r="A304">
         <v>1114</v>
       </c>
@@ -48792,7 +48896,7 @@
         <v>35</v>
       </c>
       <c r="M320" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N320" s="1" t="s">
         <v>1569</v>
@@ -48834,7 +48938,7 @@
         <v>35</v>
       </c>
       <c r="M321" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N321" s="1" t="s">
         <v>1569</v>
@@ -48876,7 +48980,7 @@
         <v>35</v>
       </c>
       <c r="M322" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N322" s="1" t="s">
         <v>1569</v>
@@ -48918,7 +49022,7 @@
         <v>35</v>
       </c>
       <c r="M323" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N323" s="1" t="s">
         <v>1569</v>
@@ -48960,7 +49064,7 @@
         <v>35</v>
       </c>
       <c r="M324" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N324" s="1" t="s">
         <v>1569</v>
@@ -49002,7 +49106,7 @@
         <v>35</v>
       </c>
       <c r="M325" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N325" s="1" t="s">
         <v>1569</v>
@@ -49044,7 +49148,7 @@
         <v>35</v>
       </c>
       <c r="M326" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N326" s="1" t="s">
         <v>1569</v>
@@ -49086,7 +49190,7 @@
         <v>35</v>
       </c>
       <c r="M327" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N327" s="1" t="s">
         <v>1569</v>
@@ -49128,7 +49232,7 @@
         <v>35</v>
       </c>
       <c r="M328" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N328" s="1" t="s">
         <v>1569</v>
@@ -49170,7 +49274,7 @@
         <v>35</v>
       </c>
       <c r="M329" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N329" s="1" t="s">
         <v>1569</v>
@@ -49212,7 +49316,7 @@
         <v>35</v>
       </c>
       <c r="M330" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N330" s="1" t="s">
         <v>1569</v>
@@ -49254,7 +49358,7 @@
         <v>35</v>
       </c>
       <c r="M331" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N331" s="1" t="s">
         <v>1569</v>
@@ -49296,7 +49400,7 @@
         <v>35</v>
       </c>
       <c r="M332" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N332" s="1" t="s">
         <v>1569</v>
@@ -49338,7 +49442,7 @@
         <v>35</v>
       </c>
       <c r="M333" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N333" s="1" t="s">
         <v>1569</v>
@@ -49380,7 +49484,7 @@
         <v>35</v>
       </c>
       <c r="M334" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N334" s="1" t="s">
         <v>1569</v>
@@ -49422,7 +49526,7 @@
         <v>35</v>
       </c>
       <c r="M335" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N335" s="1" t="s">
         <v>1569</v>
@@ -49471,7 +49575,7 @@
       </c>
       <c r="P336" s="1"/>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:19">
       <c r="A337">
         <v>1147</v>
       </c>
@@ -49513,7 +49617,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:19">
       <c r="A338">
         <v>1148</v>
       </c>
@@ -49548,7 +49652,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:19">
       <c r="A339">
         <v>1149</v>
       </c>
@@ -49590,7 +49694,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:19">
       <c r="A340">
         <v>1150</v>
       </c>
@@ -49632,7 +49736,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:19">
       <c r="A341">
         <v>1151</v>
       </c>
@@ -49667,7 +49771,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:19">
       <c r="A342">
         <v>1152</v>
       </c>
@@ -49702,7 +49806,7 @@
       </c>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:19">
       <c r="A343">
         <v>1153</v>
       </c>
@@ -49737,7 +49841,7 @@
       </c>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:19">
       <c r="A344">
         <v>1154</v>
       </c>
@@ -49772,7 +49876,7 @@
       </c>
       <c r="P344" s="1"/>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:19">
       <c r="A345">
         <v>1155</v>
       </c>
@@ -49807,7 +49911,7 @@
       </c>
       <c r="P345" s="1"/>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:19">
       <c r="A346">
         <v>1156</v>
       </c>
@@ -49846,7 +49950,7 @@
       </c>
       <c r="P346" s="1"/>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:19">
       <c r="A347">
         <v>1157</v>
       </c>
@@ -49884,8 +49988,11 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-    </row>
-    <row r="348" spans="1:16">
+      <c r="S347" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
       <c r="A348">
         <v>1158</v>
       </c>
@@ -49923,8 +50030,11 @@
         <v>955</v>
       </c>
       <c r="P348" s="1"/>
-    </row>
-    <row r="349" spans="1:16">
+      <c r="S348" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19">
       <c r="A349">
         <v>1159</v>
       </c>
@@ -49965,8 +50075,11 @@
         <v>955</v>
       </c>
       <c r="P349" s="1"/>
-    </row>
-    <row r="350" spans="1:16">
+      <c r="S349" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19">
       <c r="A350">
         <v>1160</v>
       </c>
@@ -49999,7 +50112,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:19">
       <c r="A351">
         <v>1161</v>
       </c>
@@ -50032,7 +50145,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:19">
       <c r="A352">
         <v>1162</v>
       </c>
@@ -50145,6 +50258,9 @@
         <v>955</v>
       </c>
       <c r="P354" s="1"/>
+      <c r="S354" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="355" spans="1:19">
       <c r="A355">
@@ -50187,6 +50303,9 @@
         <v>955</v>
       </c>
       <c r="P355" s="1"/>
+      <c r="S355" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="356" spans="1:19">
       <c r="A356">
@@ -50229,6 +50348,9 @@
         <v>955</v>
       </c>
       <c r="P356" s="1"/>
+      <c r="S356" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="357" spans="1:19">
       <c r="A357">
@@ -54194,7 +54316,7 @@
         <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>1569</v>
@@ -54236,7 +54358,7 @@
         <v>35</v>
       </c>
       <c r="M79" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>1569</v>
@@ -54278,7 +54400,7 @@
         <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>1569</v>
@@ -54320,7 +54442,7 @@
         <v>35</v>
       </c>
       <c r="M81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>1569</v>
@@ -54362,7 +54484,7 @@
         <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>1569</v>
@@ -54404,7 +54526,7 @@
         <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>1569</v>
@@ -54446,7 +54568,7 @@
         <v>35</v>
       </c>
       <c r="M84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>1569</v>
@@ -54488,7 +54610,7 @@
         <v>35</v>
       </c>
       <c r="M85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>1569</v>
@@ -54530,7 +54652,7 @@
         <v>35</v>
       </c>
       <c r="M86" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>1569</v>
@@ -54572,7 +54694,7 @@
         <v>35</v>
       </c>
       <c r="M87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>1569</v>
@@ -54614,7 +54736,7 @@
         <v>35</v>
       </c>
       <c r="M88" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>1569</v>
@@ -54656,7 +54778,7 @@
         <v>35</v>
       </c>
       <c r="M89" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>1569</v>
@@ -54698,7 +54820,7 @@
         <v>35</v>
       </c>
       <c r="M90" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>1569</v>
@@ -54740,7 +54862,7 @@
         <v>35</v>
       </c>
       <c r="M91" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>1569</v>
@@ -54782,7 +54904,7 @@
         <v>35</v>
       </c>
       <c r="M92" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>1569</v>
@@ -54824,7 +54946,7 @@
         <v>35</v>
       </c>
       <c r="M93" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>1569</v>
@@ -56144,7 +56266,7 @@
         <v>35</v>
       </c>
       <c r="M124" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>1569</v>
@@ -56189,7 +56311,7 @@
         <v>35</v>
       </c>
       <c r="M125" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>1569</v>
@@ -56234,7 +56356,7 @@
         <v>35</v>
       </c>
       <c r="M126" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>1569</v>
@@ -56279,7 +56401,7 @@
         <v>35</v>
       </c>
       <c r="M127" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>1569</v>
@@ -56324,7 +56446,7 @@
         <v>35</v>
       </c>
       <c r="M128" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N128" s="1" t="s">
         <v>1569</v>
@@ -56369,7 +56491,7 @@
         <v>35</v>
       </c>
       <c r="M129" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>1569</v>
@@ -56414,7 +56536,7 @@
         <v>35</v>
       </c>
       <c r="M130" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>1569</v>
@@ -56459,7 +56581,7 @@
         <v>35</v>
       </c>
       <c r="M131" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>1569</v>
@@ -56504,7 +56626,7 @@
         <v>35</v>
       </c>
       <c r="M132" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N132" s="1" t="s">
         <v>1569</v>
@@ -56549,7 +56671,7 @@
         <v>35</v>
       </c>
       <c r="M133" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>1569</v>
@@ -56594,7 +56716,7 @@
         <v>35</v>
       </c>
       <c r="M134" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N134" s="1" t="s">
         <v>1569</v>
@@ -56639,7 +56761,7 @@
         <v>35</v>
       </c>
       <c r="M135" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>1569</v>
@@ -56684,7 +56806,7 @@
         <v>35</v>
       </c>
       <c r="M136" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>1569</v>
@@ -56729,7 +56851,7 @@
         <v>35</v>
       </c>
       <c r="M137" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>1569</v>
@@ -56774,7 +56896,7 @@
         <v>35</v>
       </c>
       <c r="M138" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>1569</v>
@@ -56819,7 +56941,7 @@
         <v>35</v>
       </c>
       <c r="M139" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>1569</v>
@@ -62497,6 +62619,9 @@
         <v>955</v>
       </c>
       <c r="P267" s="1"/>
+      <c r="S267" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="268" spans="1:19">
       <c r="A268">
@@ -62536,6 +62661,9 @@
         <v>955</v>
       </c>
       <c r="P268" s="1"/>
+      <c r="S268" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="269" spans="1:19">
       <c r="A269">
@@ -63984,7 +64112,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:19">
       <c r="A305">
         <v>753</v>
       </c>
@@ -64019,7 +64147,7 @@
       </c>
       <c r="P305" s="1"/>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:19">
       <c r="A306">
         <v>754</v>
       </c>
@@ -64060,8 +64188,11 @@
         <v>955</v>
       </c>
       <c r="P306" s="1"/>
-    </row>
-    <row r="307" spans="1:16">
+      <c r="S306" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19">
       <c r="A307">
         <v>755</v>
       </c>
@@ -64102,8 +64233,11 @@
         <v>955</v>
       </c>
       <c r="P307" s="1"/>
-    </row>
-    <row r="308" spans="1:16">
+      <c r="S307" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19">
       <c r="A308">
         <v>756</v>
       </c>
@@ -64145,7 +64279,7 @@
       </c>
       <c r="P308" s="1"/>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:19">
       <c r="A309">
         <v>757</v>
       </c>
@@ -64187,7 +64321,7 @@
       </c>
       <c r="P309" s="1"/>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:19">
       <c r="A310">
         <v>758</v>
       </c>
@@ -64222,7 +64356,7 @@
       </c>
       <c r="P310" s="1"/>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:19">
       <c r="A311">
         <v>759</v>
       </c>
@@ -64264,7 +64398,7 @@
       </c>
       <c r="P311" s="1"/>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:19">
       <c r="A312">
         <v>760</v>
       </c>
@@ -64306,7 +64440,7 @@
       </c>
       <c r="P312" s="1"/>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:19">
       <c r="A313">
         <v>761</v>
       </c>
@@ -64341,7 +64475,7 @@
       </c>
       <c r="P313" s="1"/>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:19">
       <c r="A314">
         <v>762</v>
       </c>
@@ -64376,7 +64510,7 @@
       </c>
       <c r="P314" s="1"/>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:19">
       <c r="A315">
         <v>763</v>
       </c>
@@ -64411,7 +64545,7 @@
       </c>
       <c r="P315" s="1"/>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:19">
       <c r="A316">
         <v>764</v>
       </c>
@@ -64446,7 +64580,7 @@
       </c>
       <c r="P316" s="1"/>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:19">
       <c r="A317">
         <v>765</v>
       </c>
@@ -64481,7 +64615,7 @@
       </c>
       <c r="P317" s="1"/>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:19">
       <c r="A318">
         <v>766</v>
       </c>
@@ -64520,7 +64654,7 @@
       </c>
       <c r="P318" s="1"/>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:19">
       <c r="A319">
         <v>767</v>
       </c>
@@ -64559,7 +64693,7 @@
       </c>
       <c r="P319" s="1"/>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:19">
       <c r="A320">
         <v>768</v>
       </c>
@@ -64597,8 +64731,11 @@
         <v>955</v>
       </c>
       <c r="P320" s="1"/>
-    </row>
-    <row r="321" spans="1:16">
+      <c r="S320" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19">
       <c r="A321">
         <v>769</v>
       </c>
@@ -64639,8 +64776,11 @@
         <v>955</v>
       </c>
       <c r="P321" s="1"/>
-    </row>
-    <row r="322" spans="1:16">
+      <c r="S321" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19">
       <c r="A322">
         <v>770</v>
       </c>
@@ -64681,8 +64821,11 @@
         <v>955</v>
       </c>
       <c r="P322" s="1"/>
-    </row>
-    <row r="323" spans="1:16">
+      <c r="S322" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19">
       <c r="A323">
         <v>771</v>
       </c>
@@ -64723,8 +64866,11 @@
         <v>955</v>
       </c>
       <c r="P323" s="1"/>
-    </row>
-    <row r="324" spans="1:16">
+      <c r="S323" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19">
       <c r="A324">
         <v>772</v>
       </c>
@@ -64765,8 +64911,11 @@
         <v>955</v>
       </c>
       <c r="P324" s="1"/>
-    </row>
-    <row r="325" spans="1:16">
+      <c r="S324" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:19">
       <c r="A325">
         <v>773</v>
       </c>
@@ -64804,8 +64953,11 @@
         <v>955</v>
       </c>
       <c r="P325" s="1"/>
-    </row>
-    <row r="326" spans="1:16">
+      <c r="S325" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19">
       <c r="A326">
         <v>774</v>
       </c>
@@ -64843,8 +64995,11 @@
         <v>955</v>
       </c>
       <c r="P326" s="1"/>
-    </row>
-    <row r="327" spans="1:16">
+      <c r="S326" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19">
       <c r="A327">
         <v>775</v>
       </c>
@@ -64882,8 +65037,11 @@
         <v>955</v>
       </c>
       <c r="P327" s="1"/>
-    </row>
-    <row r="328" spans="1:16">
+      <c r="S327" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19">
       <c r="A328">
         <v>776</v>
       </c>
@@ -64921,8 +65079,11 @@
         <v>955</v>
       </c>
       <c r="P328" s="1"/>
-    </row>
-    <row r="329" spans="1:16">
+      <c r="S328" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19">
       <c r="A329">
         <v>777</v>
       </c>
@@ -64960,8 +65121,11 @@
         <v>955</v>
       </c>
       <c r="P329" s="1"/>
-    </row>
-    <row r="330" spans="1:16">
+      <c r="S329" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19">
       <c r="A330">
         <v>778</v>
       </c>
@@ -64999,8 +65163,11 @@
         <v>955</v>
       </c>
       <c r="P330" s="1"/>
-    </row>
-    <row r="331" spans="1:16">
+      <c r="S330" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19">
       <c r="A331">
         <v>779</v>
       </c>
@@ -65038,8 +65205,11 @@
         <v>955</v>
       </c>
       <c r="P331" s="1"/>
-    </row>
-    <row r="332" spans="1:16">
+      <c r="S331" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
       <c r="A332">
         <v>780</v>
       </c>
@@ -65077,8 +65247,11 @@
         <v>955</v>
       </c>
       <c r="P332" s="1"/>
-    </row>
-    <row r="333" spans="1:16">
+      <c r="S332" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19">
       <c r="A333">
         <v>781</v>
       </c>
@@ -65116,8 +65289,11 @@
         <v>955</v>
       </c>
       <c r="P333" s="1"/>
-    </row>
-    <row r="334" spans="1:16">
+      <c r="S333" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19">
       <c r="A334">
         <v>782</v>
       </c>
@@ -65155,8 +65331,11 @@
         <v>955</v>
       </c>
       <c r="P334" s="1"/>
-    </row>
-    <row r="335" spans="1:16">
+      <c r="S334" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19">
       <c r="A335">
         <v>783</v>
       </c>
@@ -65197,8 +65376,11 @@
         <v>955</v>
       </c>
       <c r="P335" s="1"/>
-    </row>
-    <row r="336" spans="1:16">
+      <c r="S335" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19">
       <c r="A336">
         <v>784</v>
       </c>
@@ -65239,8 +65421,11 @@
         <v>955</v>
       </c>
       <c r="P336" s="1"/>
-    </row>
-    <row r="337" spans="1:16">
+      <c r="S336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19">
       <c r="A337">
         <v>785</v>
       </c>
@@ -65279,7 +65464,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:19">
       <c r="A338">
         <v>786</v>
       </c>
@@ -65314,7 +65499,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:19">
       <c r="A339">
         <v>787</v>
       </c>
@@ -65349,7 +65534,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:19">
       <c r="A340">
         <v>788</v>
       </c>
@@ -65384,7 +65569,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:19">
       <c r="A341">
         <v>789</v>
       </c>
@@ -65419,7 +65604,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:19">
       <c r="A342">
         <v>790</v>
       </c>
@@ -65457,8 +65642,11 @@
         <v>955</v>
       </c>
       <c r="P342" s="1"/>
-    </row>
-    <row r="343" spans="1:16">
+      <c r="S342" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19">
       <c r="A343">
         <v>791</v>
       </c>
@@ -65496,8 +65684,11 @@
         <v>955</v>
       </c>
       <c r="P343" s="1"/>
-    </row>
-    <row r="344" spans="1:16">
+      <c r="S343" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19">
       <c r="A344">
         <v>792</v>
       </c>
@@ -65535,8 +65726,11 @@
         <v>955</v>
       </c>
       <c r="P344" s="1"/>
-    </row>
-    <row r="345" spans="1:16">
+      <c r="S344" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19">
       <c r="A345">
         <v>793</v>
       </c>
@@ -65574,8 +65768,11 @@
         <v>955</v>
       </c>
       <c r="P345" s="1"/>
-    </row>
-    <row r="346" spans="1:16">
+      <c r="S345" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19">
       <c r="A346">
         <v>794</v>
       </c>
@@ -65616,8 +65813,11 @@
         <v>955</v>
       </c>
       <c r="P346" s="1"/>
-    </row>
-    <row r="347" spans="1:16">
+      <c r="S346" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19">
       <c r="A347">
         <v>795</v>
       </c>
@@ -65655,8 +65855,11 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-    </row>
-    <row r="348" spans="1:16">
+      <c r="S347" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19">
       <c r="A348">
         <v>796</v>
       </c>
@@ -65695,7 +65898,7 @@
       </c>
       <c r="P348" s="1"/>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:19">
       <c r="A349">
         <v>797</v>
       </c>
@@ -65734,7 +65937,7 @@
       </c>
       <c r="P349" s="1"/>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:19">
       <c r="A350">
         <v>798</v>
       </c>
@@ -65776,7 +65979,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:19">
       <c r="A351">
         <v>799</v>
       </c>
@@ -65818,7 +66021,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:19">
       <c r="A352">
         <v>800</v>
       </c>

--- a/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
+++ b/input/images/IJE_File_Layouts_and_FHIR_Mapping_24-06-21.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12836" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12784" uniqueCount="2788">
   <si>
     <t>This content was derived from the file IJE_File_Layouts_Version_2021_FHIR* and is automatically generated from the source file IJE_File_Layouts_and_FHIR_Mapping_24-06-21.csv.
 The CSV version of the file is used to drive the content of narrative generated for the Vital Records Implementation Guides (VRDR, BFDR, and VRCL).
@@ -13701,9 +13701,6 @@
       </c>
       <c r="N91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="S91" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="92" spans="1:19">
       <c r="A92">
@@ -45036,7 +45033,7 @@
       </c>
       <c r="P224" s="1"/>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:16">
       <c r="A225">
         <v>1035</v>
       </c>
@@ -45071,7 +45068,7 @@
       </c>
       <c r="P225" s="1"/>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:16">
       <c r="A226">
         <v>1036</v>
       </c>
@@ -45113,7 +45110,7 @@
       </c>
       <c r="P226" s="1"/>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:16">
       <c r="A227">
         <v>1037</v>
       </c>
@@ -45155,7 +45152,7 @@
       </c>
       <c r="P227" s="1"/>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:16">
       <c r="A228">
         <v>1038</v>
       </c>
@@ -45197,7 +45194,7 @@
       </c>
       <c r="P228" s="1"/>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:16">
       <c r="A229">
         <v>1039</v>
       </c>
@@ -45236,7 +45233,7 @@
       </c>
       <c r="P229" s="1"/>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:16">
       <c r="A230">
         <v>1040</v>
       </c>
@@ -45271,7 +45268,7 @@
       </c>
       <c r="P230" s="1"/>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:16">
       <c r="A231">
         <v>1041</v>
       </c>
@@ -45310,7 +45307,7 @@
       </c>
       <c r="P231" s="1"/>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:16">
       <c r="A232">
         <v>1042</v>
       </c>
@@ -45348,11 +45345,8 @@
         <v>955</v>
       </c>
       <c r="P232" s="1"/>
-      <c r="S232" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19">
+    </row>
+    <row r="233" spans="1:16">
       <c r="A233">
         <v>1043</v>
       </c>
@@ -45390,11 +45384,8 @@
         <v>955</v>
       </c>
       <c r="P233" s="1"/>
-      <c r="S233" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19">
+    </row>
+    <row r="234" spans="1:16">
       <c r="A234">
         <v>1044</v>
       </c>
@@ -45432,11 +45423,8 @@
         <v>955</v>
       </c>
       <c r="P234" s="1"/>
-      <c r="S234" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19">
+    </row>
+    <row r="235" spans="1:16">
       <c r="A235">
         <v>1045</v>
       </c>
@@ -45474,11 +45462,8 @@
         <v>955</v>
       </c>
       <c r="P235" s="1"/>
-      <c r="S235" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19">
+    </row>
+    <row r="236" spans="1:16">
       <c r="A236">
         <v>1046</v>
       </c>
@@ -45516,11 +45501,8 @@
         <v>955</v>
       </c>
       <c r="P236" s="1"/>
-      <c r="S236" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19">
+    </row>
+    <row r="237" spans="1:16">
       <c r="A237">
         <v>1047</v>
       </c>
@@ -45558,11 +45540,8 @@
         <v>955</v>
       </c>
       <c r="P237" s="1"/>
-      <c r="S237" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19">
+    </row>
+    <row r="238" spans="1:16">
       <c r="A238">
         <v>1048</v>
       </c>
@@ -45600,11 +45579,8 @@
         <v>955</v>
       </c>
       <c r="P238" s="1"/>
-      <c r="S238" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19">
+    </row>
+    <row r="239" spans="1:16">
       <c r="A239">
         <v>1049</v>
       </c>
@@ -45642,11 +45618,8 @@
         <v>955</v>
       </c>
       <c r="P239" s="1"/>
-      <c r="S239" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19">
+    </row>
+    <row r="240" spans="1:16">
       <c r="A240">
         <v>1050</v>
       </c>
@@ -45684,9 +45657,6 @@
         <v>955</v>
       </c>
       <c r="P240" s="1"/>
-      <c r="S240" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="241" spans="1:19">
       <c r="A241">
@@ -45726,9 +45696,6 @@
         <v>955</v>
       </c>
       <c r="P241" s="1"/>
-      <c r="S241" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="242" spans="1:19">
       <c r="A242">
@@ -45771,9 +45738,6 @@
         <v>955</v>
       </c>
       <c r="P242" s="1"/>
-      <c r="S242" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="243" spans="1:19">
       <c r="A243">
@@ -45816,9 +45780,6 @@
         <v>955</v>
       </c>
       <c r="P243" s="1"/>
-      <c r="S243" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="244" spans="1:19">
       <c r="A244">
@@ -46985,7 +46946,7 @@
       </c>
       <c r="P272" s="1"/>
     </row>
-    <row r="273" spans="1:19">
+    <row r="273" spans="1:18">
       <c r="A273">
         <v>1083</v>
       </c>
@@ -47024,7 +46985,7 @@
       </c>
       <c r="P273" s="1"/>
     </row>
-    <row r="274" spans="1:19">
+    <row r="274" spans="1:18">
       <c r="A274">
         <v>1084</v>
       </c>
@@ -47059,7 +47020,7 @@
       </c>
       <c r="P274" s="1"/>
     </row>
-    <row r="275" spans="1:19">
+    <row r="275" spans="1:18">
       <c r="A275">
         <v>1085</v>
       </c>
@@ -47094,7 +47055,7 @@
       </c>
       <c r="P275" s="1"/>
     </row>
-    <row r="276" spans="1:19">
+    <row r="276" spans="1:18">
       <c r="A276">
         <v>1086</v>
       </c>
@@ -47138,7 +47099,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="277" spans="1:19">
+    <row r="277" spans="1:18">
       <c r="A277">
         <v>1087</v>
       </c>
@@ -47171,7 +47132,7 @@
       </c>
       <c r="P277" s="1"/>
     </row>
-    <row r="278" spans="1:19">
+    <row r="278" spans="1:18">
       <c r="A278">
         <v>1088</v>
       </c>
@@ -47215,7 +47176,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="279" spans="1:19">
+    <row r="279" spans="1:18">
       <c r="A279">
         <v>1089</v>
       </c>
@@ -47248,7 +47209,7 @@
       </c>
       <c r="P279" s="1"/>
     </row>
-    <row r="280" spans="1:19">
+    <row r="280" spans="1:18">
       <c r="A280">
         <v>1090</v>
       </c>
@@ -47293,7 +47254,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="281" spans="1:19">
+    <row r="281" spans="1:18">
       <c r="A281">
         <v>1091</v>
       </c>
@@ -47326,7 +47287,7 @@
       </c>
       <c r="P281" s="1"/>
     </row>
-    <row r="282" spans="1:19">
+    <row r="282" spans="1:18">
       <c r="A282">
         <v>1092</v>
       </c>
@@ -47370,7 +47331,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="283" spans="1:19">
+    <row r="283" spans="1:18">
       <c r="A283">
         <v>1093</v>
       </c>
@@ -47403,7 +47364,7 @@
       </c>
       <c r="P283" s="1"/>
     </row>
-    <row r="284" spans="1:19">
+    <row r="284" spans="1:18">
       <c r="A284">
         <v>1094</v>
       </c>
@@ -47444,11 +47405,8 @@
         <v>955</v>
       </c>
       <c r="P284" s="1"/>
-      <c r="S284" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19">
+    </row>
+    <row r="285" spans="1:18">
       <c r="A285">
         <v>1095</v>
       </c>
@@ -47489,11 +47447,8 @@
         <v>955</v>
       </c>
       <c r="P285" s="1"/>
-      <c r="S285" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19">
+    </row>
+    <row r="286" spans="1:18">
       <c r="A286">
         <v>1096</v>
       </c>
@@ -47534,11 +47489,8 @@
         <v>955</v>
       </c>
       <c r="P286" s="1"/>
-      <c r="S286" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19">
+    </row>
+    <row r="287" spans="1:18">
       <c r="A287">
         <v>1097</v>
       </c>
@@ -47579,11 +47531,8 @@
         <v>955</v>
       </c>
       <c r="P287" s="1"/>
-      <c r="S287" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19">
+    </row>
+    <row r="288" spans="1:18">
       <c r="A288">
         <v>1098</v>
       </c>
@@ -47624,11 +47573,8 @@
         <v>955</v>
       </c>
       <c r="P288" s="1"/>
-      <c r="S288" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="289" spans="1:19">
+    </row>
+    <row r="289" spans="1:16">
       <c r="A289">
         <v>1099</v>
       </c>
@@ -47669,11 +47615,8 @@
         <v>955</v>
       </c>
       <c r="P289" s="1"/>
-      <c r="S289" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="290" spans="1:19">
+    </row>
+    <row r="290" spans="1:16">
       <c r="A290">
         <v>1100</v>
       </c>
@@ -47715,7 +47658,7 @@
       </c>
       <c r="P290" s="1"/>
     </row>
-    <row r="291" spans="1:19">
+    <row r="291" spans="1:16">
       <c r="A291">
         <v>1101</v>
       </c>
@@ -47757,7 +47700,7 @@
       </c>
       <c r="P291" s="1"/>
     </row>
-    <row r="292" spans="1:19">
+    <row r="292" spans="1:16">
       <c r="A292">
         <v>1102</v>
       </c>
@@ -47799,7 +47742,7 @@
       </c>
       <c r="P292" s="1"/>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" spans="1:16">
       <c r="A293">
         <v>1103</v>
       </c>
@@ -47841,7 +47784,7 @@
       </c>
       <c r="P293" s="1"/>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" spans="1:16">
       <c r="A294">
         <v>1104</v>
       </c>
@@ -47883,7 +47826,7 @@
       </c>
       <c r="P294" s="1"/>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" spans="1:16">
       <c r="A295">
         <v>1105</v>
       </c>
@@ -47925,7 +47868,7 @@
       </c>
       <c r="P295" s="1"/>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" spans="1:16">
       <c r="A296">
         <v>1106</v>
       </c>
@@ -47964,7 +47907,7 @@
       </c>
       <c r="P296" s="1"/>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" spans="1:16">
       <c r="A297">
         <v>1107</v>
       </c>
@@ -48003,7 +47946,7 @@
       </c>
       <c r="P297" s="1"/>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" spans="1:16">
       <c r="A298">
         <v>1108</v>
       </c>
@@ -48042,7 +47985,7 @@
       </c>
       <c r="P298" s="1"/>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" spans="1:16">
       <c r="A299">
         <v>1109</v>
       </c>
@@ -48081,7 +48024,7 @@
       </c>
       <c r="P299" s="1"/>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" spans="1:16">
       <c r="A300">
         <v>1110</v>
       </c>
@@ -48120,7 +48063,7 @@
       </c>
       <c r="P300" s="1"/>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" spans="1:16">
       <c r="A301">
         <v>1111</v>
       </c>
@@ -48159,7 +48102,7 @@
       </c>
       <c r="P301" s="1"/>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" spans="1:16">
       <c r="A302">
         <v>1112</v>
       </c>
@@ -48198,7 +48141,7 @@
       </c>
       <c r="P302" s="1"/>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" spans="1:16">
       <c r="A303">
         <v>1113</v>
       </c>
@@ -48237,7 +48180,7 @@
       </c>
       <c r="P303" s="1"/>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" spans="1:16">
       <c r="A304">
         <v>1114</v>
       </c>
@@ -49575,7 +49518,7 @@
       </c>
       <c r="P336" s="1"/>
     </row>
-    <row r="337" spans="1:19">
+    <row r="337" spans="1:16">
       <c r="A337">
         <v>1147</v>
       </c>
@@ -49617,7 +49560,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" spans="1:16">
       <c r="A338">
         <v>1148</v>
       </c>
@@ -49652,7 +49595,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" spans="1:16">
       <c r="A339">
         <v>1149</v>
       </c>
@@ -49694,7 +49637,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" spans="1:16">
       <c r="A340">
         <v>1150</v>
       </c>
@@ -49736,7 +49679,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" spans="1:16">
       <c r="A341">
         <v>1151</v>
       </c>
@@ -49771,7 +49714,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" spans="1:16">
       <c r="A342">
         <v>1152</v>
       </c>
@@ -49806,7 +49749,7 @@
       </c>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:19">
+    <row r="343" spans="1:16">
       <c r="A343">
         <v>1153</v>
       </c>
@@ -49841,7 +49784,7 @@
       </c>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:19">
+    <row r="344" spans="1:16">
       <c r="A344">
         <v>1154</v>
       </c>
@@ -49876,7 +49819,7 @@
       </c>
       <c r="P344" s="1"/>
     </row>
-    <row r="345" spans="1:19">
+    <row r="345" spans="1:16">
       <c r="A345">
         <v>1155</v>
       </c>
@@ -49911,7 +49854,7 @@
       </c>
       <c r="P345" s="1"/>
     </row>
-    <row r="346" spans="1:19">
+    <row r="346" spans="1:16">
       <c r="A346">
         <v>1156</v>
       </c>
@@ -49950,7 +49893,7 @@
       </c>
       <c r="P346" s="1"/>
     </row>
-    <row r="347" spans="1:19">
+    <row r="347" spans="1:16">
       <c r="A347">
         <v>1157</v>
       </c>
@@ -49988,11 +49931,8 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-      <c r="S347" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="348" spans="1:19">
+    </row>
+    <row r="348" spans="1:16">
       <c r="A348">
         <v>1158</v>
       </c>
@@ -50030,11 +49970,8 @@
         <v>955</v>
       </c>
       <c r="P348" s="1"/>
-      <c r="S348" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="349" spans="1:19">
+    </row>
+    <row r="349" spans="1:16">
       <c r="A349">
         <v>1159</v>
       </c>
@@ -50075,11 +50012,8 @@
         <v>955</v>
       </c>
       <c r="P349" s="1"/>
-      <c r="S349" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="350" spans="1:19">
+    </row>
+    <row r="350" spans="1:16">
       <c r="A350">
         <v>1160</v>
       </c>
@@ -50112,7 +50046,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" spans="1:16">
       <c r="A351">
         <v>1161</v>
       </c>
@@ -50145,7 +50079,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" spans="1:16">
       <c r="A352">
         <v>1162</v>
       </c>
@@ -50258,9 +50192,6 @@
         <v>955</v>
       </c>
       <c r="P354" s="1"/>
-      <c r="S354" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="355" spans="1:19">
       <c r="A355">
@@ -50303,9 +50234,6 @@
         <v>955</v>
       </c>
       <c r="P355" s="1"/>
-      <c r="S355" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="356" spans="1:19">
       <c r="A356">
@@ -50348,9 +50276,6 @@
         <v>955</v>
       </c>
       <c r="P356" s="1"/>
-      <c r="S356" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="357" spans="1:19">
       <c r="A357">
@@ -62619,9 +62544,6 @@
         <v>955</v>
       </c>
       <c r="P267" s="1"/>
-      <c r="S267" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="268" spans="1:19">
       <c r="A268">
@@ -62661,9 +62583,6 @@
         <v>955</v>
       </c>
       <c r="P268" s="1"/>
-      <c r="S268" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="269" spans="1:19">
       <c r="A269">
@@ -64112,7 +64031,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="305" spans="1:19">
+    <row r="305" spans="1:16">
       <c r="A305">
         <v>753</v>
       </c>
@@ -64147,7 +64066,7 @@
       </c>
       <c r="P305" s="1"/>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" spans="1:16">
       <c r="A306">
         <v>754</v>
       </c>
@@ -64188,11 +64107,8 @@
         <v>955</v>
       </c>
       <c r="P306" s="1"/>
-      <c r="S306" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="307" spans="1:19">
+    </row>
+    <row r="307" spans="1:16">
       <c r="A307">
         <v>755</v>
       </c>
@@ -64233,11 +64149,8 @@
         <v>955</v>
       </c>
       <c r="P307" s="1"/>
-      <c r="S307" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="308" spans="1:19">
+    </row>
+    <row r="308" spans="1:16">
       <c r="A308">
         <v>756</v>
       </c>
@@ -64279,7 +64192,7 @@
       </c>
       <c r="P308" s="1"/>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" spans="1:16">
       <c r="A309">
         <v>757</v>
       </c>
@@ -64321,7 +64234,7 @@
       </c>
       <c r="P309" s="1"/>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" spans="1:16">
       <c r="A310">
         <v>758</v>
       </c>
@@ -64356,7 +64269,7 @@
       </c>
       <c r="P310" s="1"/>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" spans="1:16">
       <c r="A311">
         <v>759</v>
       </c>
@@ -64398,7 +64311,7 @@
       </c>
       <c r="P311" s="1"/>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" spans="1:16">
       <c r="A312">
         <v>760</v>
       </c>
@@ -64440,7 +64353,7 @@
       </c>
       <c r="P312" s="1"/>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" spans="1:16">
       <c r="A313">
         <v>761</v>
       </c>
@@ -64475,7 +64388,7 @@
       </c>
       <c r="P313" s="1"/>
     </row>
-    <row r="314" spans="1:19">
+    <row r="314" spans="1:16">
       <c r="A314">
         <v>762</v>
       </c>
@@ -64510,7 +64423,7 @@
       </c>
       <c r="P314" s="1"/>
     </row>
-    <row r="315" spans="1:19">
+    <row r="315" spans="1:16">
       <c r="A315">
         <v>763</v>
       </c>
@@ -64545,7 +64458,7 @@
       </c>
       <c r="P315" s="1"/>
     </row>
-    <row r="316" spans="1:19">
+    <row r="316" spans="1:16">
       <c r="A316">
         <v>764</v>
       </c>
@@ -64580,7 +64493,7 @@
       </c>
       <c r="P316" s="1"/>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" spans="1:16">
       <c r="A317">
         <v>765</v>
       </c>
@@ -64615,7 +64528,7 @@
       </c>
       <c r="P317" s="1"/>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" spans="1:16">
       <c r="A318">
         <v>766</v>
       </c>
@@ -64654,7 +64567,7 @@
       </c>
       <c r="P318" s="1"/>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" spans="1:16">
       <c r="A319">
         <v>767</v>
       </c>
@@ -64693,7 +64606,7 @@
       </c>
       <c r="P319" s="1"/>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" spans="1:16">
       <c r="A320">
         <v>768</v>
       </c>
@@ -64731,11 +64644,8 @@
         <v>955</v>
       </c>
       <c r="P320" s="1"/>
-      <c r="S320" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="321" spans="1:19">
+    </row>
+    <row r="321" spans="1:16">
       <c r="A321">
         <v>769</v>
       </c>
@@ -64776,11 +64686,8 @@
         <v>955</v>
       </c>
       <c r="P321" s="1"/>
-      <c r="S321" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="322" spans="1:19">
+    </row>
+    <row r="322" spans="1:16">
       <c r="A322">
         <v>770</v>
       </c>
@@ -64821,11 +64728,8 @@
         <v>955</v>
       </c>
       <c r="P322" s="1"/>
-      <c r="S322" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="323" spans="1:19">
+    </row>
+    <row r="323" spans="1:16">
       <c r="A323">
         <v>771</v>
       </c>
@@ -64866,11 +64770,8 @@
         <v>955</v>
       </c>
       <c r="P323" s="1"/>
-      <c r="S323" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="324" spans="1:19">
+    </row>
+    <row r="324" spans="1:16">
       <c r="A324">
         <v>772</v>
       </c>
@@ -64911,11 +64812,8 @@
         <v>955</v>
       </c>
       <c r="P324" s="1"/>
-      <c r="S324" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="325" spans="1:19">
+    </row>
+    <row r="325" spans="1:16">
       <c r="A325">
         <v>773</v>
       </c>
@@ -64953,11 +64851,8 @@
         <v>955</v>
       </c>
       <c r="P325" s="1"/>
-      <c r="S325" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="326" spans="1:19">
+    </row>
+    <row r="326" spans="1:16">
       <c r="A326">
         <v>774</v>
       </c>
@@ -64995,11 +64890,8 @@
         <v>955</v>
       </c>
       <c r="P326" s="1"/>
-      <c r="S326" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="327" spans="1:19">
+    </row>
+    <row r="327" spans="1:16">
       <c r="A327">
         <v>775</v>
       </c>
@@ -65037,11 +64929,8 @@
         <v>955</v>
       </c>
       <c r="P327" s="1"/>
-      <c r="S327" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="328" spans="1:19">
+    </row>
+    <row r="328" spans="1:16">
       <c r="A328">
         <v>776</v>
       </c>
@@ -65079,11 +64968,8 @@
         <v>955</v>
       </c>
       <c r="P328" s="1"/>
-      <c r="S328" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="329" spans="1:19">
+    </row>
+    <row r="329" spans="1:16">
       <c r="A329">
         <v>777</v>
       </c>
@@ -65121,11 +65007,8 @@
         <v>955</v>
       </c>
       <c r="P329" s="1"/>
-      <c r="S329" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="330" spans="1:19">
+    </row>
+    <row r="330" spans="1:16">
       <c r="A330">
         <v>778</v>
       </c>
@@ -65163,11 +65046,8 @@
         <v>955</v>
       </c>
       <c r="P330" s="1"/>
-      <c r="S330" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="331" spans="1:19">
+    </row>
+    <row r="331" spans="1:16">
       <c r="A331">
         <v>779</v>
       </c>
@@ -65205,11 +65085,8 @@
         <v>955</v>
       </c>
       <c r="P331" s="1"/>
-      <c r="S331" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="332" spans="1:19">
+    </row>
+    <row r="332" spans="1:16">
       <c r="A332">
         <v>780</v>
       </c>
@@ -65247,11 +65124,8 @@
         <v>955</v>
       </c>
       <c r="P332" s="1"/>
-      <c r="S332" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="333" spans="1:19">
+    </row>
+    <row r="333" spans="1:16">
       <c r="A333">
         <v>781</v>
       </c>
@@ -65289,11 +65163,8 @@
         <v>955</v>
       </c>
       <c r="P333" s="1"/>
-      <c r="S333" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="334" spans="1:19">
+    </row>
+    <row r="334" spans="1:16">
       <c r="A334">
         <v>782</v>
       </c>
@@ -65331,11 +65202,8 @@
         <v>955</v>
       </c>
       <c r="P334" s="1"/>
-      <c r="S334" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="335" spans="1:19">
+    </row>
+    <row r="335" spans="1:16">
       <c r="A335">
         <v>783</v>
       </c>
@@ -65376,11 +65244,8 @@
         <v>955</v>
       </c>
       <c r="P335" s="1"/>
-      <c r="S335" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="336" spans="1:19">
+    </row>
+    <row r="336" spans="1:16">
       <c r="A336">
         <v>784</v>
       </c>
@@ -65421,11 +65286,8 @@
         <v>955</v>
       </c>
       <c r="P336" s="1"/>
-      <c r="S336" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="337" spans="1:19">
+    </row>
+    <row r="337" spans="1:16">
       <c r="A337">
         <v>785</v>
       </c>
@@ -65464,7 +65326,7 @@
       </c>
       <c r="P337" s="1"/>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" spans="1:16">
       <c r="A338">
         <v>786</v>
       </c>
@@ -65499,7 +65361,7 @@
       </c>
       <c r="P338" s="1"/>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" spans="1:16">
       <c r="A339">
         <v>787</v>
       </c>
@@ -65534,7 +65396,7 @@
       </c>
       <c r="P339" s="1"/>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" spans="1:16">
       <c r="A340">
         <v>788</v>
       </c>
@@ -65569,7 +65431,7 @@
       </c>
       <c r="P340" s="1"/>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" spans="1:16">
       <c r="A341">
         <v>789</v>
       </c>
@@ -65604,7 +65466,7 @@
       </c>
       <c r="P341" s="1"/>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" spans="1:16">
       <c r="A342">
         <v>790</v>
       </c>
@@ -65642,11 +65504,8 @@
         <v>955</v>
       </c>
       <c r="P342" s="1"/>
-      <c r="S342" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="343" spans="1:19">
+    </row>
+    <row r="343" spans="1:16">
       <c r="A343">
         <v>791</v>
       </c>
@@ -65684,11 +65543,8 @@
         <v>955</v>
       </c>
       <c r="P343" s="1"/>
-      <c r="S343" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="344" spans="1:19">
+    </row>
+    <row r="344" spans="1:16">
       <c r="A344">
         <v>792</v>
       </c>
@@ -65726,11 +65582,8 @@
         <v>955</v>
       </c>
       <c r="P344" s="1"/>
-      <c r="S344" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="345" spans="1:19">
+    </row>
+    <row r="345" spans="1:16">
       <c r="A345">
         <v>793</v>
       </c>
@@ -65768,11 +65621,8 @@
         <v>955</v>
       </c>
       <c r="P345" s="1"/>
-      <c r="S345" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="346" spans="1:19">
+    </row>
+    <row r="346" spans="1:16">
       <c r="A346">
         <v>794</v>
       </c>
@@ -65813,11 +65663,8 @@
         <v>955</v>
       </c>
       <c r="P346" s="1"/>
-      <c r="S346" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="347" spans="1:19">
+    </row>
+    <row r="347" spans="1:16">
       <c r="A347">
         <v>795</v>
       </c>
@@ -65855,11 +65702,8 @@
         <v>955</v>
       </c>
       <c r="P347" s="1"/>
-      <c r="S347" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="348" spans="1:19">
+    </row>
+    <row r="348" spans="1:16">
       <c r="A348">
         <v>796</v>
       </c>
@@ -65898,7 +65742,7 @@
       </c>
       <c r="P348" s="1"/>
     </row>
-    <row r="349" spans="1:19">
+    <row r="349" spans="1:16">
       <c r="A349">
         <v>797</v>
       </c>
@@ -65937,7 +65781,7 @@
       </c>
       <c r="P349" s="1"/>
     </row>
-    <row r="350" spans="1:19">
+    <row r="350" spans="1:16">
       <c r="A350">
         <v>798</v>
       </c>
@@ -65979,7 +65823,7 @@
       </c>
       <c r="P350" s="1"/>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" spans="1:16">
       <c r="A351">
         <v>799</v>
       </c>
@@ -66021,7 +65865,7 @@
       </c>
       <c r="P351" s="1"/>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" spans="1:16">
       <c r="A352">
         <v>800</v>
       </c>
